--- a/tests/multialgorithm/fixtures/test_new_features_model.xlsx
+++ b/tests/multialgorithm/fixtures/test_new_features_model.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="36280" windowHeight="19980" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="8" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="126">
   <si>
     <t>ID</t>
   </si>
@@ -344,9 +344,6 @@
     <t>Metabolism production</t>
   </si>
   <si>
-    <t>metabolite</t>
-  </si>
-  <si>
     <t>[c]: (2) specie_2 ==&gt; biomass</t>
   </si>
   <si>
@@ -417,18 +414,6 @@
   </si>
   <si>
     <t>[e]: specie_2 ==&gt;</t>
-  </si>
-  <si>
-    <t>Forward rate law</t>
-  </si>
-  <si>
-    <t>Reverse rate law</t>
-  </si>
-  <si>
-    <t>CONSTANT</t>
-  </si>
-  <si>
-    <t>CONSTANT * specie_2</t>
   </si>
   <si>
     <t>chemical</t>
@@ -1234,7 +1219,7 @@
     </row>
     <row r="2" spans="1:7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>78</v>
@@ -1243,7 +1228,7 @@
         <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>4</v>
@@ -1251,7 +1236,7 @@
     </row>
     <row r="3" spans="1:7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>79</v>
@@ -1350,10 +1335,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView zoomScale="209" zoomScaleNormal="209" zoomScalePageLayoutView="209" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1412,7 +1397,7 @@
         <v>75</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -1436,7 +1421,7 @@
         <v>75</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F3" s="1">
         <v>2</v>
@@ -1460,7 +1445,7 @@
         <v>75</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F4" s="1">
         <v>3</v>
@@ -1485,7 +1470,7 @@
       </c>
       <c r="D5"/>
       <c r="E5" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -1511,7 +1496,7 @@
       </c>
       <c r="D6"/>
       <c r="E6" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -1536,7 +1521,7 @@
         <v>75</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -1546,26 +1531,6 @@
       </c>
       <c r="H7" s="2" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" s="1">
-        <v>10</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1608,7 +1573,7 @@
         <v>43</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>15</v>
@@ -1628,7 +1593,7 @@
         <v>1.4799999999999999E-4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1639,7 +1604,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1650,7 +1615,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1661,29 +1626,29 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" s="2">
         <v>1E-3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B7" s="2">
         <v>2E-3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1699,8 +1664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="156" zoomScalePageLayoutView="156" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView zoomScale="156" zoomScaleNormal="156" zoomScalePageLayoutView="156" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1711,11 +1676,10 @@
     <col min="4" max="4" width="14.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="43.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.83203125" style="1"/>
-    <col min="7" max="7" width="11.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.83203125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="10.83203125"/>
+    <col min="9" max="9" width="11.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" style="1" customWidth="1"/>
     <col min="12" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -1738,20 +1702,20 @@
       <c r="F1" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>125</v>
+      <c r="K1" s="8" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -1762,10 +1726,10 @@
         <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>87</v>
@@ -1773,9 +1737,15 @@
       <c r="F2" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="1">
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="7"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1787,10 +1757,10 @@
         <v>26</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>88</v>
@@ -1798,9 +1768,15 @@
       <c r="F3" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="1">
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3" s="7"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1812,7 +1788,7 @@
         <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>89</v>
@@ -1820,9 +1796,15 @@
       <c r="F4" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="1">
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1834,7 +1816,7 @@
         <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>90</v>
@@ -1842,9 +1824,15 @@
       <c r="F5" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="1">
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1856,42 +1844,42 @@
         <v>98</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F6" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="I6" s="1">
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="K6" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="F7" s="1" t="b">
         <v>1</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1907,10 +1895,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="190" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="190" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1918,7 +1906,7 @@
     <col min="3" max="3" width="37.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>46</v>
       </c>
@@ -1934,20 +1922,14 @@
       <c r="E1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -1955,16 +1937,10 @@
         <v>85</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -1972,20 +1948,14 @@
         <v>85</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D3" s="6">
         <v>2000</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -1993,7 +1963,7 @@
         <v>85</v>
       </c>
       <c r="C4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D4" s="6">
         <v>2.9999999999999997E-4</v>
@@ -2001,22 +1971,16 @@
       <c r="E4" s="6">
         <v>1E-3</v>
       </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D5" s="6">
         <v>2.9999999999999997E-4</v>
@@ -2024,14 +1988,8 @@
       <c r="E5" s="6">
         <v>1E-3</v>
       </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-      <c r="G5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -2047,14 +2005,8 @@
       <c r="E6" s="6">
         <v>1E-3</v>
       </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>97</v>
       </c>

--- a/tests/multialgorithm/fixtures/test_new_features_model.xlsx
+++ b/tests/multialgorithm/fixtures/test_new_features_model.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="36280" windowHeight="19980" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="36280" windowHeight="19980" tabRatio="500" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="8" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Rate laws" sheetId="11" r:id="rId8"/>
     <sheet name="Parameters" sheetId="5" r:id="rId9"/>
     <sheet name="References" sheetId="6" r:id="rId10"/>
-    <sheet name="Cross references" sheetId="12" r:id="rId11"/>
+    <sheet name="Database references" sheetId="12" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$E$3</definedName>
@@ -32,7 +32,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Species types'!$A$1:$J$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Submodels!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -1075,7 +1075,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1676,7 +1676,6 @@
     <col min="4" max="4" width="14.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="43.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.83203125" style="1"/>
-    <col min="7" max="8" width="10.83203125"/>
     <col min="9" max="9" width="11.83203125" style="1" customWidth="1"/>
     <col min="10" max="10" width="11" style="1" customWidth="1"/>
     <col min="11" max="11" width="11.33203125" style="1" customWidth="1"/>
@@ -1897,7 +1896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="190" workbookViewId="0">
       <selection activeCell="F1" sqref="F1:G1048576"/>
     </sheetView>
   </sheetViews>

--- a/tests/multialgorithm/fixtures/test_new_features_model.xlsx
+++ b/tests/multialgorithm/fixtures/test_new_features_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -33,10 +33,15 @@
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">submodels!#REF!</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -48,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="131">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -245,9 +250,15 @@
     <t xml:space="preserve">Value</t>
   </si>
   <si>
+    <t xml:space="preserve">Units</t>
+  </si>
+  <si>
     <t xml:space="preserve">specie_1[e]</t>
   </si>
   <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
     <t xml:space="preserve">specie_2[e]</t>
   </si>
   <si>
@@ -372,9 +383,6 @@
   </si>
   <si>
     <t xml:space="preserve">Submodels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Units</t>
   </si>
   <si>
     <t xml:space="preserve">fractionDryWeight</t>
@@ -534,7 +542,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -562,16 +570,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -588,7 +588,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -604,10 +604,6 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -616,19 +612,15 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -636,41 +628,35 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="22" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal 2" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Normal 3" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -769,7 +755,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.4615384615385"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.5668016194332"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -862,25 +848,25 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.0283400809717"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.3481781376518"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>13</v>
@@ -891,24 +877,24 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>95</v>
+        <v>80</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>95</v>
+        <v>83</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D3" s="5" t="n">
         <v>2000</v>
@@ -917,13 +903,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>95</v>
+        <v>86</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.0003</v>
@@ -934,13 +920,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>99</v>
+        <v>86</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>101</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0.0003</v>
@@ -951,13 +937,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>95</v>
+        <v>89</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>0.0003</v>
@@ -990,53 +976,53 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="13.0404858299595"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="14.1457489878543"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="8" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="8" width="7.74898785425101"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="8" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="10" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="10" width="14.1417004048583"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="10" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="10" width="7.81781376518219"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="10" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="F1" s="17" t="s">
+      <c r="D1" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="C2" s="19" t="s">
+      <c r="A2" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="20" t="n">
+      <c r="D2" s="17" t="n">
         <v>-1</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="18"/>
+      <c r="F2" s="15"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1062,25 +1048,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.1174089068826"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="18" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1088,16 +1074,16 @@
       <c r="A2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" s="18" t="s">
+      <c r="B2" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="E2" s="18"/>
+      <c r="D2" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" s="15"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1123,12 +1109,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="42.0971659919028"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="42.4210526315789"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="2" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="2" width="6.31983805668016"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="47.4534412955466"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="47.8825910931174"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="2" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -1143,13 +1129,13 @@
         <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>13</v>
@@ -1160,10 +1146,10 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -1172,10 +1158,10 @@
         <v>0.3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1204,7 +1190,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1218,7 +1204,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>13</v>
@@ -1249,9 +1235,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="2" width="8.35627530364373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="30.5303643724696"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="30.7449392712551"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="2" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -1266,46 +1252,46 @@
         <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>43</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>13</v>
@@ -1342,10 +1328,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
@@ -1354,22 +1340,22 @@
         <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1468,14 +1454,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="10.2834008097166"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="13.8178137651822"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="12.4251012145749"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="12.6396761133603"/>
     <col collapsed="false" hidden="false" max="8" min="6" style="2" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="2" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.6396761133603"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="2" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -1571,9 +1557,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="2" width="5.1417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="2" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="43.8097165991903"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="2" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="44.1336032388664"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="10.8178137651822"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="2" width="8.78542510121457"/>
   </cols>
@@ -1659,12 +1645,12 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="2" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="2" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="2" width="14.6761133603239"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="2" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="9.96356275303644"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="2" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="2" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="2" width="18.5303643724696"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="2" width="8.78542510121457"/>
   </cols>
@@ -1862,88 +1848,108 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="7" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="7" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="7" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="7" width="9.85425101214575"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="7" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="7" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="7" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="7" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="1023" min="13" style="7" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="8" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="7" width="9.31983805668016"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="7" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="7" width="10.497975708502"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="7" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="7" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="7" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="7" width="10.497975708502"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="7" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="7" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="10" t="n">
+        <v>66</v>
+      </c>
+      <c r="B2" s="9" t="n">
         <v>0.000148</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="10" t="n">
+        <v>68</v>
+      </c>
+      <c r="B3" s="9" t="n">
         <v>0.0002</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="9" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>67</v>
-      </c>
-      <c r="B4" s="10" t="n">
-        <v>0.0005</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="10" t="n">
+        <v>70</v>
+      </c>
+      <c r="B5" s="9" t="n">
         <v>0.0005</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="10" t="n">
+        <v>71</v>
+      </c>
+      <c r="B6" s="9" t="n">
         <v>0.001</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="10" t="n">
+        <v>72</v>
+      </c>
+      <c r="B7" s="9" t="n">
         <v>0.002</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1970,7 +1976,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1987,7 +1993,7 @@
         <v>63</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>13</v>
@@ -2017,7 +2023,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2031,7 +2037,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>13</v>
@@ -2055,50 +2061,50 @@
   </sheetPr>
   <dimension ref="1:5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="17.4615384615385"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="14.4615384615385"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="7" width="44.0242914979757"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="7" width="44.3481781376518"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="7" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="8" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="10" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="7" width="11.7813765182186"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="7" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1021" min="10" style="7" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="true" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
+    <row r="1" s="11" customFormat="true" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" s="11" t="s">
+      <c r="C1" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="F1" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="8" t="s">
         <v>20</v>
       </c>
       <c r="AMH1" s="0"/>
@@ -2107,103 +2113,103 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" s="8" t="n">
+        <v>82</v>
+      </c>
+      <c r="E2" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F2" s="8" t="n">
+      <c r="F2" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="G2" s="8" t="n">
+      <c r="G2" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="14"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="12"/>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E3" s="8" t="n">
+        <v>85</v>
+      </c>
+      <c r="E3" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F3" s="8" t="n">
+      <c r="F3" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="G3" s="8" t="n">
+      <c r="G3" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="14"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="12"/>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E4" s="8" t="n">
+        <v>88</v>
+      </c>
+      <c r="E4" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F4" s="8" t="n">
+      <c r="F4" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="G4" s="8" t="n">
+      <c r="G4" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="E5" s="8" t="n">
+      <c r="D5" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F5" s="8" t="n">
+      <c r="F5" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="G5" s="8" t="n">
+      <c r="G5" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D5"/>

--- a/tests/multialgorithm/fixtures/test_new_features_model.xlsx
+++ b/tests/multialgorithm/fixtures/test_new_features_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -34,14 +34,19 @@
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">submodels!#REF!</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
     <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">References!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -53,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="131">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -121,259 +126,259 @@
     <t xml:space="preserve">Algorithm</t>
   </si>
   <si>
+    <t xml:space="preserve">Biomass reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfba_submodel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolism_biomass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ssa_submodel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA degradation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ssa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average volume of Mycoplasma pneumoniae is 66 aL [Ref-0001]. This equates to 45.8 aL at the beginning of the cell cycle (66 aL * ln(2)).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extracellular space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typical density of Mycoplasma pneumoniae cells in culture is 1e-9 cells/mL [Ref-0002].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Structure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empirical formula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molecular weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pseudo_species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N2O2Na3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H3SO4C9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Units</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_1[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_2[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_2[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_4[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_5[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_6[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Submodel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reversible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_1[e] + specie_2[e] ==&gt; specie_1[c] + specie_2[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (2) specie_2 ==&gt; specie_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: specie_2 + (2) specie_3 ==&gt; specie_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: specie_4 ==&gt; (2) specie_5 + specie_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max( specie_1[e], specie_2[e] )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * specie_2[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_4[c] / k_m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">backward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_5[c] + specie_6[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coefficient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Species type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biomass_id_002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biomass_comp_2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Compartment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biomass reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dfba_submodel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dfba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metabolism_biomass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ssa_submodel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNA degradation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ssa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Initial volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average volume of Mycoplasma pneumoniae is 66 aL [Ref-0001]. This equates to 45.8 aL at the beginning of the cell cycle (66 aL * ln(2)).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extracellular space</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Typical density of Mycoplasma pneumoniae cells in culture is 1e-9 cells/mL [Ref-0002].</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Structure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empirical formula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Molecular weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pseudo_species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N2O2Na3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H3SO4C9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Units</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_1[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_2[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_2[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_4[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_5[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_6[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Observables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Submodel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Participants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reversible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_1[e] + specie_2[e] ==&gt; specie_1[c] + specie_2[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: (2) specie_2 ==&gt; specie_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: specie_2 + (2) specie_3 ==&gt; specie_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: specie_4 ==&gt; (2) specie_5 + specie_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Direction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K cat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max( specie_1[e], specie_2[e] )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">k_cat * specie_2[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_4[c] / k_m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">backward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_5[c] + specie_6[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coefficient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_id_002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_comp_2</t>
   </si>
   <si>
     <t xml:space="preserve">Metabolism biomass reaction</t>
@@ -755,7 +760,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -848,25 +853,25 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.3481781376518"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.668016194332"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>13</v>
@@ -877,24 +882,24 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>97</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D3" s="5" t="n">
         <v>2000</v>
@@ -903,13 +908,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.0003</v>
@@ -920,13 +925,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>101</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>102</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0.0003</v>
@@ -937,13 +942,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>0.0003</v>
@@ -976,7 +981,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="10" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="10" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="10" width="14.1417004048583"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="10" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="10" width="7.81781376518219"/>
@@ -991,13 +996,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>103</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>104</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>13</v>
@@ -1008,19 +1013,19 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>106</v>
-      </c>
       <c r="C2" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D2" s="17" t="n">
         <v>-1</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F2" s="15"/>
     </row>
@@ -1049,7 +1054,7 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1061,7 +1066,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>13</v>
@@ -1072,13 +1077,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>107</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>108</v>
@@ -1109,12 +1114,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="42.4210526315789"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="42.7408906882591"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="2" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="2" width="6.31983805668016"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="47.8825910931174"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="48.3117408906883"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="2" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -1132,10 +1137,10 @@
         <v>109</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>13</v>
@@ -1204,7 +1209,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>13</v>
@@ -1235,9 +1240,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="2" width="8.35627530364373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="30.7449392712551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="31.0647773279352"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="2" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -1264,7 +1269,7 @@
         <v>117</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>118</v>
@@ -1343,16 +1348,16 @@
         <v>129</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>130</v>
@@ -1446,23 +1451,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="1:3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="13.8178137651822"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="12.5344129554656"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="8" min="6" style="2" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="2" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="2" width="9.31983805668016"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="1023" min="10" style="2" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1485,51 +1490,46 @@
         <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="0"/>
+      <c r="I1" s="0"/>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="F2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1557,9 +1557,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="2" width="5.1417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="2" width="17.246963562753"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="44.1336032388664"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="2" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="44.4534412955466"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="10.8178137651822"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="2" width="8.78542510121457"/>
   </cols>
@@ -1575,7 +1575,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>13</v>
@@ -1586,10 +1586,10 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -1598,15 +1598,15 @@
         <v>4.58E-017</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
@@ -1615,7 +1615,7 @@
         <v>1E-012</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1645,12 +1645,12 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="2" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="2" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="2" width="14.7813765182186"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="2" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="10.0688259109312"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="2" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="2" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="2" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="2" width="8.78542510121457"/>
   </cols>
@@ -1666,19 +1666,19 @@
         <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>13</v>
@@ -1689,16 +1689,16 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>1</v>
@@ -1707,22 +1707,22 @@
         <v>0</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>2</v>
@@ -1731,22 +1731,22 @@
         <v>0</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>3</v>
@@ -1755,22 +1755,22 @@
         <v>0</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>4</v>
@@ -1779,22 +1779,22 @@
         <v>0</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>5</v>
@@ -1803,22 +1803,22 @@
         <v>0</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F7" s="2" t="n">
         <v>6</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1850,34 +1850,34 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="7" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="15.1052631578947"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="7" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="7" width="9.4251012145749"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="7" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="7" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="7" width="10.0688259109312"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="7" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="7" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="7" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="7" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="7" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="7" width="23.1376518218623"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="7" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>64</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>65</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>13</v>
@@ -1888,68 +1888,68 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" s="9" t="n">
         <v>0.000148</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" s="9" t="n">
         <v>0.0002</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" s="9" t="n">
         <v>0.0005</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" s="9" t="n">
         <v>0.0005</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" s="9" t="n">
         <v>0.001</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B7" s="9" t="n">
         <v>0.002</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1990,10 +1990,10 @@
         <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>13</v>
@@ -2037,7 +2037,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>13</v>
@@ -2067,10 +2067,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="7" width="44.3481781376518"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="7" width="44.668016194332"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="7" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="7" min="6" style="10" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="7" width="11.7813765182186"/>
@@ -2087,19 +2087,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>78</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>79</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>13</v>
@@ -2113,16 +2113,16 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="E2" s="10" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="E3" s="10" t="n">
         <v>0</v>
@@ -2163,16 +2163,16 @@
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="E4" s="10" t="n">
         <v>1</v>
@@ -2188,16 +2188,16 @@
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="C5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>90</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>91</v>
       </c>
       <c r="E5" s="10" t="n">
         <v>0</v>

--- a/tests/multialgorithm/fixtures/test_new_features_model.xlsx
+++ b/tests/multialgorithm/fixtures/test_new_features_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,40 +13,46 @@
     <sheet name="Submodels" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Compartments" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Species types" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Concentrations" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Observables" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Functions" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Reactions" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Rate laws" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="Biomass components" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="Biomass reactions" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="Parameters" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="Stop conditions" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="References" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="Database references" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="Species" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Concentrations" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Observables" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Functions" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Reactions" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Rate laws" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="Biomass components" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Biomass reactions" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="Parameters" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="Stop conditions" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="References" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="Database references" sheetId="17" state="visible" r:id="rId18"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="true" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="true" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="true" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$E$1</definedName>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">submodels!#REF!</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">References!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">References!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">References!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -58,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="133">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -246,6 +252,36 @@
     <t xml:space="preserve">U238</t>
   </si>
   <si>
+    <t xml:space="preserve">Species type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compartment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_1[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_2[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_2[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_4[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_5[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_6[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_1[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_3[c]</t>
+  </si>
+  <si>
     <t xml:space="preserve">Species</t>
   </si>
   <si>
@@ -255,27 +291,9 @@
     <t xml:space="preserve">Units</t>
   </si>
   <si>
-    <t xml:space="preserve">specie_1[e]</t>
-  </si>
-  <si>
     <t xml:space="preserve">M</t>
   </si>
   <si>
-    <t xml:space="preserve">specie_2[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_2[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_4[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_5[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_6[c]</t>
-  </si>
-  <si>
     <t xml:space="preserve">Observables</t>
   </si>
   <si>
@@ -369,16 +387,10 @@
     <t xml:space="preserve">Coefficient</t>
   </si>
   <si>
-    <t xml:space="preserve">Species type</t>
-  </si>
-  <si>
     <t xml:space="preserve">biomass_id_002</t>
   </si>
   <si>
     <t xml:space="preserve">biomass_comp_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compartment</t>
   </si>
   <si>
     <t xml:space="preserve">Metabolism biomass reaction</t>
@@ -463,7 +475,7 @@
     <numFmt numFmtId="166" formatCode="0.000E+00"/>
     <numFmt numFmtId="167" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -507,6 +519,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -576,7 +594,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -605,11 +623,15 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -649,7 +671,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -760,7 +782,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.7813765182186"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -844,34 +866,204 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="1:5"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="8" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="8" width="44.9919028340081"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="8" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="11" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="8" width="11.7813765182186"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="8" width="11.0323886639676"/>
+    <col collapsed="false" hidden="false" max="1021" min="10" style="8" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="8.78542510121457"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="12" customFormat="true" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AMH1" s="0"/>
+      <c r="AMI1" s="0"/>
+      <c r="AMJ1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="11"/>
+      <c r="I2" s="13"/>
+    </row>
+    <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" s="11"/>
+      <c r="I3" s="13"/>
+    </row>
+    <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D5"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.9919028340081"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>13</v>
@@ -882,24 +1074,24 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>96</v>
+        <v>83</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>100</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>96</v>
+        <v>86</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>100</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D3" s="5" t="n">
         <v>2000</v>
@@ -908,13 +1100,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>96</v>
+        <v>89</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>100</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.0003</v>
@@ -925,13 +1117,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>100</v>
+        <v>89</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>104</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0.0003</v>
@@ -942,13 +1134,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>96</v>
+        <v>92</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>100</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>0.0003</v>
@@ -968,7 +1160,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -981,53 +1173,53 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="10" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="10" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="10" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="10" width="7.81781376518219"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="10" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="11" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="11" width="14.1417004048583"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="11" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="11" width="7.81781376518219"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="11" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1" s="8" t="s">
+      <c r="D1" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" s="16" t="s">
+      <c r="A2" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="17" t="n">
+      <c r="D2" s="18" t="n">
         <v>-1</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="15"/>
+      <c r="F2" s="16"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1040,7 +1232,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1054,24 +1246,24 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="D1" s="18" t="s">
+      <c r="C1" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="19" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1079,16 +1271,16 @@
       <c r="A2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="C2" s="15" t="s">
+      <c r="B2" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="E2" s="15"/>
+      <c r="D2" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="16"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1101,7 +1293,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1114,12 +1306,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="42.7408906882591"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="43.17004048583"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="2" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="2" width="6.31983805668016"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="48.3117408906883"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="48.7408906882591"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="2" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -1134,13 +1326,13 @@
         <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>13</v>
@@ -1151,10 +1343,10 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -1163,10 +1355,10 @@
         <v>0.3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1182,7 +1374,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1209,7 +1401,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>13</v>
@@ -1226,7 +1418,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1240,9 +1432,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="2" width="8.35627530364373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="31.0647773279352"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="31.3846153846154"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="2" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -1257,46 +1449,46 @@
         <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>42</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>13</v>
@@ -1315,7 +1507,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1333,10 +1525,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
@@ -1345,22 +1537,22 @@
         <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1453,7 +1645,7 @@
   </sheetPr>
   <dimension ref="1:3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -1461,11 +1653,11 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="2" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="13.8178137651822"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="7" min="5" style="2" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="2" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.8542510121458"/>
     <col collapsed="false" hidden="false" max="1023" min="10" style="2" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.78542510121457"/>
   </cols>
@@ -1557,9 +1749,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="2" width="5.1417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="2" width="17.3522267206478"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="44.4534412955466"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="2" width="17.4615384615385"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="44.7773279352227"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="10.8178137651822"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="2" width="8.78542510121457"/>
   </cols>
@@ -1645,12 +1837,12 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="2" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="2" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="2" width="14.8906882591093"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="2" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="10.1781376518219"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="2" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="2" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="2" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="2" width="8.78542510121457"/>
   </cols>
@@ -1848,108 +2040,253 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D8" activeCellId="0" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.1417004048583"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="7" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="7" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="7" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="7" width="10.0688259109312"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="7" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="7" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="7" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="7" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="7" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="8" width="9.31983805668016"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="8" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="8" width="10.497975708502"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="8" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="8" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="8" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="8" width="10.497975708502"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="8" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="8" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="A1" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
+      <c r="B2" s="10" t="n">
+        <v>0.000148</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="9" t="n">
-        <v>0.000148</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="B3" s="10" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
+      <c r="B4" s="10" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="9" t="n">
-        <v>0.0002</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
+      <c r="B5" s="10" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="9" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
+      <c r="B6" s="10" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="9" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="9" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" s="9" t="n">
+      <c r="B7" s="10" t="n">
         <v>0.002</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>66</v>
+      <c r="C7" s="10" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1963,7 +2300,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1990,10 +2327,10 @@
         <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>13</v>
@@ -2010,7 +2347,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2037,7 +2374,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>13</v>
@@ -2052,174 +2389,4 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="1:5"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="17.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="7" width="44.668016194332"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="7" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="10" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="7" width="11.7813765182186"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="7" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="1021" min="10" style="7" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="8.78542510121457"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="11" customFormat="true" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="AMH1" s="0"/>
-      <c r="AMI1" s="0"/>
-      <c r="AMJ1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="12"/>
-    </row>
-    <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E3" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="12"/>
-    </row>
-    <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E4" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G4" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-    </row>
-    <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="E5" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G5" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:D5"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/tests/multialgorithm/fixtures/test_new_features_model.xlsx
+++ b/tests/multialgorithm/fixtures/test_new_features_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,40 +19,45 @@
     <sheet name="Functions" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="Reactions" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="Rate laws" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="Biomass components" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="Biomass reactions" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="Biomass reactions" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Biomass components" sheetId="13" state="visible" r:id="rId14"/>
     <sheet name="Parameters" sheetId="14" state="visible" r:id="rId15"/>
     <sheet name="Stop conditions" sheetId="15" state="visible" r:id="rId16"/>
     <sheet name="References" sheetId="16" state="visible" r:id="rId17"/>
     <sheet name="Database references" sheetId="17" state="visible" r:id="rId18"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
+    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
     <definedName function="false" hidden="true" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
     <definedName function="false" hidden="true" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="true" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="true" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">submodels!#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">References!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">References!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -64,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="132">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -114,289 +119,286 @@
     <t xml:space="preserve">Test model for TestExecutableModel</t>
   </si>
   <si>
+    <t xml:space="preserve">Rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">domain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rank not used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">References</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfba_submodel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolism_biomass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ssa_submodel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA degradation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ssa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average volume of Mycoplasma pneumoniae is 66 aL [Ref-0001]. This equates to 45.8 aL at the beginning of the cell cycle (66 aL * ln(2)).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extracellular space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typical density of Mycoplasma pneumoniae cells in culture is 1e-9 cells/mL [Ref-0002].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Structure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empirical formula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molecular weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pseudo_species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N2O2Na3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H3SO4C9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Species type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compartment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_1[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_2[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_2[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_4[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_5[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_6[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_1[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_3[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Units</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Submodel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reversible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_1[e] + specie_2[e] ==&gt; specie_1[c] + specie_2[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (2) specie_2 ==&gt; specie_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: specie_2 + (2) specie_3 ==&gt; specie_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: specie_4 ==&gt; (2) specie_5 + specie_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max( specie_1[e], specie_2[e] )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * specie_2[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_4[c] / k_m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">backward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_5[c] + specie_6[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolism biomass reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biomass reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coefficient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biomass_id_002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biomass_comp_2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">domain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rank not used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">References</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biomass reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dfba_submodel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dfba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metabolism_biomass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ssa_submodel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNA degradation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ssa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Initial volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average volume of Mycoplasma pneumoniae is 66 aL [Ref-0001]. This equates to 45.8 aL at the beginning of the cell cycle (66 aL * ln(2)).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extracellular space</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Typical density of Mycoplasma pneumoniae cells in culture is 1e-9 cells/mL [Ref-0002].</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Structure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empirical formula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Molecular weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pseudo_species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N2O2Na3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H3SO4C9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compartment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_1[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_2[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_2[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_4[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_5[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_6[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_1[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_3[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Units</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Observables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Submodel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Participants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reversible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_1[e] + specie_2[e] ==&gt; specie_1[c] + specie_2[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: (2) specie_2 ==&gt; specie_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: specie_2 + (2) specie_3 ==&gt; specie_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: specie_4 ==&gt; (2) specie_5 + specie_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Direction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K cat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max( specie_1[e], specie_2[e] )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">k_cat * specie_2[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_4[c] / k_m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">backward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_5[c] + specie_6[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coefficient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_id_002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_comp_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metabolism biomass reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No comment</t>
   </si>
   <si>
     <t xml:space="preserve">Submodels</t>
@@ -475,7 +477,7 @@
     <numFmt numFmtId="166" formatCode="0.000E+00"/>
     <numFmt numFmtId="167" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -519,12 +521,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -594,7 +590,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -623,7 +619,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -631,7 +627,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -655,8 +651,8 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -669,10 +665,6 @@
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -782,7 +774,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.8906882591093"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -874,10 +866,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="8" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="8" width="44.9919028340081"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="8" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="8" width="45.417004048583"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="8" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="7" min="6" style="11" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="8" width="11.7813765182186"/>
@@ -894,25 +886,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>79</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>82</v>
       </c>
       <c r="H1" s="9" t="s">
         <v>13</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AMH1" s="0"/>
       <c r="AMI1" s="0"/>
@@ -920,16 +912,16 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E2" s="11" t="n">
         <v>0</v>
@@ -945,16 +937,16 @@
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E3" s="11" t="n">
         <v>0</v>
@@ -970,16 +962,16 @@
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E4" s="11" t="n">
         <v>1</v>
@@ -995,16 +987,16 @@
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E5" s="11" t="n">
         <v>0</v>
@@ -1039,59 +1031,59 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.9919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.3117408906883"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>100</v>
+        <v>80</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>97</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>100</v>
+        <v>83</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>97</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D3" s="5" t="n">
         <v>2000</v>
@@ -1100,13 +1092,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B4" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>100</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>103</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.0003</v>
@@ -1117,13 +1109,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>104</v>
+        <v>86</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0.0003</v>
@@ -1134,13 +1126,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>100</v>
+        <v>89</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>97</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>0.0003</v>
@@ -1165,61 +1157,50 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="H35" activeCellId="0" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="11" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="11" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="11" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="11" width="7.81781376518219"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="11" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
+    <row r="1" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="15" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="18" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="16"/>
+      <c r="D2" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="16"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1237,50 +1218,61 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="11" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="11" width="14.1417004048583"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="11" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="11" width="7.81781376518219"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="11" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="19" t="s">
+    <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>27</v>
+      <c r="G1" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="16" t="s">
+        <v>107</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="E2" s="16"/>
+        <v>108</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="16"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1306,12 +1298,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="43.17004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="43.5991902834008"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="2" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="2" width="6.31983805668016"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="48.7408906882591"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="49.165991902834"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="2" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -1323,30 +1315,30 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -1355,10 +1347,10 @@
         <v>0.3</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1379,18 +1371,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="W1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -1398,12 +1390,9 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1423,19 +1412,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R1"/>
+  <dimension ref="1:1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="2" width="8.35627530364373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="31.3846153846154"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="2" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="31.5991902834008"/>
+    <col collapsed="false" hidden="false" max="1023" min="5" style="2" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1446,7 +1436,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>116</v>
@@ -1458,10 +1448,10 @@
         <v>118</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>120</v>
@@ -1488,14 +1478,12 @@
         <v>127</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="R1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="AMJ1" s="0"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1"/>
+  <autoFilter ref="A1:D1"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1525,34 +1513,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1571,13 +1559,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K34" activeCellId="0" sqref="K34"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.6032388663968"/>
   </cols>
@@ -1603,12 +1591,12 @@
         <v>16</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>18</v>
@@ -1616,15 +1604,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="0" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1646,20 +1626,19 @@
   <dimension ref="1:3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="2" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="13.8178137651822"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="2" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="1023" min="10" style="2" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="2" width="9.31983805668016"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1021" min="8" style="2" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1670,58 +1649,45 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="0"/>
+        <v>19</v>
+      </c>
+      <c r="G1" s="0"/>
+      <c r="AMH1" s="0"/>
+      <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1740,20 +1706,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="1:3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="2" width="5.1417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="2" width="17.4615384615385"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="44.7773279352227"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="2" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="45.0971659919028"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="10.8178137651822"/>
+    <col collapsed="false" hidden="false" max="1023" min="6" style="2" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1764,54 +1731,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="5" t="n">
+        <v>4.58E-017</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5" t="n">
-        <v>4.58E-017</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="5" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5" t="n">
-        <v>1E-012</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>37</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E3"/>
+  <autoFilter ref="A1:D3"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1828,23 +1787,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="1:7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="2" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="2" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="10.1781376518219"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="2" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="2" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="11.4615384615385"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="10.497975708502"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="2" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="10.497975708502"/>
+    <col collapsed="false" hidden="false" max="1023" min="10" style="2" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1855,175 +1815,155 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="E2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" s="6"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>49</v>
+      <c r="E3" s="2" t="n">
+        <v>2</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" s="6"/>
+      <c r="G3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>52</v>
+      <c r="E4" s="2" t="n">
+        <v>3</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" s="6"/>
+      <c r="G4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>55</v>
+      <c r="E5" s="2" t="n">
+        <v>4</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="G5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" s="6"/>
+      <c r="G5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>58</v>
+      <c r="E6" s="2" t="n">
+        <v>5</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="G6" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" s="6"/>
+      <c r="G6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>61</v>
+      <c r="E7" s="2" t="n">
+        <v>6</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>46</v>
+      <c r="G7" s="6" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J6"/>
+  <autoFilter ref="A1:I6"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2042,7 +1982,7 @@
   </sheetPr>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -2052,8 +1992,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2064,104 +2004,104 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2194,99 +2134,99 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="8" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="15.3198380566802"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="8" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="8" width="9.4251012145749"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="8" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="8" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="8" width="10.2834008097166"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="8" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="8" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="8" width="18.8542510121457"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="8" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="8" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="8" width="23.3522267206478"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="8" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>72</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>74</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B2" s="10" t="n">
         <v>0.000148</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B3" s="10" t="n">
         <v>0.0002</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B4" s="10" t="n">
         <v>0.0005</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B5" s="10" t="n">
         <v>0.0005</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B6" s="10" t="n">
         <v>0.001</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B7" s="10" t="n">
         <v>0.002</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2305,10 +2245,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2316,7 +2256,7 @@
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -2324,15 +2264,9 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="F1" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2352,18 +2286,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H27" activeCellId="0" sqref="H27"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -2371,12 +2305,9 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="0" t="s">
         <v>13</v>
       </c>
     </row>

--- a/tests/multialgorithm/fixtures/test_new_features_model.xlsx
+++ b/tests/multialgorithm/fixtures/test_new_features_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6945" tabRatio="993" activeTab="3"/>
+    <workbookView windowWidth="28200" windowHeight="14070" tabRatio="993" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -28,16 +28,16 @@
     <sheet name="References" sheetId="16" r:id="rId18"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$D$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$G$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Species types'!$A$1:$I$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Reactions!$A$1:$D$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Parameters!$A$1:$F$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">References!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2">Submodels!#REF!</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="3">Compartments!$A$1:$D$3</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="3">Compartments!$A$1:$D$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="3">Compartments!$A$1:$D$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="3">Compartments!$A$1:$D$3</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="3">Compartments!$A$1:$G$3</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="3">Compartments!$A$1:$G$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="3">Compartments!$A$1:$G$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="3">Compartments!$A$1:$G$3</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="4">'Species types'!$A$1:$I$6</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="4">'Species types'!$A$1:$I$6</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="4">'Species types'!$A$1:$I$6</definedName>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="184">
   <si>
     <t>Id</t>
   </si>
@@ -170,76 +170,97 @@
     <t>ssa</t>
   </si>
   <si>
+    <t>Biological type</t>
+  </si>
+  <si>
+    <t>Physical type</t>
+  </si>
+  <si>
+    <t>Geometry</t>
+  </si>
+  <si>
+    <t>Parent compartment</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Initial volume, distribution</t>
+  </si>
+  <si>
+    <t>Initial volume, mean</t>
+  </si>
+  <si>
+    <t>Initial volume, standard deviation</t>
+  </si>
+  <si>
+    <t>Volume units</t>
+  </si>
+  <si>
+    <t>Density</t>
+  </si>
+  <si>
+    <t>Density units</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Cell</t>
+  </si>
+  <si>
+    <t>cellular</t>
+  </si>
+  <si>
+    <t>fluid</t>
+  </si>
+  <si>
+    <t>3d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>mass * density</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>init_mass / init_volume</t>
+  </si>
+  <si>
+    <t>g ml^-1</t>
+  </si>
+  <si>
+    <t>Average volume of Mycoplasma pneumoniae is 66 aL [Ref-0001]. This equates to 45.8 aL at the beginning of the cell cycle (66 aL * ln(2)).</t>
+  </si>
+  <si>
+    <t>Extracellular space</t>
+  </si>
+  <si>
+    <t>extracellular</t>
+  </si>
+  <si>
+    <t>Typical density of Mycoplasma pneumoniae cells in culture is 1e-9 cells/mL [Ref-0002].</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Empirical formula</t>
+  </si>
+  <si>
+    <t>Molecular weight</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
     <t>Type</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>Initial volume, distribution</t>
-  </si>
-  <si>
-    <t>Initial volume, mean</t>
-  </si>
-  <si>
-    <t>Initial volume, standard deviation</t>
-  </si>
-  <si>
-    <t>Volume units</t>
-  </si>
-  <si>
-    <t>Density</t>
-  </si>
-  <si>
-    <t>Density units</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>Cell</t>
-  </si>
-  <si>
-    <t>physical_3d</t>
-  </si>
-  <si>
-    <t>mass * density</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>init_mass / init_volume</t>
-  </si>
-  <si>
-    <t>g ml^-1</t>
-  </si>
-  <si>
-    <t>Average volume of Mycoplasma pneumoniae is 66 aL [Ref-0001]. This equates to 45.8 aL at the beginning of the cell cycle (66 aL * ln(2)).</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>Extracellular space</t>
-  </si>
-  <si>
-    <t>Typical density of Mycoplasma pneumoniae cells in culture is 1e-9 cells/mL [Ref-0002].</t>
-  </si>
-  <si>
-    <t>Structure</t>
-  </si>
-  <si>
-    <t>Empirical formula</t>
-  </si>
-  <si>
-    <t>Molecular weight</t>
-  </si>
-  <si>
-    <t>Charge</t>
   </si>
   <si>
     <t>specie_1</t>
@@ -598,12 +619,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.000E+00"/>
-    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="177" formatCode="0.000E+00"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -645,16 +666,38 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -662,6 +705,28 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -676,7 +741,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -684,20 +749,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -713,7 +764,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -721,44 +772,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -773,10 +794,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -795,7 +816,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -807,19 +900,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -831,13 +942,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -849,133 +996,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -998,17 +1019,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1033,21 +1072,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1078,152 +1102,149 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1274,18 +1295,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="35" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="35" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1750,25 +1771,25 @@
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="20"/>
     </row>
     <row r="9" customHeight="1" spans="1:2">
       <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="19"/>
+      <c r="B9" s="20"/>
     </row>
     <row r="10" customHeight="1" spans="1:2">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="19"/>
+      <c r="B10" s="20"/>
     </row>
     <row r="11" customHeight="1" spans="1:2">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="20" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1776,25 +1797,25 @@
       <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="19"/>
+      <c r="B12" s="20"/>
     </row>
     <row r="13" customHeight="1" spans="1:2">
       <c r="A13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="19"/>
+      <c r="B13" s="20"/>
     </row>
     <row r="14" customHeight="1" spans="1:2">
       <c r="A14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="19"/>
+      <c r="B14" s="20"/>
     </row>
     <row r="15" customHeight="1" spans="1:2">
       <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="19"/>
+      <c r="B15" s="20"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1842,22 +1863,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>18</v>
@@ -1877,16 +1898,16 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="13" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E2" s="14">
         <v>0</v>
@@ -1898,22 +1919,22 @@
         <v>1</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="I2" s="16"/>
     </row>
     <row r="3" customHeight="1" spans="1:9">
       <c r="A3" s="13" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E3" s="14">
         <v>0</v>
@@ -1925,22 +1946,22 @@
         <v>2</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="I3" s="16"/>
     </row>
     <row r="4" customHeight="1" spans="1:9">
       <c r="A4" s="13" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="E4" s="14">
         <v>1</v>
@@ -1950,16 +1971,16 @@
     </row>
     <row r="5" customHeight="1" spans="1:9">
       <c r="A5" s="13" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="E5" s="14">
         <v>0</v>
@@ -2009,19 +2030,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -2038,22 +2059,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
@@ -2061,22 +2082,22 @@
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
@@ -2084,22 +2105,22 @@
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
@@ -2107,22 +2128,22 @@
     </row>
     <row r="5" customHeight="1" spans="1:12">
       <c r="A5" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="F5" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
@@ -2131,22 +2152,22 @@
     </row>
     <row r="6" customHeight="1" spans="1:12">
       <c r="A6" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
@@ -2191,13 +2212,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -2214,16 +2235,16 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -2261,13 +2282,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -2284,22 +2305,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="9" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2344,16 +2365,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>18</v>
@@ -2370,22 +2391,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:6">
       <c r="A2" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>139</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E2" s="10">
         <v>-1</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2431,16 +2452,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>18</v>
@@ -2457,106 +2478,106 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="D2" s="2">
         <v>0.3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="D4" s="6">
         <v>2000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="D5" s="6">
         <v>0.0003</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="D6" s="6">
         <v>0.0003</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="D7" s="6">
         <v>0.0003</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="D8" s="6">
         <v>0.001</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2596,10 +2617,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>
@@ -2650,28 +2671,28 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>18</v>
@@ -2724,46 +2745,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>18</v>
@@ -2911,7 +2932,7 @@
       <c r="C2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="20"/>
+      <c r="D2" s="19"/>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:3">
       <c r="A3" s="2" t="s">
@@ -2934,36 +2955,36 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AMM3"/>
+  <dimension ref="A1:AMP3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D1:J3"/>
+      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="5.14166666666667" style="13"/>
-    <col min="2" max="2" width="17.5666666666667" style="13"/>
-    <col min="3" max="3" width="13.2833333333333" style="13"/>
-    <col min="4" max="4" width="8.375" style="13" customWidth="1"/>
-    <col min="5" max="5" width="10.8166666666667" style="13"/>
-    <col min="6" max="1026" width="8.78333333333333" style="13"/>
-    <col min="1027" max="1028" width="8.78333333333333" style="11"/>
-    <col min="1029" max="16384" width="9" style="11"/>
+    <col min="2" max="3" width="17.5666666666667" style="13"/>
+    <col min="4" max="5" width="13.2833333333333" style="13"/>
+    <col min="6" max="7" width="8.375" style="13" customWidth="1"/>
+    <col min="8" max="8" width="10.8166666666667" style="13"/>
+    <col min="9" max="1029" width="8.78333333333333" style="13"/>
+    <col min="1030" max="1031" width="8.78333333333333" style="11"/>
+    <col min="1032" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="1" customHeight="1" spans="1:1027">
+    <row r="1" s="12" customFormat="1" customHeight="1" spans="1:1030">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -2988,91 +3009,116 @@
         <v>43</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AMM1" s="11"/>
-    </row>
-    <row r="2" customHeight="1" spans="1:13">
+      <c r="AMP1" s="11"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:16">
       <c r="A2" s="13" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="6">
+        <v>51</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="6">
         <v>4.58e-17</v>
       </c>
-      <c r="G2" s="2">
+      <c r="J2" s="2">
         <v>4.58e-18</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:16">
+      <c r="A3" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:13">
-      <c r="A3" s="13" t="s">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="H3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="I3" s="2">
         <v>1</v>
       </c>
-      <c r="G3" s="2">
+      <c r="J3" s="2">
         <v>0</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="M3" s="13" t="s">
+      <c r="K3" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="L3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D3">
+  <autoFilter ref="A1:G3">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3117,19 +3163,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -3147,13 +3193,13 @@
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
@@ -3162,19 +3208,19 @@
         <v>0</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H2" s="17"/>
     </row>
     <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E3" s="2">
         <v>2</v>
@@ -3183,19 +3229,19 @@
         <v>0</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H3" s="17"/>
     </row>
     <row r="4" customHeight="1" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E4" s="2">
         <v>3</v>
@@ -3204,19 +3250,19 @@
         <v>0</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H4" s="17"/>
     </row>
     <row r="5" customHeight="1" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E5" s="2">
         <v>4</v>
@@ -3225,19 +3271,19 @@
         <v>0</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H5" s="17"/>
     </row>
     <row r="6" customHeight="1" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E6" s="2">
         <v>5</v>
@@ -3246,19 +3292,19 @@
         <v>0</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H6" s="17"/>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E7" s="2">
         <v>6</v>
@@ -3267,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="8:8">
@@ -3320,13 +3366,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -3343,114 +3389,114 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -3501,19 +3547,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -3530,104 +3576,104 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E2" s="17">
         <v>0.000148</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E3" s="17">
         <v>0.0002</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E4" s="17">
         <v>0.0005</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E5" s="17">
         <v>0.0005</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E6" s="17">
         <v>0.001</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E7" s="17">
         <v>0.002</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -3664,10 +3710,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>18</v>
@@ -3719,10 +3765,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>

--- a/tests/multialgorithm/fixtures/test_new_features_model.xlsx
+++ b/tests/multialgorithm/fixtures/test_new_features_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="14070" tabRatio="993" activeTab="3"/>
+    <workbookView windowWidth="28200" windowHeight="13965" tabRatio="993" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="186">
   <si>
     <t>Id</t>
   </si>
@@ -407,7 +407,7 @@
     <t>Flux max</t>
   </si>
   <si>
-    <t>Flux units</t>
+    <t>Flux bound units</t>
   </si>
   <si>
     <t>reaction_1</t>
@@ -495,6 +495,12 @@
   </si>
   <si>
     <t>k_cat_4_for * specie_2[c]</t>
+  </si>
+  <si>
+    <t>Reaction rate units</t>
+  </si>
+  <si>
+    <t>Coefficient units</t>
   </si>
   <si>
     <t>dfba-obj-dfba_submodel</t>
@@ -619,12 +625,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="177" formatCode="0.000E+00"/>
+    <numFmt numFmtId="176" formatCode="0.000E+00"/>
+    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -666,52 +672,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -726,9 +688,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -747,32 +731,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -793,9 +754,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -816,7 +822,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -828,7 +864,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -840,19 +912,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,13 +924,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -882,25 +954,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -912,73 +990,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -990,13 +1002,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1022,8 +1028,23 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1039,15 +1060,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1076,6 +1088,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1090,161 +1122,135 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1295,8 +1301,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1837,7 +1843,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2:D5"/>
+      <selection pane="bottomRight" activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="4"/>
@@ -2189,14 +2195,14 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
@@ -2204,7 +2210,7 @@
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:9">
+    <row r="1" customHeight="1" spans="1:11">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2221,30 +2227,42 @@
         <v>88</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:5">
+    <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2288,7 +2306,7 @@
         <v>88</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -2305,10 +2323,10 @@
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="9" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
@@ -2320,7 +2338,7 @@
         <v>55</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2365,13 +2383,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>98</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>88</v>
@@ -2391,13 +2409,13 @@
     </row>
     <row r="2" customHeight="1" spans="1:6">
       <c r="A2" s="9" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>92</v>
@@ -2455,10 +2473,10 @@
         <v>66</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>88</v>
@@ -2478,10 +2496,10 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>133</v>
@@ -2490,46 +2508,46 @@
         <v>0.3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="D4" s="6">
         <v>2000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D5" s="6">
         <v>0.0003</v>
@@ -2540,38 +2558,38 @@
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D6" s="6">
         <v>0.0003</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D7" s="6">
         <v>0.0003</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D8" s="6">
         <v>0.001</v>
@@ -2671,7 +2689,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>88</v>
@@ -2680,19 +2698,19 @@
         <v>66</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>18</v>
@@ -2745,46 +2763,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>66</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>40</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>18</v>
@@ -2957,7 +2975,7 @@
   <sheetPr/>
   <dimension ref="A1:AMP3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>

--- a/tests/multialgorithm/fixtures/test_new_features_model.xlsx
+++ b/tests/multialgorithm/fixtures/test_new_features_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="13965" tabRatio="993" activeTab="11"/>
+    <workbookView windowWidth="28200" windowHeight="13965" tabRatio="993" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="193">
   <si>
     <t>Id</t>
   </si>
@@ -182,427 +182,448 @@
     <t>Parent compartment</t>
   </si>
   <si>
+    <t>Mass units</t>
+  </si>
+  <si>
+    <t>Initial volume distribution</t>
+  </si>
+  <si>
+    <t>Initial volume mean</t>
+  </si>
+  <si>
+    <t>Initial volume standard deviation</t>
+  </si>
+  <si>
+    <t>Initial volume units</t>
+  </si>
+  <si>
+    <t>Initial density</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Cell</t>
+  </si>
+  <si>
+    <t>cellular</t>
+  </si>
+  <si>
+    <t>fluid</t>
+  </si>
+  <si>
+    <t>3d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>density_c</t>
+  </si>
+  <si>
+    <t>Average volume of Mycoplasma pneumoniae is 66 aL [Ref-0001]. This equates to 45.8 aL at the beginning of the cell cycle (66 aL * ln(2)).</t>
+  </si>
+  <si>
+    <t>Extracellular space</t>
+  </si>
+  <si>
+    <t>extracellular</t>
+  </si>
+  <si>
+    <t>density_e</t>
+  </si>
+  <si>
+    <t>Typical density of Mycoplasma pneumoniae cells in culture is 1e-9 cells/mL [Ref-0002].</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Empirical formula</t>
+  </si>
+  <si>
+    <t>Molecular weight</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>specie_1</t>
+  </si>
+  <si>
+    <t>specie_name_1</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>pseudo_species</t>
+  </si>
+  <si>
+    <t>specie_2</t>
+  </si>
+  <si>
+    <t>specie_name_2</t>
+  </si>
+  <si>
+    <t>NONa2</t>
+  </si>
+  <si>
+    <t>specie_3</t>
+  </si>
+  <si>
+    <t>specie_name_3</t>
+  </si>
+  <si>
+    <t>N2O2Na4</t>
+  </si>
+  <si>
+    <t>specie_4</t>
+  </si>
+  <si>
+    <t>specie_name_4</t>
+  </si>
+  <si>
+    <t>N5O5Na10</t>
+  </si>
+  <si>
+    <t>specie_5</t>
+  </si>
+  <si>
+    <t>specie_name_5</t>
+  </si>
+  <si>
+    <t>Na5</t>
+  </si>
+  <si>
+    <t>specie_6</t>
+  </si>
+  <si>
+    <t>specie_name_6</t>
+  </si>
+  <si>
+    <t>N5O5</t>
+  </si>
+  <si>
+    <t>Species type</t>
+  </si>
+  <si>
+    <t>Compartment</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>specie_1[e]</t>
+  </si>
+  <si>
+    <t>molecule</t>
+  </si>
+  <si>
+    <t>specie_2[e]</t>
+  </si>
+  <si>
+    <t>specie_2[c]</t>
+  </si>
+  <si>
+    <t>specie_4[c]</t>
+  </si>
+  <si>
+    <t>specie_5[c]</t>
+  </si>
+  <si>
+    <t>specie_6[c]</t>
+  </si>
+  <si>
+    <t>specie_1[c]</t>
+  </si>
+  <si>
+    <t>specie_3[c]</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>Distribution</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Standard deviation</t>
+  </si>
+  <si>
+    <t>dist-init-conc-specie_1[e]</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>dist-init-conc-specie_2[e]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-specie_2[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-specie_4[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-specie_5[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-specie_6[c]</t>
+  </si>
+  <si>
+    <t>Expression</t>
+  </si>
+  <si>
+    <t>volume_c</t>
+  </si>
+  <si>
+    <t>c / density_c</t>
+  </si>
+  <si>
+    <t>volume_e</t>
+  </si>
+  <si>
+    <t>e / density_c</t>
+  </si>
+  <si>
+    <t>Submodel</t>
+  </si>
+  <si>
+    <t>Participants</t>
+  </si>
+  <si>
+    <t>Reversible</t>
+  </si>
+  <si>
+    <t>Flux min</t>
+  </si>
+  <si>
+    <t>Flux max</t>
+  </si>
+  <si>
+    <t>Flux bound units</t>
+  </si>
+  <si>
+    <t>reaction_1</t>
+  </si>
+  <si>
+    <t>reaction_name_1</t>
+  </si>
+  <si>
+    <t>specie_1[e] + specie_2[e] ==&gt; specie_1[c] + specie_2[c]</t>
+  </si>
+  <si>
+    <t>M s^-1</t>
+  </si>
+  <si>
+    <t>reaction_2</t>
+  </si>
+  <si>
+    <t>reaction_name_2</t>
+  </si>
+  <si>
+    <t>[c]: (2) specie_2 ==&gt; specie_3</t>
+  </si>
+  <si>
+    <t>reaction_3</t>
+  </si>
+  <si>
+    <t>reaction_name_3</t>
+  </si>
+  <si>
+    <t>[c]: specie_2 + (2) specie_3 ==&gt; specie_4</t>
+  </si>
+  <si>
+    <t>reaction_4</t>
+  </si>
+  <si>
+    <t>reaction_name_4</t>
+  </si>
+  <si>
+    <t>[c]: specie_4 ==&gt; (2) specie_5 + specie_6</t>
+  </si>
+  <si>
+    <t>Reaction</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>reaction_1-forward</t>
+  </si>
+  <si>
+    <t>forward</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>k_cat_1_for * max( specie_1[e], specie_2[e] )</t>
+  </si>
+  <si>
+    <t>s^-1</t>
+  </si>
+  <si>
+    <t>reaction_2-forward</t>
+  </si>
+  <si>
+    <t>k_cat_2_for * specie_2[c]</t>
+  </si>
+  <si>
+    <t>reaction_3-forward</t>
+  </si>
+  <si>
+    <t>k_cat_3_for * specie_4[c] / (K_m_3 * Avogadro * volume_c + specie_4[c])</t>
+  </si>
+  <si>
+    <t>reaction_3-backward</t>
+  </si>
+  <si>
+    <t>backward</t>
+  </si>
+  <si>
+    <t>k_cat_3_rev * (specie_5[c] + specie_6[c])</t>
+  </si>
+  <si>
+    <t>reaction_4-forward</t>
+  </si>
+  <si>
+    <t>k_cat_4_for * specie_2[c]</t>
+  </si>
+  <si>
+    <t>Reaction rate units</t>
+  </si>
+  <si>
+    <t>Coefficient units</t>
+  </si>
+  <si>
+    <t>dfba-obj-dfba_submodel</t>
+  </si>
+  <si>
+    <t>Metabolism_biomass</t>
+  </si>
+  <si>
+    <t>dimensionless</t>
+  </si>
+  <si>
+    <t>Cell size units</t>
+  </si>
+  <si>
+    <t>Metabolism biomass reaction</t>
+  </si>
+  <si>
+    <t>No comment</t>
+  </si>
+  <si>
+    <t>dFBA net reaction</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>dfba-net-species-Metabolism_biomass-specie_2[c]</t>
+  </si>
+  <si>
+    <t>biomass_comp_2</t>
+  </si>
+  <si>
+    <t>Standard error</t>
+  </si>
+  <si>
+    <t>fractionDryWeight</t>
+  </si>
+  <si>
+    <t>Fraction of cell mass which is non water</t>
+  </si>
+  <si>
+    <t>[Ref-0006]</t>
+  </si>
+  <si>
+    <t>k_cat_1_for</t>
+  </si>
+  <si>
+    <t>k_cat</t>
+  </si>
+  <si>
+    <t>molecule^-1 s^-1</t>
+  </si>
+  <si>
+    <t>k_cat_2_for</t>
+  </si>
+  <si>
+    <t>k_cat_3_for</t>
+  </si>
+  <si>
+    <t>k_cat_3_rev</t>
+  </si>
+  <si>
+    <t>k_cat_4_for</t>
+  </si>
+  <si>
+    <t>K_m_3</t>
+  </si>
+  <si>
+    <t>K_m</t>
+  </si>
+  <si>
+    <t>g l^-1</t>
+  </si>
+  <si>
+    <t>Avogadro</t>
+  </si>
+  <si>
+    <t>molecule mol^-1</t>
+  </si>
+  <si>
+    <t>Taxon</t>
+  </si>
+  <si>
+    <t>Genetic variant</t>
+  </si>
+  <si>
+    <t>Temperature (C)</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>Growth media</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Editor</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Publication</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>Series</t>
+  </si>
+  <si>
     <t>Volume</t>
-  </si>
-  <si>
-    <t>Initial volume, distribution</t>
-  </si>
-  <si>
-    <t>Initial volume, mean</t>
-  </si>
-  <si>
-    <t>Initial volume, standard deviation</t>
-  </si>
-  <si>
-    <t>Volume units</t>
-  </si>
-  <si>
-    <t>Density</t>
-  </si>
-  <si>
-    <t>Density units</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>Cell</t>
-  </si>
-  <si>
-    <t>cellular</t>
-  </si>
-  <si>
-    <t>fluid</t>
-  </si>
-  <si>
-    <t>3d</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>mass * density</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>init_mass / init_volume</t>
-  </si>
-  <si>
-    <t>g ml^-1</t>
-  </si>
-  <si>
-    <t>Average volume of Mycoplasma pneumoniae is 66 aL [Ref-0001]. This equates to 45.8 aL at the beginning of the cell cycle (66 aL * ln(2)).</t>
-  </si>
-  <si>
-    <t>Extracellular space</t>
-  </si>
-  <si>
-    <t>extracellular</t>
-  </si>
-  <si>
-    <t>Typical density of Mycoplasma pneumoniae cells in culture is 1e-9 cells/mL [Ref-0002].</t>
-  </si>
-  <si>
-    <t>Structure</t>
-  </si>
-  <si>
-    <t>Empirical formula</t>
-  </si>
-  <si>
-    <t>Molecular weight</t>
-  </si>
-  <si>
-    <t>Charge</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>specie_1</t>
-  </si>
-  <si>
-    <t>specie_name_1</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>pseudo_species</t>
-  </si>
-  <si>
-    <t>specie_2</t>
-  </si>
-  <si>
-    <t>specie_name_2</t>
-  </si>
-  <si>
-    <t>NONa2</t>
-  </si>
-  <si>
-    <t>specie_3</t>
-  </si>
-  <si>
-    <t>specie_name_3</t>
-  </si>
-  <si>
-    <t>N2O2Na4</t>
-  </si>
-  <si>
-    <t>specie_4</t>
-  </si>
-  <si>
-    <t>specie_name_4</t>
-  </si>
-  <si>
-    <t>N5O5Na10</t>
-  </si>
-  <si>
-    <t>specie_5</t>
-  </si>
-  <si>
-    <t>specie_name_5</t>
-  </si>
-  <si>
-    <t>Na5</t>
-  </si>
-  <si>
-    <t>specie_6</t>
-  </si>
-  <si>
-    <t>specie_name_6</t>
-  </si>
-  <si>
-    <t>N5O5</t>
-  </si>
-  <si>
-    <t>Species type</t>
-  </si>
-  <si>
-    <t>Compartment</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>specie_1[e]</t>
-  </si>
-  <si>
-    <t>molecule</t>
-  </si>
-  <si>
-    <t>specie_2[e]</t>
-  </si>
-  <si>
-    <t>specie_2[c]</t>
-  </si>
-  <si>
-    <t>specie_4[c]</t>
-  </si>
-  <si>
-    <t>specie_5[c]</t>
-  </si>
-  <si>
-    <t>specie_6[c]</t>
-  </si>
-  <si>
-    <t>specie_1[c]</t>
-  </si>
-  <si>
-    <t>specie_3[c]</t>
-  </si>
-  <si>
-    <t>Species</t>
-  </si>
-  <si>
-    <t>Distribution</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>Standard deviation</t>
-  </si>
-  <si>
-    <t>dist-init-conc-specie_1[e]</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>dist-init-conc-specie_2[e]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-specie_2[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-specie_4[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-specie_5[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-specie_6[c]</t>
-  </si>
-  <si>
-    <t>Expression</t>
-  </si>
-  <si>
-    <t>Submodel</t>
-  </si>
-  <si>
-    <t>Participants</t>
-  </si>
-  <si>
-    <t>Reversible</t>
-  </si>
-  <si>
-    <t>Flux min</t>
-  </si>
-  <si>
-    <t>Flux max</t>
-  </si>
-  <si>
-    <t>Flux bound units</t>
-  </si>
-  <si>
-    <t>reaction_1</t>
-  </si>
-  <si>
-    <t>reaction_name_1</t>
-  </si>
-  <si>
-    <t>specie_1[e] + specie_2[e] ==&gt; specie_1[c] + specie_2[c]</t>
-  </si>
-  <si>
-    <t>M s^-1</t>
-  </si>
-  <si>
-    <t>reaction_2</t>
-  </si>
-  <si>
-    <t>reaction_name_2</t>
-  </si>
-  <si>
-    <t>[c]: (2) specie_2 ==&gt; specie_3</t>
-  </si>
-  <si>
-    <t>reaction_3</t>
-  </si>
-  <si>
-    <t>reaction_name_3</t>
-  </si>
-  <si>
-    <t>[c]: specie_2 + (2) specie_3 ==&gt; specie_4</t>
-  </si>
-  <si>
-    <t>reaction_4</t>
-  </si>
-  <si>
-    <t>reaction_name_4</t>
-  </si>
-  <si>
-    <t>[c]: specie_4 ==&gt; (2) specie_5 + specie_6</t>
-  </si>
-  <si>
-    <t>Reaction</t>
-  </si>
-  <si>
-    <t>Direction</t>
-  </si>
-  <si>
-    <t>reaction_1-forward</t>
-  </si>
-  <si>
-    <t>forward</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>k_cat_1_for * max( specie_1[e], specie_2[e] )</t>
-  </si>
-  <si>
-    <t>s^-1</t>
-  </si>
-  <si>
-    <t>reaction_2-forward</t>
-  </si>
-  <si>
-    <t>k_cat_2_for * specie_2[c]</t>
-  </si>
-  <si>
-    <t>reaction_3-forward</t>
-  </si>
-  <si>
-    <t>k_cat_3_for * specie_4[c] / (K_m_3 + specie_4[c])</t>
-  </si>
-  <si>
-    <t>reaction_3-backward</t>
-  </si>
-  <si>
-    <t>backward</t>
-  </si>
-  <si>
-    <t>k_cat_3_rev * (specie_5[c] + specie_6[c])</t>
-  </si>
-  <si>
-    <t>reaction_4-forward</t>
-  </si>
-  <si>
-    <t>k_cat_4_for * specie_2[c]</t>
-  </si>
-  <si>
-    <t>Reaction rate units</t>
-  </si>
-  <si>
-    <t>Coefficient units</t>
-  </si>
-  <si>
-    <t>dfba-obj-dfba_submodel</t>
-  </si>
-  <si>
-    <t>Metabolism_biomass</t>
-  </si>
-  <si>
-    <t>dimensionless</t>
-  </si>
-  <si>
-    <t>Cell size units</t>
-  </si>
-  <si>
-    <t>Metabolism biomass reaction</t>
-  </si>
-  <si>
-    <t>No comment</t>
-  </si>
-  <si>
-    <t>dFBA net reaction</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>dfba-net-species-Metabolism_biomass-specie_2[c]</t>
-  </si>
-  <si>
-    <t>biomass_comp_2</t>
-  </si>
-  <si>
-    <t>Standard error</t>
-  </si>
-  <si>
-    <t>fractionDryWeight</t>
-  </si>
-  <si>
-    <t>Fraction of cell mass which is non water</t>
-  </si>
-  <si>
-    <t>[Ref-0006]</t>
-  </si>
-  <si>
-    <t>k_cat_1_for</t>
-  </si>
-  <si>
-    <t>k_cat</t>
-  </si>
-  <si>
-    <t>molecule^-1 s^-1</t>
-  </si>
-  <si>
-    <t>k_cat_2_for</t>
-  </si>
-  <si>
-    <t>k_cat_3_for</t>
-  </si>
-  <si>
-    <t>k_cat_3_rev</t>
-  </si>
-  <si>
-    <t>k_cat_4_for</t>
-  </si>
-  <si>
-    <t>K_m_3</t>
-  </si>
-  <si>
-    <t>K_m</t>
-  </si>
-  <si>
-    <t>Taxon</t>
-  </si>
-  <si>
-    <t>Genetic variant</t>
-  </si>
-  <si>
-    <t>Temperature (C)</t>
-  </si>
-  <si>
-    <t>pH</t>
-  </si>
-  <si>
-    <t>Growth media</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Editor</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Publication</t>
-  </si>
-  <si>
-    <t>Publisher</t>
-  </si>
-  <si>
-    <t>Series</t>
   </si>
   <si>
     <t>Number</t>
@@ -625,12 +646,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.000E+00"/>
-    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="0.000E+00"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -672,14 +693,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -694,6 +707,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -702,10 +723,26 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -718,6 +755,28 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -740,21 +799,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -769,8 +813,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -778,30 +823,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -822,7 +843,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -834,25 +855,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,67 +867,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -942,31 +891,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -984,7 +915,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -996,13 +1017,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1034,17 +1055,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1064,11 +1079,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1099,6 +1120,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1107,150 +1143,135 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1301,8 +1322,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1869,22 +1890,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>18</v>
@@ -1904,16 +1925,16 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="13" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E2" s="14">
         <v>0</v>
@@ -1925,22 +1946,22 @@
         <v>1</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="I2" s="16"/>
     </row>
     <row r="3" customHeight="1" spans="1:9">
       <c r="A3" s="13" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E3" s="14">
         <v>0</v>
@@ -1952,22 +1973,22 @@
         <v>2</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="I3" s="16"/>
     </row>
     <row r="4" customHeight="1" spans="1:9">
       <c r="A4" s="13" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E4" s="14">
         <v>1</v>
@@ -1977,16 +1998,16 @@
     </row>
     <row r="5" customHeight="1" spans="1:9">
       <c r="A5" s="13" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E5" s="14">
         <v>0</v>
@@ -2023,7 +2044,7 @@
     <col min="2" max="2" width="10.6" style="2"/>
     <col min="3" max="3" width="9.125" style="2" customWidth="1"/>
     <col min="4" max="5" width="10.6" style="2"/>
-    <col min="6" max="6" width="39.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="41.375" style="2" customWidth="1"/>
     <col min="7" max="1025" width="10.6" style="2"/>
     <col min="1026" max="16384" width="9" style="2"/>
   </cols>
@@ -2036,19 +2057,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -2065,22 +2086,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
@@ -2088,22 +2109,22 @@
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
@@ -2111,22 +2132,22 @@
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
@@ -2134,22 +2155,22 @@
     </row>
     <row r="5" customHeight="1" spans="1:12">
       <c r="A5" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
@@ -2158,22 +2179,22 @@
     </row>
     <row r="6" customHeight="1" spans="1:12">
       <c r="A6" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
@@ -2197,7 +2218,7 @@
   <sheetPr/>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -2218,19 +2239,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -2247,19 +2268,19 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>17</v>
@@ -2300,13 +2321,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -2323,22 +2344,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="9" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -2383,16 +2404,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>18</v>
@@ -2409,22 +2430,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:6">
       <c r="A2" s="9" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E2" s="10">
         <v>-1</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2440,17 +2461,17 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2:E8"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="23.0333333333333" style="2"/>
     <col min="2" max="2" width="43.6" style="2"/>
@@ -2470,16 +2491,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>18</v>
@@ -2496,106 +2517,148 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D2" s="2">
         <v>0.3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D4" s="6">
         <v>2000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="D5" s="6">
         <v>0.0003</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D6" s="6">
         <v>0.0003</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D7" s="6">
         <v>0.0003</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D8" s="6">
         <v>0.001</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>90</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1100</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:6">
+      <c r="A11" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D11" s="6">
+        <v>6.02214075862e+23</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -2635,10 +2698,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>
@@ -2689,28 +2752,28 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>18</v>
@@ -2763,46 +2826,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>40</v>
+        <v>187</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>18</v>
@@ -2973,14 +3036,14 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AMP3"/>
+  <dimension ref="A1:AMO3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
@@ -2990,12 +3053,12 @@
     <col min="4" max="5" width="13.2833333333333" style="13"/>
     <col min="6" max="7" width="8.375" style="13" customWidth="1"/>
     <col min="8" max="8" width="10.8166666666667" style="13"/>
-    <col min="9" max="1029" width="8.78333333333333" style="13"/>
-    <col min="1030" max="1031" width="8.78333333333333" style="11"/>
-    <col min="1032" max="16384" width="9" style="11"/>
+    <col min="9" max="1028" width="8.78333333333333" style="13"/>
+    <col min="1029" max="1030" width="8.78333333333333" style="11"/>
+    <col min="1031" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="1" customHeight="1" spans="1:1030">
+    <row r="1" s="12" customFormat="1" customHeight="1" spans="1:1029">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -3033,46 +3096,43 @@
         <v>45</v>
       </c>
       <c r="M1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AMO1" s="11"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:15">
+      <c r="A2" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="N1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AMP1" s="11"/>
-    </row>
-    <row r="2" customHeight="1" spans="1:16">
-      <c r="A2" s="13" t="s">
+      <c r="B2" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="C2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="I2" s="6">
         <v>4.58e-17</v>
@@ -3081,40 +3141,37 @@
         <v>4.58e-18</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="O2" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="M2" s="2" t="s">
+    </row>
+    <row r="3" customHeight="1" spans="1:15">
+      <c r="A3" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="C3" s="13" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:16">
-      <c r="A3" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>60</v>
-      </c>
       <c r="D3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
@@ -3123,16 +3180,13 @@
         <v>0</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="P3" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -3181,19 +3235,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -3211,13 +3265,13 @@
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
@@ -3226,19 +3280,19 @@
         <v>0</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H2" s="17"/>
     </row>
     <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="E3" s="2">
         <v>2</v>
@@ -3247,19 +3301,19 @@
         <v>0</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H3" s="17"/>
     </row>
     <row r="4" customHeight="1" spans="1:8">
       <c r="A4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="E4" s="2">
         <v>3</v>
@@ -3268,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H4" s="17"/>
     </row>
     <row r="5" customHeight="1" spans="1:8">
       <c r="A5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="E5" s="2">
         <v>4</v>
@@ -3289,19 +3343,19 @@
         <v>0</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H5" s="17"/>
     </row>
     <row r="6" customHeight="1" spans="1:8">
       <c r="A6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="E6" s="2">
         <v>5</v>
@@ -3310,19 +3364,19 @@
         <v>0</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H6" s="17"/>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="E7" s="2">
         <v>6</v>
@@ -3331,7 +3385,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="8:8">
@@ -3384,13 +3438,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -3407,114 +3461,114 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -3565,19 +3619,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>101</v>
-      </c>
       <c r="G1" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -3594,104 +3648,104 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E2" s="17">
         <v>0.000148</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E3" s="17">
         <v>0.0002</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E4" s="17">
         <v>0.0005</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E5" s="17">
         <v>0.0005</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E6" s="17">
         <v>0.001</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E7" s="17">
         <v>0.002</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -3728,10 +3782,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>18</v>
@@ -3759,19 +3813,21 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P12" sqref="P12"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1025" width="9.10833333333333" style="2"/>
+    <col min="1" max="2" width="9.10833333333333" style="2"/>
+    <col min="3" max="3" width="11" style="2" customWidth="1"/>
+    <col min="4" max="1025" width="9.10833333333333" style="2"/>
     <col min="1026" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -3783,10 +3839,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>
@@ -3799,6 +3855,28 @@
       </c>
       <c r="H1" s="4" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/tests/multialgorithm/fixtures/test_new_features_model.xlsx
+++ b/tests/multialgorithm/fixtures/test_new_features_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="13965" tabRatio="993" activeTab="8"/>
+    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$G$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Species types'!$A$1:$I$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Parameters!$A$1:$F$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Parameters!$A$1:$F$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">References!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2">Submodels!#REF!</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="3">Compartments!$A$1:$G$3</definedName>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="194">
   <si>
     <t>Id</t>
   </si>
@@ -410,6 +410,9 @@
     <t>Reversible</t>
   </si>
   <si>
+    <t>Rate units</t>
+  </si>
+  <si>
     <t>Flux min</t>
   </si>
   <si>
@@ -428,6 +431,9 @@
     <t>specie_1[e] + specie_2[e] ==&gt; specie_1[c] + specie_2[c]</t>
   </si>
   <si>
+    <t>s^-1</t>
+  </si>
+  <si>
     <t>M s^-1</t>
   </si>
   <si>
@@ -474,9 +480,6 @@
   </si>
   <si>
     <t>k_cat_1_for * max( specie_1[e], specie_2[e] )</t>
-  </si>
-  <si>
-    <t>s^-1</t>
   </si>
   <si>
     <t>reaction_2-forward</t>
@@ -646,10 +649,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="176" formatCode="0.000E+00"/>
+    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="0.000E+00"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -693,6 +696,51 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -701,7 +749,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -716,7 +771,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -731,100 +824,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -843,7 +846,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -855,7 +882,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -867,7 +906,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -879,7 +918,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -891,139 +1020,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1046,20 +1049,43 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1094,47 +1120,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1143,135 +1128,153 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1322,8 +1325,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1857,14 +1860,14 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AMJ5"/>
+  <dimension ref="A1:AMK5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H45" sqref="H45"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="4"/>
@@ -1873,16 +1876,16 @@
     <col min="2" max="2" width="25.6" style="13"/>
     <col min="3" max="3" width="14.8916666666667" style="13"/>
     <col min="4" max="4" width="46.75" style="13" customWidth="1"/>
-    <col min="5" max="5" width="8.78333333333333" style="13"/>
-    <col min="6" max="7" width="8.78333333333333" style="14"/>
-    <col min="8" max="8" width="11.7833333333333" style="13"/>
-    <col min="9" max="9" width="11.0333333333333" style="13"/>
-    <col min="10" max="1021" width="8.78333333333333" style="13"/>
-    <col min="1022" max="1025" width="8.78333333333333" style="11"/>
-    <col min="1026" max="16384" width="9" style="11"/>
+    <col min="5" max="6" width="8.78333333333333" style="13"/>
+    <col min="7" max="8" width="8.78333333333333" style="14"/>
+    <col min="9" max="9" width="11.7833333333333" style="13"/>
+    <col min="10" max="10" width="11.0333333333333" style="13"/>
+    <col min="11" max="1022" width="8.78333333333333" style="13"/>
+    <col min="1023" max="1026" width="8.78333333333333" style="11"/>
+    <col min="1027" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="1" customHeight="1" spans="1:1024">
+    <row r="1" s="12" customFormat="1" customHeight="1" spans="1:1025">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1908,112 +1911,127 @@
         <v>118</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AMH1" s="11"/>
       <c r="AMI1" s="11"/>
       <c r="AMJ1" s="11"/>
-    </row>
-    <row r="2" customHeight="1" spans="1:9">
+      <c r="AMK1" s="11"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E2" s="14">
         <v>0</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" s="14">
         <v>0</v>
       </c>
-      <c r="G2" s="14">
+      <c r="H2" s="14">
         <v>1</v>
       </c>
-      <c r="H2" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="I2" s="16"/>
-    </row>
-    <row r="3" customHeight="1" spans="1:9">
+      <c r="I2" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="J2" s="16"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="13" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E3" s="14">
         <v>0</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3" s="14">
         <v>1</v>
       </c>
-      <c r="G3" s="14">
+      <c r="H3" s="14">
         <v>2</v>
       </c>
-      <c r="H3" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="I3" s="16"/>
-    </row>
-    <row r="4" customHeight="1" spans="1:9">
+      <c r="I3" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="J3" s="16"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="13" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E4" s="14">
         <v>1</v>
       </c>
-      <c r="H4" s="14"/>
+      <c r="F4" s="14" t="s">
+        <v>123</v>
+      </c>
       <c r="I4" s="14"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:9">
+      <c r="J4" s="14"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:10">
       <c r="A5" s="13" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E5" s="14">
         <v>0</v>
       </c>
-      <c r="H5" s="14"/>
+      <c r="F5" s="14" t="s">
+        <v>123</v>
+      </c>
       <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D5">
@@ -2057,10 +2075,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>65</v>
@@ -2086,22 +2104,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
@@ -2109,22 +2127,22 @@
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
@@ -2132,22 +2150,22 @@
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
@@ -2155,22 +2173,22 @@
     </row>
     <row r="5" customHeight="1" spans="1:12">
       <c r="A5" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
@@ -2179,22 +2197,22 @@
     </row>
     <row r="6" customHeight="1" spans="1:12">
       <c r="A6" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
@@ -2248,10 +2266,10 @@
         <v>87</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -2268,19 +2286,19 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>17</v>
@@ -2327,7 +2345,7 @@
         <v>87</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -2344,22 +2362,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>54</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2404,13 +2422,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>97</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>87</v>
@@ -2430,13 +2448,13 @@
     </row>
     <row r="2" customHeight="1" spans="1:6">
       <c r="A2" s="9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>91</v>
@@ -2445,7 +2463,7 @@
         <v>-1</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2494,10 +2512,10 @@
         <v>65</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>87</v>
@@ -2517,100 +2535,100 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D2" s="2">
         <v>0.3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D4" s="6">
         <v>2000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D5" s="6">
         <v>0.0003</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D6" s="6">
         <v>0.0003</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D7" s="6">
         <v>0.0003</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D8" s="6">
         <v>0.001</v>
@@ -2624,13 +2642,13 @@
         <v>55</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D9" s="2">
         <v>1100</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
@@ -2638,31 +2656,31 @@
         <v>59</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D10" s="2">
         <v>1000</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D11" s="6">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F8">
+  <autoFilter ref="A1:F11">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2752,7 +2770,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>87</v>
@@ -2761,19 +2779,19 @@
         <v>65</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>18</v>
@@ -2826,46 +2844,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>65</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>18</v>
@@ -3815,7 +3833,7 @@
   <sheetPr/>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>

--- a/tests/multialgorithm/fixtures/test_new_features_model.xlsx
+++ b/tests/multialgorithm/fixtures/test_new_features_model.xlsx
@@ -5,62 +5,63 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="9"/>
+    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
     <sheet name="Taxon" sheetId="2" r:id="rId2"/>
-    <sheet name="Submodels" sheetId="3" r:id="rId3"/>
-    <sheet name="Compartments" sheetId="4" r:id="rId4"/>
-    <sheet name="Species types" sheetId="5" r:id="rId5"/>
-    <sheet name="Species" sheetId="6" r:id="rId6"/>
-    <sheet name="Initial species concentrations" sheetId="7" r:id="rId7"/>
-    <sheet name="Observables" sheetId="8" r:id="rId8"/>
-    <sheet name="Functions" sheetId="9" r:id="rId9"/>
-    <sheet name="Reactions" sheetId="10" r:id="rId10"/>
-    <sheet name="Rate laws" sheetId="11" r:id="rId11"/>
-    <sheet name="dFBA objectives" sheetId="18" r:id="rId12"/>
-    <sheet name="dFBA net reactions" sheetId="12" r:id="rId13"/>
-    <sheet name="dFBA net species" sheetId="13" r:id="rId14"/>
-    <sheet name="Parameters" sheetId="14" r:id="rId15"/>
-    <sheet name="Stop conditions" sheetId="15" r:id="rId16"/>
-    <sheet name="Evidence" sheetId="19" r:id="rId17"/>
-    <sheet name="References" sheetId="16" r:id="rId18"/>
+    <sheet name="Environment" sheetId="20" r:id="rId3"/>
+    <sheet name="Submodels" sheetId="3" r:id="rId4"/>
+    <sheet name="Compartments" sheetId="4" r:id="rId5"/>
+    <sheet name="Species types" sheetId="5" r:id="rId6"/>
+    <sheet name="Species" sheetId="6" r:id="rId7"/>
+    <sheet name="Initial species concentrations" sheetId="7" r:id="rId8"/>
+    <sheet name="Observables" sheetId="8" r:id="rId9"/>
+    <sheet name="Functions" sheetId="9" r:id="rId10"/>
+    <sheet name="Reactions" sheetId="10" r:id="rId11"/>
+    <sheet name="Rate laws" sheetId="11" r:id="rId12"/>
+    <sheet name="dFBA objectives" sheetId="18" r:id="rId13"/>
+    <sheet name="dFBA net reactions" sheetId="12" r:id="rId14"/>
+    <sheet name="dFBA net species" sheetId="13" r:id="rId15"/>
+    <sheet name="Parameters" sheetId="14" r:id="rId16"/>
+    <sheet name="Stop conditions" sheetId="15" r:id="rId17"/>
+    <sheet name="Evidence" sheetId="19" r:id="rId18"/>
+    <sheet name="References" sheetId="16" r:id="rId19"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$G$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Species types'!$A$1:$I$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Parameters!$A$1:$F$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">References!$A$1:$D$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2">Submodels!#REF!</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="3">Compartments!$A$1:$G$3</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="3">Compartments!$A$1:$G$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="3">Compartments!$A$1:$G$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="3">Compartments!$A$1:$G$3</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="4">'Species types'!$A$1:$I$6</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="4">'Species types'!$A$1:$I$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="4">'Species types'!$A$1:$I$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="4">'Species types'!$A$1:$I$6</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="14">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="14">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="14">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="14">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="17">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="17">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="17">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="17">References!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Compartments!$A$1:$G$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Species types'!$A$1:$I$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Parameters!$A$1:$F$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">References!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3">Submodels!#REF!</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="4">Compartments!$A$1:$G$3</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="4">Compartments!$A$1:$G$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="4">Compartments!$A$1:$G$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="4">Compartments!$A$1:$G$3</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="5">'Species types'!$A$1:$I$6</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="5">'Species types'!$A$1:$I$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="5">'Species types'!$A$1:$I$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="5">'Species types'!$A$1:$I$6</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="198">
   <si>
     <t>Id</t>
   </si>
@@ -128,7 +129,7 @@
     <t>Updated</t>
   </si>
   <si>
-    <t>ASP_test</t>
+    <t>taxon</t>
   </si>
   <si>
     <t>Test model for TestExecutableModel</t>
@@ -146,6 +147,21 @@
     <t>References</t>
   </si>
   <si>
+    <t>env</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Temperature units</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
     <t>Algorithm</t>
   </si>
   <si>
@@ -600,9 +616,6 @@
   </si>
   <si>
     <t>Temperature (C)</t>
-  </si>
-  <si>
-    <t>pH</t>
   </si>
   <si>
     <t>Growth media</t>
@@ -649,12 +662,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.000E+00"/>
-    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="0.000E+00"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -696,14 +709,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -711,10 +716,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -727,6 +763,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -735,6 +778,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -749,44 +800,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -800,10 +829,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -812,22 +841,6 @@
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -846,13 +859,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -870,13 +901,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -888,7 +961,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -900,73 +1021,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -978,55 +1033,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1049,17 +1062,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1075,17 +1091,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1122,6 +1127,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1129,152 +1145,149 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1282,7 +1295,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1325,14 +1338,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="35" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1801,25 +1817,25 @@
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="20"/>
+      <c r="B8" s="21"/>
     </row>
     <row r="9" customHeight="1" spans="1:2">
       <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="20"/>
+      <c r="B9" s="21"/>
     </row>
     <row r="10" customHeight="1" spans="1:2">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="20"/>
+      <c r="B10" s="21"/>
     </row>
     <row r="11" customHeight="1" spans="1:2">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="21" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1827,25 +1843,25 @@
       <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="20"/>
+      <c r="B12" s="21"/>
     </row>
     <row r="13" customHeight="1" spans="1:2">
       <c r="A13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="20"/>
+      <c r="B13" s="21"/>
     </row>
     <row r="14" customHeight="1" spans="1:2">
       <c r="A14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="20"/>
+      <c r="B14" s="21"/>
     </row>
     <row r="15" customHeight="1" spans="1:2">
       <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="20"/>
+      <c r="B15" s="21"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1860,9 +1876,88 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="2" width="9.10833333333333" style="2"/>
+    <col min="3" max="3" width="11" style="2" customWidth="1"/>
+    <col min="4" max="1025" width="9.10833333333333" style="2"/>
+    <col min="1026" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:8">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AMK5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -1893,31 +1988,31 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>19</v>
@@ -1931,22 +2026,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="13" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E2" s="14">
         <v>0</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G2" s="14">
         <v>0</v>
@@ -1955,28 +2050,28 @@
         <v>1</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J2" s="16"/>
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="13" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E3" s="14">
         <v>0</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G3" s="14">
         <v>1</v>
@@ -1985,50 +2080,50 @@
         <v>2</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J3" s="16"/>
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="13" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E4" s="14">
         <v>1</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
     </row>
     <row r="5" customHeight="1" spans="1:10">
       <c r="A5" s="13" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E5" s="14">
         <v>0</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
@@ -2043,7 +2138,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:L7"/>
@@ -2075,25 +2170,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>19</v>
@@ -2104,22 +2199,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
@@ -2127,22 +2222,22 @@
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
@@ -2150,22 +2245,22 @@
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="E4" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
@@ -2173,22 +2268,22 @@
     </row>
     <row r="5" customHeight="1" spans="1:12">
       <c r="A5" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
@@ -2197,22 +2292,22 @@
     </row>
     <row r="6" customHeight="1" spans="1:12">
       <c r="A6" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
@@ -2231,7 +2326,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K2"/>
@@ -2257,25 +2352,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>108</v>
-      </c>
       <c r="E1" s="4" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>19</v>
@@ -2286,19 +2381,19 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>17</v>
@@ -2310,7 +2405,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I2"/>
@@ -2339,19 +2434,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>19</v>
@@ -2362,22 +2457,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="9" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -2390,7 +2485,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J2"/>
@@ -2422,22 +2517,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>19</v>
@@ -2448,22 +2543,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:6">
       <c r="A2" s="9" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E2" s="10">
         <v>-1</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2476,7 +2571,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J11"/>
@@ -2509,22 +2604,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>19</v>
@@ -2535,148 +2630,148 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D2" s="2">
         <v>0.3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D4" s="6">
         <v>2000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D5" s="6">
         <v>0.0003</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D6" s="6">
         <v>0.0003</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="D7" s="6">
         <v>0.0003</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D8" s="6">
         <v>0.001</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D9" s="2">
         <v>1100</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D10" s="2">
         <v>1000</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D11" s="6">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -2689,7 +2784,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H1"/>
@@ -2716,16 +2811,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>19</v>
@@ -2744,7 +2839,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:N1"/>
@@ -2770,34 +2865,34 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>180</v>
+        <v>32</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>18</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>19</v>
@@ -2812,7 +2907,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AMJ1"/>
@@ -2844,46 +2939,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>18</v>
@@ -2911,7 +3006,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="$A3:$XFD3"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5" outlineLevelCol="1"/>
@@ -2970,6 +3065,83 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight" activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="7" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="18.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="5.375" style="2" customWidth="1"/>
+    <col min="3" max="1015" width="8.78333333333333" style="2"/>
+    <col min="1016" max="16384" width="9" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:1">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:2">
+      <c r="A4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:2">
+      <c r="A5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="2">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:1">
+      <c r="A6" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:1">
+      <c r="A7" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:1">
+      <c r="A8" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AMJ3"/>
@@ -3003,13 +3175,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>19</v>
@@ -3023,25 +3195,25 @@
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D2" s="19"/>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3051,7 +3223,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AMO3"/>
@@ -3084,40 +3256,40 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>19</v>
@@ -3129,28 +3301,28 @@
     </row>
     <row r="2" customHeight="1" spans="1:15">
       <c r="A2" s="13" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="I2" s="6">
         <v>4.58e-17</v>
@@ -3159,37 +3331,37 @@
         <v>4.58e-18</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="O2" s="13" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:15">
       <c r="A3" s="13" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
@@ -3198,13 +3370,13 @@
         <v>0</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="O3" s="13" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -3217,7 +3389,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AMJ11"/>
@@ -3253,25 +3425,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>19</v>
@@ -3283,13 +3455,13 @@
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
@@ -3298,19 +3470,19 @@
         <v>0</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H2" s="17"/>
     </row>
     <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E3" s="2">
         <v>2</v>
@@ -3319,19 +3491,19 @@
         <v>0</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H3" s="17"/>
     </row>
     <row r="4" customHeight="1" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E4" s="2">
         <v>3</v>
@@ -3340,19 +3512,19 @@
         <v>0</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H4" s="17"/>
     </row>
     <row r="5" customHeight="1" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E5" s="2">
         <v>4</v>
@@ -3361,19 +3533,19 @@
         <v>0</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H5" s="17"/>
     </row>
     <row r="6" customHeight="1" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E6" s="2">
         <v>5</v>
@@ -3382,19 +3554,19 @@
         <v>0</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H6" s="17"/>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E7" s="2">
         <v>6</v>
@@ -3403,7 +3575,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="8:8">
@@ -3428,7 +3600,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I9"/>
@@ -3456,19 +3628,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>19</v>
@@ -3479,114 +3651,114 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -3599,7 +3771,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K7"/>
@@ -3637,25 +3809,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>19</v>
@@ -3666,104 +3838,104 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E2" s="17">
         <v>0.000148</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E3" s="17">
         <v>0.0002</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E4" s="17">
         <v>0.0005</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E5" s="17">
         <v>0.0005</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E6" s="17">
         <v>0.001</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E7" s="17">
         <v>0.002</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -3773,7 +3945,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H1"/>
@@ -3800,101 +3972,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>19</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2:C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="2" width="9.10833333333333" style="2"/>
-    <col min="3" max="3" width="11" style="2" customWidth="1"/>
-    <col min="4" max="1025" width="9.10833333333333" style="2"/>
-    <col min="1026" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" customHeight="1" spans="1:8">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/tests/multialgorithm/fixtures/test_new_features_model.xlsx
+++ b/tests/multialgorithm/fixtures/test_new_features_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="2"/>
+    <workbookView windowWidth="28200" windowHeight="14070" tabRatio="993" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,8 @@
     <sheet name="Reactions" sheetId="10" r:id="rId11"/>
     <sheet name="Rate laws" sheetId="11" r:id="rId12"/>
     <sheet name="dFBA objectives" sheetId="18" r:id="rId13"/>
-    <sheet name="dFBA net reactions" sheetId="12" r:id="rId14"/>
-    <sheet name="dFBA net species" sheetId="13" r:id="rId15"/>
+    <sheet name="dFBA objective reactions" sheetId="12" r:id="rId14"/>
+    <sheet name="dFBA objective species" sheetId="13" r:id="rId15"/>
     <sheet name="Parameters" sheetId="14" r:id="rId16"/>
     <sheet name="Stop conditions" sheetId="15" r:id="rId17"/>
     <sheet name="Evidence" sheetId="19" r:id="rId18"/>
@@ -549,7 +549,7 @@
     <t>No comment</t>
   </si>
   <si>
-    <t>dFBA net reaction</t>
+    <t>dFBA objective reaction</t>
   </si>
   <si>
     <t>Value</t>
@@ -662,12 +662,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="176" formatCode="0.000E+00"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="0.000E+00"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -696,9 +696,9 @@
       <charset val="1"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -707,51 +707,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -763,14 +718,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -780,6 +735,21 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -800,22 +770,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -828,11 +799,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -859,7 +859,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -871,7 +889,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -883,73 +1003,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -973,73 +1033,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1062,20 +1062,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1106,6 +1103,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1145,153 +1151,147 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1338,8 +1338,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2490,12 +2490,12 @@
   <sheetPr/>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
@@ -3069,7 +3069,7 @@
   <sheetPr/>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>

--- a/tests/multialgorithm/fixtures/test_new_features_model.xlsx
+++ b/tests/multialgorithm/fixtures/test_new_features_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="14070" tabRatio="993" activeTab="14"/>
+    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="199">
   <si>
     <t>Id</t>
   </si>
@@ -162,6 +162,12 @@
     <t>pH</t>
   </si>
   <si>
+    <t>pH units</t>
+  </si>
+  <si>
+    <t>dimensionless</t>
+  </si>
+  <si>
     <t>Algorithm</t>
   </si>
   <si>
@@ -535,9 +541,6 @@
   </si>
   <si>
     <t>Metabolism_biomass</t>
-  </si>
-  <si>
-    <t>dimensionless</t>
   </si>
   <si>
     <t>Cell size units</t>
@@ -662,12 +665,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="0.000E+00"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -696,94 +699,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -799,16 +714,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -823,6 +735,50 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -843,6 +799,53 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -859,7 +862,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -871,19 +892,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -895,25 +946,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,7 +964,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -943,7 +982,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -955,19 +1012,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -979,13 +1024,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -997,49 +1042,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1062,17 +1065,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1088,21 +1085,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1133,6 +1115,45 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1141,156 +1162,138 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1902,16 +1905,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>19</v>
@@ -1922,24 +1925,24 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1988,31 +1991,31 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>19</v>
@@ -2026,22 +2029,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="13" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E2" s="14">
         <v>0</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G2" s="14">
         <v>0</v>
@@ -2050,28 +2053,28 @@
         <v>1</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="J2" s="16"/>
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E3" s="14">
         <v>0</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G3" s="14">
         <v>1</v>
@@ -2080,50 +2083,50 @@
         <v>2</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="J3" s="16"/>
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="13" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E4" s="14">
         <v>1</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
     </row>
     <row r="5" customHeight="1" spans="1:10">
       <c r="A5" s="13" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E5" s="14">
         <v>0</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
@@ -2170,25 +2173,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>19</v>
@@ -2199,22 +2202,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
@@ -2222,22 +2225,22 @@
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
@@ -2245,22 +2248,22 @@
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
@@ -2268,22 +2271,22 @@
     </row>
     <row r="5" customHeight="1" spans="1:12">
       <c r="A5" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
@@ -2292,22 +2295,22 @@
     </row>
     <row r="6" customHeight="1" spans="1:12">
       <c r="A6" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
@@ -2352,25 +2355,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>19</v>
@@ -2381,19 +2384,19 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>158</v>
+        <v>34</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>17</v>
@@ -2434,19 +2437,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>19</v>
@@ -2457,22 +2460,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="9" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2490,7 +2493,7 @@
   <sheetPr/>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -2517,22 +2520,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>19</v>
@@ -2543,22 +2546,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:6">
       <c r="A2" s="9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E2" s="10">
         <v>-1</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2604,22 +2607,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>19</v>
@@ -2630,148 +2633,148 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D2" s="2">
         <v>0.3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>158</v>
+        <v>34</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D4" s="6">
         <v>2000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D5" s="6">
         <v>0.0003</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D6" s="6">
         <v>0.0003</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D7" s="6">
         <v>0.0003</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D8" s="6">
         <v>0.001</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D9" s="2">
         <v>1100</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D10" s="2">
         <v>1000</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D11" s="6">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -2811,16 +2814,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>19</v>
@@ -2865,34 +2868,34 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>32</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>18</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>19</v>
@@ -2939,46 +2942,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>18</v>
@@ -3067,15 +3070,15 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="E9" sqref="E9"/>
+      <selection pane="topRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="18.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="5.375" style="2" customWidth="1"/>
@@ -3120,18 +3123,26 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:1">
+    <row r="6" customHeight="1" spans="1:2">
       <c r="A6" s="4" t="s">
-        <v>18</v>
+        <v>33</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:1">
       <c r="A7" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:1">
       <c r="A8" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:1">
+      <c r="A9" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3175,13 +3186,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>19</v>
@@ -3195,25 +3206,25 @@
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D2" s="19"/>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -3256,40 +3267,40 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>19</v>
@@ -3301,28 +3312,28 @@
     </row>
     <row r="2" customHeight="1" spans="1:15">
       <c r="A2" s="13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I2" s="6">
         <v>4.58e-17</v>
@@ -3331,37 +3342,37 @@
         <v>4.58e-18</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O2" s="13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:15">
       <c r="A3" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
@@ -3370,13 +3381,13 @@
         <v>0</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O3" s="13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -3425,25 +3436,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>19</v>
@@ -3455,13 +3466,13 @@
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
@@ -3470,19 +3481,19 @@
         <v>0</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H2" s="17"/>
     </row>
     <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E3" s="2">
         <v>2</v>
@@ -3491,19 +3502,19 @@
         <v>0</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H3" s="17"/>
     </row>
     <row r="4" customHeight="1" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E4" s="2">
         <v>3</v>
@@ -3512,19 +3523,19 @@
         <v>0</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H4" s="17"/>
     </row>
     <row r="5" customHeight="1" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E5" s="2">
         <v>4</v>
@@ -3533,19 +3544,19 @@
         <v>0</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H5" s="17"/>
     </row>
     <row r="6" customHeight="1" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E6" s="2">
         <v>5</v>
@@ -3554,19 +3565,19 @@
         <v>0</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H6" s="17"/>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E7" s="2">
         <v>6</v>
@@ -3575,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="8:8">
@@ -3628,19 +3639,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>19</v>
@@ -3651,114 +3662,114 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3809,25 +3820,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>19</v>
@@ -3838,104 +3849,104 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E2" s="17">
         <v>0.000148</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E3" s="17">
         <v>0.0002</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E4" s="17">
         <v>0.0005</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E5" s="17">
         <v>0.0005</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E6" s="17">
         <v>0.001</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E7" s="17">
         <v>0.002</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -3972,16 +3983,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>19</v>

--- a/tests/multialgorithm/fixtures/test_new_features_model.xlsx
+++ b/tests/multialgorithm/fixtures/test_new_features_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="2"/>
+    <workbookView windowWidth="19800" windowHeight="6945" tabRatio="993" firstSheet="11" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -26,14 +26,15 @@
     <sheet name="Parameters" sheetId="14" r:id="rId16"/>
     <sheet name="Stop conditions" sheetId="15" r:id="rId17"/>
     <sheet name="Evidence" sheetId="19" r:id="rId18"/>
-    <sheet name="References" sheetId="16" r:id="rId19"/>
+    <sheet name="Interpretations" sheetId="21" r:id="rId19"/>
+    <sheet name="References" sheetId="16" r:id="rId20"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Compartments!$A$1:$G$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Species types'!$A$1:$I$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Reactions!$A$1:$D$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Parameters!$A$1:$F$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">References!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">References!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3">Submodels!#REF!</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="4">Compartments!$A$1:$G$3</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="4">Compartments!$A$1:$G$3</definedName>
@@ -51,17 +52,17 @@
     <definedName name="_FilterDatabase_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="18">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="19">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="205">
   <si>
     <t>Id</t>
   </si>
@@ -174,6 +175,9 @@
     <t>Evidence</t>
   </si>
   <si>
+    <t>Interpretations</t>
+  </si>
+  <si>
     <t>dfba_submodel</t>
   </si>
   <si>
@@ -618,10 +622,25 @@
     <t>Genetic variant</t>
   </si>
   <si>
-    <t>Temperature (C)</t>
-  </si>
-  <si>
     <t>Growth media</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Experiment type</t>
+  </si>
+  <si>
+    <t>Experiment design</t>
+  </si>
+  <si>
+    <t>Measurement method</t>
+  </si>
+  <si>
+    <t>Analysis method</t>
+  </si>
+  <si>
+    <t>Method</t>
   </si>
   <si>
     <t>Title</t>
@@ -665,11 +684,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0.000E+00"/>
+    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="0.000E+00"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
@@ -701,14 +720,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -719,8 +731,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -734,23 +747,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -763,22 +770,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -794,7 +786,36 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -808,9 +829,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -824,18 +851,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -862,7 +881,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -874,13 +923,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -892,13 +1049,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -910,139 +1061,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1068,8 +1087,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1089,11 +1117,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1116,8 +1150,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1137,21 +1171,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1165,140 +1184,140 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1313,6 +1332,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1820,25 +1842,25 @@
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="21"/>
+      <c r="B8" s="22"/>
     </row>
     <row r="9" customHeight="1" spans="1:2">
       <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="21"/>
+      <c r="B9" s="22"/>
     </row>
     <row r="10" customHeight="1" spans="1:2">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="21"/>
+      <c r="B10" s="22"/>
     </row>
     <row r="11" customHeight="1" spans="1:2">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="22" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1846,25 +1868,25 @@
       <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="21"/>
+      <c r="B12" s="22"/>
     </row>
     <row r="13" customHeight="1" spans="1:2">
       <c r="A13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="21"/>
+      <c r="B13" s="22"/>
     </row>
     <row r="14" customHeight="1" spans="1:2">
       <c r="A14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="21"/>
+      <c r="B14" s="22"/>
     </row>
     <row r="15" customHeight="1" spans="1:2">
       <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="21"/>
+      <c r="B15" s="22"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1879,25 +1901,25 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2:C3"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="2" width="9.10833333333333" style="2"/>
     <col min="3" max="3" width="11" style="2" customWidth="1"/>
-    <col min="4" max="1025" width="9.10833333333333" style="2"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="4" max="1026" width="9.10833333333333" style="2"/>
+    <col min="1027" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:8">
+    <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1905,10 +1927,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>
@@ -1917,32 +1939,35 @@
         <v>36</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1958,32 +1983,32 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AMK5"/>
+  <dimension ref="A1:AML5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2:F5"/>
+      <selection pane="bottomRight" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="17.8916666666667" style="13"/>
-    <col min="2" max="2" width="25.6" style="13"/>
-    <col min="3" max="3" width="14.8916666666667" style="13"/>
-    <col min="4" max="4" width="46.75" style="13" customWidth="1"/>
-    <col min="5" max="6" width="8.78333333333333" style="13"/>
-    <col min="7" max="8" width="8.78333333333333" style="14"/>
-    <col min="9" max="9" width="11.7833333333333" style="13"/>
-    <col min="10" max="10" width="11.0333333333333" style="13"/>
-    <col min="11" max="1022" width="8.78333333333333" style="13"/>
-    <col min="1023" max="1026" width="8.78333333333333" style="11"/>
-    <col min="1027" max="16384" width="9" style="11"/>
+    <col min="1" max="1" width="17.8916666666667" style="14"/>
+    <col min="2" max="2" width="25.6" style="14"/>
+    <col min="3" max="3" width="14.8916666666667" style="14"/>
+    <col min="4" max="4" width="46.75" style="14" customWidth="1"/>
+    <col min="5" max="6" width="8.78333333333333" style="14"/>
+    <col min="7" max="8" width="8.78333333333333" style="15"/>
+    <col min="9" max="9" width="11.7833333333333" style="14"/>
+    <col min="10" max="10" width="11.0333333333333" style="14"/>
+    <col min="11" max="1023" width="8.78333333333333" style="14"/>
+    <col min="1024" max="1027" width="8.78333333333333" style="12"/>
+    <col min="1028" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="1" customHeight="1" spans="1:1025">
+    <row r="1" s="13" customFormat="1" customHeight="1" spans="1:1026">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1991,25 +2016,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>18</v>
@@ -2018,118 +2043,121 @@
         <v>36</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AMI1" s="11"/>
-      <c r="AMJ1" s="11"/>
-      <c r="AMK1" s="11"/>
+      <c r="AMJ1" s="12"/>
+      <c r="AMK1" s="12"/>
+      <c r="AML1" s="12"/>
     </row>
     <row r="2" customHeight="1" spans="1:10">
-      <c r="A2" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="B2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="E2" s="14">
+      <c r="C2" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="15">
         <v>0</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="G2" s="14">
+      <c r="F2" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="G2" s="15">
         <v>0</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="15">
         <v>1</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="J2" s="17"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:10">
+      <c r="A3" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="15">
+        <v>0</v>
+      </c>
+      <c r="F3" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="J2" s="16"/>
-    </row>
-    <row r="3" customHeight="1" spans="1:10">
-      <c r="A3" s="13" t="s">
+      <c r="G3" s="15">
+        <v>1</v>
+      </c>
+      <c r="H3" s="15">
+        <v>2</v>
+      </c>
+      <c r="I3" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="E3" s="14">
+      <c r="J3" s="17"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:10">
+      <c r="A4" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" s="15">
+        <v>1</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:10">
+      <c r="A5" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="E5" s="15">
         <v>0</v>
       </c>
-      <c r="F3" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="G3" s="14">
-        <v>1</v>
-      </c>
-      <c r="H3" s="14">
-        <v>2</v>
-      </c>
-      <c r="I3" s="14" t="s">
+      <c r="F5" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" customHeight="1" spans="1:10">
-      <c r="A4" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="E4" s="14">
-        <v>1</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:10">
-      <c r="A5" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="E5" s="14">
-        <v>0</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D5">
@@ -2144,14 +2172,14 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="6"/>
@@ -2161,11 +2189,11 @@
     <col min="3" max="3" width="9.125" style="2" customWidth="1"/>
     <col min="4" max="5" width="10.6" style="2"/>
     <col min="6" max="6" width="41.375" style="2" customWidth="1"/>
-    <col min="7" max="1025" width="10.6" style="2"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="7" max="1026" width="10.6" style="2"/>
+    <col min="1027" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:11">
+    <row r="1" customHeight="1" spans="1:12">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2173,19 +2201,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -2194,133 +2222,142 @@
         <v>36</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:10">
+    <row r="2" customHeight="1" spans="1:11">
       <c r="A2" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:11">
+      <c r="A3" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-    </row>
-    <row r="3" customHeight="1" spans="1:10">
-      <c r="A3" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:11">
+      <c r="A4" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-    </row>
-    <row r="4" customHeight="1" spans="1:10">
-      <c r="A4" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="E4" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:13">
+      <c r="A5" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:13">
+      <c r="A6" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:12">
-      <c r="A5" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="L5" s="6"/>
-    </row>
-    <row r="6" customHeight="1" spans="1:12">
-      <c r="A6" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="L6" s="6"/>
-    </row>
-    <row r="7" customHeight="1" spans="8:10">
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
+        <v>131</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="M6" s="7"/>
+    </row>
+    <row r="7" customHeight="1" spans="8:11">
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2332,14 +2369,14 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1:F2"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
@@ -2347,7 +2384,7 @@
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:11">
+    <row r="1" customHeight="1" spans="1:12">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2355,19 +2392,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -2376,27 +2413,30 @@
         <v>36</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>159</v>
+        <v>38</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>160</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>17</v>
@@ -2411,25 +2451,25 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="2" width="9.10833333333333" style="2"/>
     <col min="3" max="3" width="13.3916666666667" style="2"/>
-    <col min="4" max="1025" width="9.10833333333333" style="2"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="4" max="1026" width="9.10833333333333" style="2"/>
+    <col min="1027" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:9">
+    <row r="1" customHeight="1" spans="1:10">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2437,13 +2477,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -2452,30 +2492,33 @@
         <v>36</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:8">
-      <c r="A2" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>161</v>
+    <row r="2" customHeight="1" spans="1:9">
+      <c r="A2" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>162</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>162</v>
+        <v>131</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -2491,14 +2534,14 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
@@ -2508,60 +2551,63 @@
     <col min="3" max="3" width="9.10833333333333" style="2"/>
     <col min="4" max="4" width="10" style="2" customWidth="1"/>
     <col min="5" max="5" width="9.875" style="2"/>
-    <col min="6" max="1025" width="9.10833333333333" style="2"/>
-    <col min="1026" max="16384" width="9" style="7"/>
+    <col min="6" max="1026" width="9.10833333333333" style="2"/>
+    <col min="1027" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:10">
-      <c r="A1" s="8" t="s">
+    <row r="1" customHeight="1" spans="1:11">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="E1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="G1" s="8" t="s">
+      <c r="D1" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:6">
-      <c r="A2" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>159</v>
+      <c r="B2" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>160</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E2" s="10">
+        <v>99</v>
+      </c>
+      <c r="E2" s="11">
         <v>-1</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>131</v>
+      <c r="F2" s="10" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2577,29 +2623,29 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11:F11"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="23.0333333333333" style="2"/>
-    <col min="2" max="2" width="43.6" style="2"/>
+    <col min="2" max="2" width="33.125" style="2" customWidth="1"/>
     <col min="3" max="3" width="10.5" style="2"/>
     <col min="4" max="4" width="9.25" style="2"/>
     <col min="5" max="5" width="13.3916666666667" style="2"/>
-    <col min="6" max="6" width="49.1666666666667" style="2"/>
-    <col min="7" max="1025" width="8.78333333333333" style="2"/>
-    <col min="1026" max="16384" width="9" style="3"/>
+    <col min="6" max="6" width="14.375" style="2" customWidth="1"/>
+    <col min="7" max="1026" width="8.78333333333333" style="2"/>
+    <col min="1027" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:10">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:11">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2607,16 +2653,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>18</v>
@@ -2625,21 +2671,24 @@
         <v>36</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:9">
+    <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D2" s="2">
         <v>0.3</v>
@@ -2647,134 +2696,134 @@
       <c r="F2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>170</v>
+      <c r="J2" s="2" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D4" s="7">
+        <v>2000</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D4" s="6">
-        <v>2000</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D5" s="6">
+        <v>173</v>
+      </c>
+      <c r="D5" s="7">
         <v>0.0003</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D6" s="6">
+        <v>173</v>
+      </c>
+      <c r="D6" s="7">
         <v>0.0003</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D7" s="6">
+        <v>173</v>
+      </c>
+      <c r="D7" s="7">
         <v>0.0003</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D8" s="6">
+        <v>180</v>
+      </c>
+      <c r="D8" s="7">
         <v>0.001</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D9" s="2">
         <v>1100</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D10" s="2">
         <v>1000</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D11" s="6">
+        <v>146</v>
+      </c>
+      <c r="D11" s="7">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -2790,23 +2839,23 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1025" width="9.10833333333333" style="2"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1" max="1026" width="9.10833333333333" style="2"/>
+    <col min="1027" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:8">
+    <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2814,10 +2863,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>
@@ -2826,9 +2875,12 @@
         <v>36</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2845,14 +2897,14 @@
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:V1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1:V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2860,7 +2912,7 @@
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:14">
+    <row r="1" customHeight="1" spans="1:22">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2868,16 +2920,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>94</v>
+        <v>168</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>183</v>
+        <v>73</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>184</v>
@@ -2886,21 +2938,45 @@
         <v>185</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="L1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="N1" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="S1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2911,6 +2987,170 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="15.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="2" customWidth="1"/>
+    <col min="3" max="1022" width="9.10833333333333" style="2"/>
+    <col min="1023" max="1023" width="9.10833333333333"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.1" customHeight="1" spans="1:11">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1025" width="10.6" style="2"/>
+    <col min="1026" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:2">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:1">
+      <c r="A4" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:2">
+      <c r="A5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:1">
+      <c r="A6" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AMJ1"/>
@@ -2942,46 +3182,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>18</v>
@@ -2995,72 +3235,6 @@
   <autoFilter ref="A1:D1">
     <extLst/>
   </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1025" width="10.6" style="2"/>
-    <col min="1026" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" customHeight="1" spans="1:2">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:2">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:2">
-      <c r="A3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:1">
-      <c r="A4" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:2">
-      <c r="A5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:1">
-      <c r="A6" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
@@ -3072,7 +3246,7 @@
   <sheetPr/>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
       <selection pane="topRight" activeCell="D8" sqref="D8"/>
@@ -3083,7 +3257,7 @@
     <col min="1" max="1" width="18.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="5.375" style="2" customWidth="1"/>
     <col min="3" max="1015" width="8.78333333333333" style="2"/>
-    <col min="1016" max="16384" width="9" style="20"/>
+    <col min="1016" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
@@ -3155,14 +3329,14 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AMJ3"/>
+  <dimension ref="A1:AMK3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -3170,15 +3344,15 @@
     <col min="1" max="1" width="10.3916666666667" style="2"/>
     <col min="2" max="2" width="13.8166666666667" style="2"/>
     <col min="3" max="3" width="16.175" style="2"/>
-    <col min="4" max="5" width="9.31666666666667" style="2"/>
-    <col min="6" max="6" width="9.425" style="2"/>
-    <col min="7" max="7" width="12.9583333333333" style="3"/>
-    <col min="8" max="1021" width="8.78333333333333" style="2"/>
-    <col min="1022" max="1025" width="8.78333333333333" style="3"/>
-    <col min="1026" max="16384" width="9" style="3"/>
+    <col min="4" max="6" width="9.31666666666667" style="2"/>
+    <col min="7" max="7" width="9.425" style="2"/>
+    <col min="8" max="8" width="12.9583333333333" style="3"/>
+    <col min="9" max="1022" width="8.78333333333333" style="2"/>
+    <col min="1023" max="1026" width="8.78333333333333" style="3"/>
+    <col min="1027" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" customHeight="1" spans="1:1024">
+    <row r="1" s="1" customFormat="1" ht="15" customHeight="1" spans="1:1025">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3195,36 +3369,39 @@
         <v>36</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AMH1" s="3"/>
       <c r="AMI1" s="3"/>
       <c r="AMJ1" s="3"/>
+      <c r="AMK1" s="3"/>
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="19"/>
+        <v>40</v>
+      </c>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -3237,64 +3414,64 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AMO3"/>
+  <dimension ref="A1:AMP3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1:L1"/>
+      <selection pane="bottomRight" activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="5.14166666666667" style="13"/>
-    <col min="2" max="3" width="17.5666666666667" style="13"/>
-    <col min="4" max="5" width="13.2833333333333" style="13"/>
-    <col min="6" max="7" width="8.375" style="13" customWidth="1"/>
-    <col min="8" max="8" width="10.8166666666667" style="13"/>
-    <col min="9" max="1028" width="8.78333333333333" style="13"/>
-    <col min="1029" max="1030" width="8.78333333333333" style="11"/>
-    <col min="1031" max="16384" width="9" style="11"/>
+    <col min="1" max="1" width="5.14166666666667" style="14"/>
+    <col min="2" max="3" width="17.5666666666667" style="14"/>
+    <col min="4" max="5" width="13.2833333333333" style="14"/>
+    <col min="6" max="7" width="8.375" style="14" customWidth="1"/>
+    <col min="8" max="8" width="10.8166666666667" style="14"/>
+    <col min="9" max="1029" width="8.78333333333333" style="14"/>
+    <col min="1030" max="1031" width="8.78333333333333" style="12"/>
+    <col min="1032" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="1" customHeight="1" spans="1:1029">
-      <c r="A1" s="18" t="s">
+    <row r="1" s="13" customFormat="1" customHeight="1" spans="1:1030">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>18</v>
@@ -3303,76 +3480,79 @@
         <v>36</v>
       </c>
       <c r="O1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AMO1" s="11"/>
-    </row>
-    <row r="2" customHeight="1" spans="1:15">
-      <c r="A2" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="13" t="s">
+      <c r="AMP1" s="12"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:16">
+      <c r="A2" s="14" t="s">
         <v>54</v>
       </c>
+      <c r="B2" s="14" t="s">
+        <v>55</v>
+      </c>
       <c r="C2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I2" s="6">
+        <v>61</v>
+      </c>
+      <c r="I2" s="7">
         <v>4.58e-17</v>
       </c>
       <c r="J2" s="2">
         <v>4.58e-18</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="O2" s="13" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:15">
-      <c r="A3" s="13" t="s">
+      <c r="P2" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:16">
+      <c r="A3" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
@@ -3381,13 +3561,13 @@
         <v>0</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="O3" s="13" t="s">
         <v>67</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -3403,14 +3583,14 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AMJ11"/>
+  <dimension ref="A1:AMK11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -3422,13 +3602,13 @@
     <col min="5" max="5" width="10.2833333333333" style="2"/>
     <col min="6" max="6" width="9.425" style="2"/>
     <col min="7" max="8" width="18.8583333333333" style="2"/>
-    <col min="9" max="9" width="10.5" style="2"/>
-    <col min="10" max="1023" width="8.78333333333333" style="2"/>
-    <col min="1024" max="1025" width="8.78333333333333" style="3"/>
-    <col min="1026" max="16384" width="9" style="3"/>
+    <col min="9" max="10" width="10.5" style="2"/>
+    <col min="11" max="1024" width="8.78333333333333" style="2"/>
+    <col min="1025" max="1026" width="8.78333333333333" style="3"/>
+    <col min="1027" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:1024">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:1025">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3436,19 +3616,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -3457,22 +3637,25 @@
         <v>36</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AMJ1" s="3"/>
+      <c r="AMK1" s="3"/>
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
@@ -3480,20 +3663,20 @@
       <c r="F2" s="2">
         <v>0</v>
       </c>
-      <c r="G2" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="H2" s="17"/>
+      <c r="G2" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E3" s="2">
         <v>2</v>
@@ -3501,20 +3684,20 @@
       <c r="F3" s="2">
         <v>0</v>
       </c>
-      <c r="G3" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="H3" s="17"/>
+      <c r="G3" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="18"/>
     </row>
     <row r="4" customHeight="1" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E4" s="2">
         <v>3</v>
@@ -3522,20 +3705,20 @@
       <c r="F4" s="2">
         <v>0</v>
       </c>
-      <c r="G4" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="H4" s="17"/>
+      <c r="G4" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4" s="18"/>
     </row>
     <row r="5" customHeight="1" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E5" s="2">
         <v>4</v>
@@ -3543,20 +3726,20 @@
       <c r="F5" s="2">
         <v>0</v>
       </c>
-      <c r="G5" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="H5" s="17"/>
+      <c r="G5" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" s="18"/>
     </row>
     <row r="6" customHeight="1" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E6" s="2">
         <v>5</v>
@@ -3564,20 +3747,20 @@
       <c r="F6" s="2">
         <v>0</v>
       </c>
-      <c r="G6" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="H6" s="17"/>
+      <c r="G6" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6" s="18"/>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E7" s="2">
         <v>6</v>
@@ -3585,21 +3768,21 @@
       <c r="F7" s="2">
         <v>0</v>
       </c>
-      <c r="G7" s="17" t="s">
-        <v>76</v>
+      <c r="G7" s="18" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="8:8">
-      <c r="H8" s="13"/>
+      <c r="H8" s="14"/>
     </row>
     <row r="9" customHeight="1" spans="8:8">
-      <c r="H9" s="13"/>
+      <c r="H9" s="14"/>
     </row>
     <row r="10" customHeight="1" spans="8:8">
-      <c r="H10" s="13"/>
+      <c r="H10" s="14"/>
     </row>
     <row r="11" customHeight="1" spans="8:8">
-      <c r="H11" s="15"/>
+      <c r="H11" s="16"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I7">
@@ -3614,24 +3797,24 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="$A1:$XFD1048576"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="6" width="15.5333333333333" style="2"/>
-    <col min="7" max="1025" width="9.10833333333333" style="2"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="7" max="1026" width="9.10833333333333" style="2"/>
+    <col min="1027" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:9">
+    <row r="1" customHeight="1" spans="1:10">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3639,13 +3822,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -3654,122 +3837,125 @@
         <v>36</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3785,14 +3971,14 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="6"/>
@@ -3805,14 +3991,14 @@
     <col min="6" max="6" width="10.5" style="2"/>
     <col min="7" max="7" width="10.2833333333333" style="2"/>
     <col min="8" max="8" width="9.425" style="2"/>
-    <col min="9" max="10" width="18.8583333333333" style="2"/>
-    <col min="11" max="12" width="10.5" style="2"/>
-    <col min="13" max="13" width="23.35" style="2"/>
-    <col min="14" max="1025" width="8.78333333333333" style="2"/>
-    <col min="1026" max="16384" width="9" style="3"/>
+    <col min="9" max="11" width="18.8583333333333" style="2"/>
+    <col min="12" max="13" width="10.5" style="2"/>
+    <col min="14" max="14" width="23.35" style="2"/>
+    <col min="15" max="1026" width="8.78333333333333" style="2"/>
+    <col min="1027" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:11">
+    <row r="1" customHeight="1" spans="1:12">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3820,19 +4006,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -3841,112 +4027,115 @@
         <v>36</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="17">
+        <v>61</v>
+      </c>
+      <c r="E2" s="18">
         <v>0.000148</v>
       </c>
-      <c r="G2" s="17" t="s">
-        <v>109</v>
+      <c r="G2" s="18" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="18">
+        <v>0.0002</v>
+      </c>
+      <c r="G3" s="18" t="s">
         <v>110</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" s="17">
-        <v>0.0002</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="17">
+        <v>61</v>
+      </c>
+      <c r="E4" s="18">
         <v>0.0005</v>
       </c>
-      <c r="G4" s="17" t="s">
-        <v>109</v>
+      <c r="G4" s="18" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="17">
+        <v>61</v>
+      </c>
+      <c r="E5" s="18">
         <v>0.0005</v>
       </c>
-      <c r="G5" s="17" t="s">
-        <v>109</v>
+      <c r="G5" s="18" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="17">
+        <v>61</v>
+      </c>
+      <c r="E6" s="18">
         <v>0.001</v>
       </c>
-      <c r="G6" s="17" t="s">
-        <v>109</v>
+      <c r="G6" s="18" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="17">
+        <v>61</v>
+      </c>
+      <c r="E7" s="18">
         <v>0.002</v>
       </c>
-      <c r="G7" s="17" t="s">
-        <v>109</v>
+      <c r="G7" s="18" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -3959,23 +4148,23 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M45" sqref="M45:M47"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1025" width="9.10833333333333" style="2"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1" max="1026" width="9.10833333333333" style="2"/>
+    <col min="1027" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:8">
+    <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3983,10 +4172,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>18</v>
@@ -3994,10 +4183,13 @@
       <c r="F1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>27</v>
       </c>
     </row>

--- a/tests/multialgorithm/fixtures/test_new_features_model.xlsx
+++ b/tests/multialgorithm/fixtures/test_new_features_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6945" tabRatio="993" firstSheet="11" activeTab="16"/>
+    <workbookView windowWidth="28695" windowHeight="14070" tabRatio="993" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="204">
   <si>
     <t>Id</t>
   </si>
@@ -169,7 +169,7 @@
     <t>dimensionless</t>
   </si>
   <si>
-    <t>Algorithm</t>
+    <t>Framework</t>
   </si>
   <si>
     <t>Evidence</t>
@@ -184,7 +184,7 @@
     <t>Metabolism</t>
   </si>
   <si>
-    <t>dfba</t>
+    <t>dynamic_flux_balance_analysis</t>
   </si>
   <si>
     <t>ssa_submodel</t>
@@ -193,7 +193,7 @@
     <t>RNA degradation</t>
   </si>
   <si>
-    <t>ssa</t>
+    <t>stochastic_simulation_algorithm</t>
   </si>
   <si>
     <t>Biological type</t>
@@ -232,13 +232,13 @@
     <t>Cell</t>
   </si>
   <si>
-    <t>cellular</t>
-  </si>
-  <si>
-    <t>fluid</t>
-  </si>
-  <si>
-    <t>3d</t>
+    <t>cellular_compartment</t>
+  </si>
+  <si>
+    <t>fluid_compartment</t>
+  </si>
+  <si>
+    <t>3D_compartment</t>
   </si>
   <si>
     <t>e</t>
@@ -247,7 +247,7 @@
     <t>g</t>
   </si>
   <si>
-    <t>normal</t>
+    <t>normal_distribution</t>
   </si>
   <si>
     <t>l</t>
@@ -262,7 +262,7 @@
     <t>Extracellular space</t>
   </si>
   <si>
-    <t>extracellular</t>
+    <t>extracellular_compartment</t>
   </si>
   <si>
     <t>density_e</t>
@@ -500,9 +500,6 @@
   </si>
   <si>
     <t>forward</t>
-  </si>
-  <si>
-    <t>other</t>
   </si>
   <si>
     <t>k_cat_1_for * max( specie_1[e], specie_2[e] )</t>
@@ -684,9 +681,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.000E+00"/>
-    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="0.000E+00"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -731,11 +728,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -746,26 +743,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -784,16 +773,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -807,15 +810,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -823,14 +828,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -843,24 +856,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -881,7 +878,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -893,13 +962,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -911,13 +998,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -929,7 +1028,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -941,127 +1046,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1089,30 +1086,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1147,11 +1120,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1173,143 +1172,141 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1363,8 +1360,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2179,7 +2176,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="6"/>
@@ -2241,11 +2238,8 @@
       <c r="D2" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>131</v>
@@ -2257,7 +2251,7 @@
     </row>
     <row r="3" customHeight="1" spans="1:11">
       <c r="A3" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>133</v>
@@ -2265,11 +2259,8 @@
       <c r="D3" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>131</v>
@@ -2281,7 +2272,7 @@
     </row>
     <row r="4" customHeight="1" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>136</v>
@@ -2289,11 +2280,8 @@
       <c r="D4" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>131</v>
@@ -2305,19 +2293,16 @@
     </row>
     <row r="5" customHeight="1" spans="1:13">
       <c r="A5" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>136</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>131</v>
@@ -2330,7 +2315,7 @@
     </row>
     <row r="6" customHeight="1" spans="1:13">
       <c r="A6" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>139</v>
@@ -2338,11 +2323,8 @@
       <c r="D6" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>131</v>
@@ -2401,10 +2383,10 @@
         <v>95</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>158</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -2424,13 +2406,13 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>34</v>
@@ -2483,7 +2465,7 @@
         <v>95</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -2503,10 +2485,10 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>38</v>
@@ -2518,7 +2500,7 @@
         <v>62</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2563,13 +2545,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>105</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>95</v>
@@ -2592,13 +2574,13 @@
     </row>
     <row r="2" customHeight="1" spans="1:6">
       <c r="A2" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>167</v>
-      </c>
       <c r="C2" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>99</v>
@@ -2630,7 +2612,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2656,10 +2638,10 @@
         <v>73</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>95</v>
@@ -2682,13 +2664,10 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="D2" s="2">
         <v>0.3</v>
@@ -2697,43 +2676,43 @@
         <v>34</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D4" s="7">
         <v>2000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D5" s="7">
         <v>0.0003</v>
@@ -2744,38 +2723,38 @@
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D6" s="7">
         <v>0.0003</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D7" s="7">
         <v>0.0003</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="D8" s="7">
         <v>0.001</v>
@@ -2788,42 +2767,33 @@
       <c r="A9" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="D9" s="2">
         <v>1100</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="D10" s="2">
         <v>1000</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="D11" s="7">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -2841,7 +2811,7 @@
   <sheetPr/>
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -2920,10 +2890,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>95</v>
@@ -2932,10 +2902,10 @@
         <v>73</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>184</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>185</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>29</v>
@@ -2950,22 +2920,22 @@
         <v>33</v>
       </c>
       <c r="M1" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>190</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>191</v>
       </c>
       <c r="S1" s="5" t="s">
         <v>18</v>
@@ -3015,10 +2985,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>95</v>
@@ -3027,7 +2997,7 @@
         <v>73</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>18</v>
@@ -3160,7 +3130,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -3182,46 +3152,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>194</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>195</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>73</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>203</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>204</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>18</v>
@@ -3331,12 +3301,12 @@
   <sheetPr/>
   <dimension ref="A1:AMK3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -3421,7 +3391,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O1" sqref="O1"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
@@ -3538,7 +3508,7 @@
       <c r="B3" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -3590,7 +3560,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -3663,7 +3633,7 @@
       <c r="F2" s="2">
         <v>0</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="2" t="s">
         <v>77</v>
       </c>
       <c r="H2" s="18"/>
@@ -3684,7 +3654,7 @@
       <c r="F3" s="2">
         <v>0</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="2" t="s">
         <v>77</v>
       </c>
       <c r="H3" s="18"/>
@@ -3705,7 +3675,7 @@
       <c r="F4" s="2">
         <v>0</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="2" t="s">
         <v>77</v>
       </c>
       <c r="H4" s="18"/>
@@ -3726,7 +3696,7 @@
       <c r="F5" s="2">
         <v>0</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="2" t="s">
         <v>77</v>
       </c>
       <c r="H5" s="18"/>
@@ -3747,7 +3717,7 @@
       <c r="F6" s="2">
         <v>0</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="2" t="s">
         <v>77</v>
       </c>
       <c r="H6" s="18"/>
@@ -3768,7 +3738,7 @@
       <c r="F7" s="2">
         <v>0</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="2" t="s">
         <v>77</v>
       </c>
     </row>
@@ -3978,7 +3948,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="6"/>

--- a/tests/multialgorithm/fixtures/test_new_features_model.xlsx
+++ b/tests/multialgorithm/fixtures/test_new_features_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14070" tabRatio="993" activeTab="3"/>
+    <workbookView windowWidth="20295" windowHeight="6840" tabRatio="993" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -157,7 +157,7 @@
     <t>Temperature units</t>
   </si>
   <si>
-    <t>C</t>
+    <t>degC</t>
   </si>
   <si>
     <t>pH</t>
@@ -681,12 +681,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="176" formatCode="0.000E+00"/>
+    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="0.000E+00"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -723,16 +723,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -751,8 +761,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -762,14 +800,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -789,22 +819,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -818,32 +833,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -856,8 +855,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -878,13 +878,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -896,19 +938,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -920,31 +956,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -956,13 +980,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -980,7 +1010,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -992,73 +1058,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1081,11 +1081,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1120,21 +1159,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1142,30 +1166,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1181,135 +1181,135 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1360,8 +1360,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3216,10 +3216,10 @@
   <sheetPr/>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D8" sqref="D8"/>
+      <selection pane="topRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>
@@ -3301,7 +3301,7 @@
   <sheetPr/>
   <dimension ref="A1:AMK3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>

--- a/tests/multialgorithm/fixtures/test_new_features_model.xlsx
+++ b/tests/multialgorithm/fixtures/test_new_features_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13965" tabRatio="993" firstSheet="6" activeTab="21"/>
+    <workbookView windowWidth="20295" windowHeight="6945" tabRatio="993" firstSheet="12" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="219">
   <si>
     <t>Id</t>
   </si>
@@ -633,6 +633,9 @@
     <t>Method</t>
   </si>
   <si>
+    <t>Authors</t>
+  </si>
+  <si>
     <t>Title</t>
   </si>
   <si>
@@ -699,6 +702,9 @@
     <t>Target</t>
   </si>
   <si>
+    <t>Target submodel</t>
+  </si>
+  <si>
     <t>Target type</t>
   </si>
   <si>
@@ -712,9 +718,6 @@
   </si>
   <si>
     <t>Intention type</t>
-  </si>
-  <si>
-    <t>Authors</t>
   </si>
   <si>
     <t>Date</t>
@@ -725,12 +728,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="177" formatCode="0.000E+00"/>
+    <numFmt numFmtId="176" formatCode="0.000E+00"/>
+    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -767,16 +770,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -789,14 +789,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -806,42 +798,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -870,8 +842,16 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -879,7 +859,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -892,8 +872,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -904,6 +900,13 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -928,7 +931,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -946,163 +1105,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1125,50 +1128,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1180,6 +1139,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1203,7 +1171,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1222,143 +1190,178 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1369,9 +1372,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1407,8 +1407,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1820,17 +1820,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="10.6" style="4"/>
-    <col min="2" max="2" width="14.8916666666667" style="4"/>
-    <col min="3" max="1025" width="10.6" style="4"/>
-    <col min="1026" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="10.6" style="1"/>
+    <col min="2" max="2" width="14.8916666666667" style="1"/>
+    <col min="3" max="1025" width="10.6" style="1"/>
+    <col min="1026" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1838,7 +1838,7 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1846,7 +1846,7 @@
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1854,7 +1854,7 @@
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1862,7 +1862,7 @@
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1870,7 +1870,7 @@
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1878,7 +1878,7 @@
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1886,7 +1886,7 @@
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="22" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1894,25 +1894,25 @@
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="23"/>
+      <c r="B9" s="22"/>
     </row>
     <row r="10" customHeight="1" spans="1:2">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="23"/>
+      <c r="B10" s="22"/>
     </row>
     <row r="11" customHeight="1" spans="1:2">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="23"/>
+      <c r="B11" s="22"/>
     </row>
     <row r="12" customHeight="1" spans="1:2">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="23"/>
+      <c r="B12" s="22"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1939,10 +1939,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="2" width="9.10833333333333" style="4"/>
-    <col min="3" max="3" width="11" style="4" customWidth="1"/>
-    <col min="4" max="1026" width="9.10833333333333" style="4"/>
-    <col min="1027" max="16384" width="9" style="4"/>
+    <col min="1" max="2" width="9.10833333333333" style="1"/>
+    <col min="3" max="3" width="11" style="1" customWidth="1"/>
+    <col min="4" max="1026" width="9.10833333333333" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
@@ -1975,24 +1975,24 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2021,20 +2021,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="17.8916666666667" style="15"/>
-    <col min="2" max="2" width="25.6" style="15"/>
-    <col min="3" max="3" width="14.8916666666667" style="15"/>
-    <col min="4" max="4" width="46.75" style="15" customWidth="1"/>
-    <col min="5" max="6" width="8.78333333333333" style="15"/>
-    <col min="7" max="8" width="8.78333333333333" style="16"/>
-    <col min="9" max="9" width="11.7833333333333" style="15"/>
-    <col min="10" max="10" width="11.0333333333333" style="15"/>
-    <col min="11" max="1023" width="8.78333333333333" style="15"/>
-    <col min="1024" max="1027" width="8.78333333333333" style="13"/>
-    <col min="1028" max="16384" width="9" style="13"/>
+    <col min="1" max="1" width="17.8916666666667" style="14"/>
+    <col min="2" max="2" width="25.6" style="14"/>
+    <col min="3" max="3" width="14.8916666666667" style="14"/>
+    <col min="4" max="4" width="46.75" style="14" customWidth="1"/>
+    <col min="5" max="6" width="8.78333333333333" style="14"/>
+    <col min="7" max="8" width="8.78333333333333" style="15"/>
+    <col min="9" max="9" width="11.7833333333333" style="14"/>
+    <col min="10" max="10" width="11.0333333333333" style="14"/>
+    <col min="11" max="1023" width="8.78333333333333" style="14"/>
+    <col min="1024" max="1027" width="8.78333333333333" style="12"/>
+    <col min="1028" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" s="14" customFormat="1" customHeight="1" spans="1:1026">
+    <row r="1" s="13" customFormat="1" customHeight="1" spans="1:1026">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2077,113 +2077,113 @@
       <c r="N1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AMJ1" s="13"/>
-      <c r="AMK1" s="13"/>
-      <c r="AML1" s="13"/>
+      <c r="AMJ1" s="12"/>
+      <c r="AMK1" s="12"/>
+      <c r="AML1" s="12"/>
     </row>
     <row r="2" customHeight="1" spans="1:10">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="15">
         <v>0</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="15">
         <v>0</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="15">
         <v>1</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="J2" s="18"/>
+      <c r="J2" s="17"/>
     </row>
     <row r="3" customHeight="1" spans="1:10">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="15">
         <v>0</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="15">
         <v>1</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="15">
         <v>2</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="J3" s="18"/>
+      <c r="J3" s="17"/>
     </row>
     <row r="4" customHeight="1" spans="1:10">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="15">
         <v>1</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
     </row>
     <row r="5" customHeight="1" spans="1:10">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="15">
         <v>0</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D5">
@@ -2210,13 +2210,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="17.75" style="4" customWidth="1"/>
-    <col min="2" max="2" width="10.6" style="4"/>
-    <col min="3" max="3" width="9.125" style="4" customWidth="1"/>
-    <col min="4" max="5" width="10.6" style="4"/>
-    <col min="6" max="6" width="41.375" style="4" customWidth="1"/>
-    <col min="7" max="1026" width="10.6" style="4"/>
-    <col min="1027" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="17.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6" style="1"/>
+    <col min="3" max="3" width="9.125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="10.6" style="1"/>
+    <col min="6" max="6" width="41.375" style="1" customWidth="1"/>
+    <col min="7" max="1026" width="10.6" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:12">
@@ -2258,117 +2258,117 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:11">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
     </row>
     <row r="3" customHeight="1" spans="1:11">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
     </row>
     <row r="4" customHeight="1" spans="1:11">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
     </row>
     <row r="5" customHeight="1" spans="1:13">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="M5" s="8"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="M5" s="7"/>
     </row>
     <row r="6" customHeight="1" spans="1:13">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="M6" s="8"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="M6" s="7"/>
     </row>
     <row r="7" customHeight="1" spans="8:11">
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2392,7 +2392,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="16384" width="9" style="4"/>
+    <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:12">
@@ -2434,22 +2434,22 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:7">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2474,10 +2474,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="2" width="9.10833333333333" style="4"/>
-    <col min="3" max="3" width="13.3916666666667" style="4"/>
-    <col min="4" max="1026" width="9.10833333333333" style="4"/>
-    <col min="1027" max="16384" width="9" style="4"/>
+    <col min="1" max="2" width="9.10833333333333" style="1"/>
+    <col min="3" max="3" width="13.3916666666667" style="1"/>
+    <col min="4" max="1026" width="9.10833333333333" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:10">
@@ -2513,22 +2513,22 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:9">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="10" t="s">
         <v>159</v>
       </c>
     </row>
@@ -2557,35 +2557,35 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="42" style="4" customWidth="1"/>
-    <col min="2" max="2" width="14.1416666666667" style="4"/>
-    <col min="3" max="3" width="9.10833333333333" style="4"/>
-    <col min="4" max="4" width="10" style="4" customWidth="1"/>
-    <col min="5" max="5" width="9.875" style="4"/>
-    <col min="6" max="1026" width="9.10833333333333" style="4"/>
-    <col min="1027" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="42" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1416666666667" style="1"/>
+    <col min="3" max="3" width="9.10833333333333" style="1"/>
+    <col min="4" max="4" width="10" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.875" style="1"/>
+    <col min="6" max="1026" width="9.10833333333333" style="1"/>
+    <col min="1027" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:11">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>15</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -2594,30 +2594,30 @@
       <c r="I1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:6">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="11">
         <v>-1</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2646,14 +2646,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="23.0333333333333" style="4"/>
-    <col min="2" max="2" width="33.125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="4"/>
-    <col min="4" max="4" width="9.25" style="4"/>
-    <col min="5" max="5" width="13.3916666666667" style="4"/>
-    <col min="6" max="6" width="14.375" style="4" customWidth="1"/>
-    <col min="7" max="1026" width="8.78333333333333" style="4"/>
-    <col min="1027" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="23.0333333333333" style="1"/>
+    <col min="2" max="2" width="33.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="1"/>
+    <col min="4" max="4" width="9.25" style="1"/>
+    <col min="5" max="5" width="13.3916666666667" style="1"/>
+    <col min="6" max="6" width="14.375" style="1" customWidth="1"/>
+    <col min="7" max="1026" width="8.78333333333333" style="1"/>
+    <col min="1027" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" customHeight="1" spans="1:11">
@@ -2692,136 +2692,136 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:10">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="1">
         <v>0.3</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="1" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="1" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>2000</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="1" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>0.0003</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="1" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>0.0003</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="1" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>0.0003</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="1" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>0.001</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="1">
         <v>1100</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="1" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="1">
         <v>1000</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="1" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>6.02214075862e+23</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="1" t="s">
         <v>179</v>
       </c>
     </row>
@@ -2850,8 +2850,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1026" width="9.10833333333333" style="4"/>
-    <col min="1027" max="16384" width="9" style="4"/>
+    <col min="1" max="1026" width="9.10833333333333" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
@@ -2908,74 +2908,74 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="9" style="4"/>
+    <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:22">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V1" s="5" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2988,90 +2988,93 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomRight" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="14.75" style="4" customWidth="1"/>
-    <col min="3" max="1022" width="9.10833333333333" style="4"/>
+    <col min="1" max="1" width="15.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="1" customWidth="1"/>
+    <col min="3" max="1022" width="9.10833333333333" style="1"/>
     <col min="1023" max="1023" width="9.10833333333333"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:11">
-      <c r="A1" s="6" t="s">
+    <row r="1" ht="15.1" customHeight="1" spans="1:12">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>24</v>
       </c>
+      <c r="L1" s="5" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="3:4">
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="3:4">
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="3:4">
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="3:4">
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="3:4">
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="3:4">
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="3:4">
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" ht="15.1" customHeight="1" spans="3:4">
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -3096,15 +3099,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1025" width="10.6" style="4"/>
-    <col min="1026" max="16384" width="9" style="4"/>
+    <col min="1" max="1025" width="10.6" style="1"/>
+    <col min="1026" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3112,7 +3115,7 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3120,7 +3123,7 @@
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3133,7 +3136,7 @@
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3164,13 +3167,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.35833333333333" style="4"/>
-    <col min="2" max="2" width="16.175" style="4"/>
-    <col min="3" max="3" width="15.8583333333333" style="4"/>
-    <col min="4" max="4" width="31.6" style="4"/>
-    <col min="5" max="1023" width="8.78333333333333" style="4"/>
-    <col min="1024" max="1025" width="8.78333333333333" style="5"/>
-    <col min="1026" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="8.35833333333333" style="1"/>
+    <col min="2" max="2" width="16.175" style="1"/>
+    <col min="3" max="3" width="15.8583333333333" style="1"/>
+    <col min="4" max="4" width="31.6" style="1"/>
+    <col min="5" max="1023" width="8.78333333333333" style="1"/>
+    <col min="1024" max="1025" width="8.78333333333333" style="4"/>
+    <col min="1026" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" customHeight="1" spans="1:1024">
@@ -3181,46 +3184,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>70</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>15</v>
@@ -3228,7 +3231,7 @@
       <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AMJ1" s="5"/>
+      <c r="AMJ1" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1">
@@ -3266,31 +3269,31 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>15</v>
@@ -3308,14 +3311,14 @@
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -3323,7 +3326,7 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:16">
+    <row r="1" customHeight="1" spans="1:17">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3334,43 +3337,46 @@
         <v>70</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>216</v>
-      </c>
       <c r="P1" s="2" t="s">
-        <v>217</v>
+        <v>189</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -3392,17 +3398,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="5.375" style="4" customWidth="1"/>
-    <col min="3" max="1015" width="8.78333333333333" style="4"/>
-    <col min="1016" max="16384" width="9" style="22"/>
+    <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.375" style="1" customWidth="1"/>
+    <col min="3" max="1015" width="8.78333333333333" style="1"/>
+    <col min="1016" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3415,7 +3421,7 @@
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="1">
         <v>37</v>
       </c>
     </row>
@@ -3423,7 +3429,7 @@
       <c r="A4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3431,7 +3437,7 @@
       <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="1">
         <v>7.75</v>
       </c>
     </row>
@@ -3439,7 +3445,7 @@
       <c r="A6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3479,15 +3485,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="10.3916666666667" style="4"/>
-    <col min="2" max="2" width="13.8166666666667" style="4"/>
-    <col min="3" max="3" width="16.175" style="4"/>
-    <col min="4" max="6" width="9.31666666666667" style="4"/>
-    <col min="7" max="7" width="9.425" style="4"/>
-    <col min="8" max="8" width="12.9583333333333" style="5"/>
-    <col min="9" max="1022" width="8.78333333333333" style="4"/>
-    <col min="1023" max="1026" width="8.78333333333333" style="5"/>
-    <col min="1027" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="10.3916666666667" style="1"/>
+    <col min="2" max="2" width="13.8166666666667" style="1"/>
+    <col min="3" max="3" width="16.175" style="1"/>
+    <col min="4" max="6" width="9.31666666666667" style="1"/>
+    <col min="7" max="7" width="9.425" style="1"/>
+    <col min="8" max="8" width="12.9583333333333" style="4"/>
+    <col min="9" max="1022" width="8.78333333333333" style="1"/>
+    <col min="1023" max="1026" width="8.78333333333333" style="4"/>
+    <col min="1027" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" ht="15" customHeight="1" spans="1:1025">
@@ -3515,30 +3521,30 @@
       <c r="H1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AMI1" s="5"/>
-      <c r="AMJ1" s="5"/>
-      <c r="AMK1" s="5"/>
+      <c r="AMI1" s="4"/>
+      <c r="AMJ1" s="4"/>
+      <c r="AMK1" s="4"/>
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:4">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="21"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3564,24 +3570,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="5.14166666666667" style="15"/>
-    <col min="2" max="3" width="17.5666666666667" style="15"/>
-    <col min="4" max="5" width="13.2833333333333" style="15"/>
-    <col min="6" max="7" width="8.375" style="15" customWidth="1"/>
-    <col min="8" max="8" width="10.8166666666667" style="15"/>
-    <col min="9" max="1029" width="8.78333333333333" style="15"/>
-    <col min="1030" max="1031" width="8.78333333333333" style="13"/>
-    <col min="1032" max="16384" width="9" style="13"/>
+    <col min="1" max="1" width="5.14166666666667" style="14"/>
+    <col min="2" max="3" width="17.5666666666667" style="14"/>
+    <col min="4" max="5" width="13.2833333333333" style="14"/>
+    <col min="6" max="7" width="8.375" style="14" customWidth="1"/>
+    <col min="8" max="8" width="10.8166666666667" style="14"/>
+    <col min="9" max="1029" width="8.78333333333333" style="14"/>
+    <col min="1030" max="1031" width="8.78333333333333" style="12"/>
+    <col min="1032" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" s="14" customFormat="1" customHeight="1" spans="1:1030">
-      <c r="A1" s="20" t="s">
+    <row r="1" s="13" customFormat="1" customHeight="1" spans="1:1030">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>41</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -3626,85 +3632,85 @@
       <c r="Q1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AMP1" s="13"/>
+      <c r="AMP1" s="12"/>
     </row>
     <row r="2" customHeight="1" spans="1:16">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="7">
         <v>4.58e-17</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="1">
         <v>4.58e-18</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="P2" s="15" t="s">
+      <c r="P2" s="14" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:16">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4" t="s">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="1">
         <v>1</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="1">
         <v>0</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="P3" s="15" t="s">
+      <c r="P3" s="14" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3733,17 +3739,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.78333333333333" style="4"/>
-    <col min="2" max="2" width="15" style="4"/>
-    <col min="3" max="3" width="11.4583333333333" style="4"/>
-    <col min="4" max="4" width="10.5" style="4"/>
-    <col min="5" max="5" width="10.2833333333333" style="4"/>
-    <col min="6" max="6" width="9.425" style="4"/>
-    <col min="7" max="8" width="18.8583333333333" style="4"/>
-    <col min="9" max="10" width="10.5" style="4"/>
-    <col min="11" max="1024" width="8.78333333333333" style="4"/>
-    <col min="1025" max="1026" width="8.78333333333333" style="5"/>
-    <col min="1027" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="8.78333333333333" style="1"/>
+    <col min="2" max="2" width="15" style="1"/>
+    <col min="3" max="3" width="11.4583333333333" style="1"/>
+    <col min="4" max="4" width="10.5" style="1"/>
+    <col min="5" max="5" width="10.2833333333333" style="1"/>
+    <col min="6" max="6" width="9.425" style="1"/>
+    <col min="7" max="8" width="18.8583333333333" style="1"/>
+    <col min="9" max="10" width="10.5" style="1"/>
+    <col min="11" max="1024" width="8.78333333333333" style="1"/>
+    <col min="1025" max="1026" width="8.78333333333333" style="4"/>
+    <col min="1027" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" customHeight="1" spans="1:1025">
@@ -3783,144 +3789,144 @@
       <c r="L1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AMK1" s="5"/>
+      <c r="AMK1" s="4"/>
     </row>
     <row r="2" customHeight="1" spans="1:8">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="1">
         <v>0</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H2" s="19"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" customHeight="1" spans="1:8">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="1">
         <v>2</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="1">
         <v>0</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H3" s="19"/>
+      <c r="H3" s="18"/>
     </row>
     <row r="4" customHeight="1" spans="1:8">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="1">
         <v>3</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="1">
         <v>0</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H4" s="19"/>
+      <c r="H4" s="18"/>
     </row>
     <row r="5" customHeight="1" spans="1:8">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="1">
         <v>4</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="1">
         <v>0</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H5" s="19"/>
+      <c r="H5" s="18"/>
     </row>
     <row r="6" customHeight="1" spans="1:8">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="1">
         <v>5</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="1">
         <v>0</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H6" s="19"/>
+      <c r="H6" s="18"/>
     </row>
     <row r="7" customHeight="1" spans="1:7">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="1">
         <v>6</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="1">
         <v>0</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="8:8">
-      <c r="H8" s="15"/>
+      <c r="H8" s="14"/>
     </row>
     <row r="9" customHeight="1" spans="8:8">
-      <c r="H9" s="15"/>
+      <c r="H9" s="14"/>
     </row>
     <row r="10" customHeight="1" spans="8:8">
-      <c r="H10" s="15"/>
+      <c r="H10" s="14"/>
     </row>
     <row r="11" customHeight="1" spans="8:8">
-      <c r="H11" s="17"/>
+      <c r="H11" s="16"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I7">
@@ -3947,9 +3953,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="6" width="15.5333333333333" style="4"/>
-    <col min="7" max="1026" width="9.10833333333333" style="4"/>
-    <col min="1027" max="16384" width="9" style="4"/>
+    <col min="1" max="6" width="15.5333333333333" style="1"/>
+    <col min="7" max="1026" width="9.10833333333333" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:10">
@@ -3985,114 +3991,114 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:5">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="1" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="1" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="1" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="1" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="1" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="1" t="s">
         <v>94</v>
       </c>
     </row>
@@ -4121,19 +4127,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="21" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.3166666666667" style="4"/>
-    <col min="3" max="3" width="10" style="4" customWidth="1"/>
-    <col min="4" max="4" width="9.31666666666667" style="4"/>
-    <col min="5" max="5" width="9.75" style="4"/>
-    <col min="6" max="6" width="10.5" style="4"/>
-    <col min="7" max="7" width="10.2833333333333" style="4"/>
-    <col min="8" max="8" width="9.425" style="4"/>
-    <col min="9" max="11" width="18.8583333333333" style="4"/>
-    <col min="12" max="13" width="10.5" style="4"/>
-    <col min="14" max="14" width="23.35" style="4"/>
-    <col min="15" max="1026" width="8.78333333333333" style="4"/>
-    <col min="1027" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="21" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.3166666666667" style="1"/>
+    <col min="3" max="3" width="10" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.31666666666667" style="1"/>
+    <col min="5" max="5" width="9.75" style="1"/>
+    <col min="6" max="6" width="10.5" style="1"/>
+    <col min="7" max="7" width="10.2833333333333" style="1"/>
+    <col min="8" max="8" width="9.425" style="1"/>
+    <col min="9" max="11" width="18.8583333333333" style="1"/>
+    <col min="12" max="13" width="10.5" style="1"/>
+    <col min="14" max="14" width="23.35" style="1"/>
+    <col min="15" max="1026" width="8.78333333333333" style="1"/>
+    <col min="1027" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:12">
@@ -4175,104 +4181,104 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:7">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="18">
         <v>0.000148</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="18" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="18">
         <v>0.0002</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="18" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="18">
         <v>0.0005</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="18" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="18">
         <v>0.0005</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="18" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="18">
         <v>0.001</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="18" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="18">
         <v>0.002</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="18" t="s">
         <v>107</v>
       </c>
     </row>
@@ -4298,24 +4304,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1026" width="9.10833333333333" style="4"/>
-    <col min="1027" max="16384" width="9" style="4"/>
+    <col min="1" max="1026" width="9.10833333333333" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -4324,7 +4330,7 @@
       <c r="G1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>16</v>
       </c>
       <c r="I1" s="2" t="s">

--- a/tests/multialgorithm/fixtures/test_new_features_model.xlsx
+++ b/tests/multialgorithm/fixtures/test_new_features_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13965" tabRatio="993" firstSheet="7" activeTab="18"/>
+    <workbookView windowWidth="20295" windowHeight="6945" tabRatio="993" firstSheet="13" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Table of contents" sheetId="24" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="235">
   <si>
     <t>Table</t>
   </si>
@@ -188,7 +188,7 @@
     <t>s</t>
   </si>
   <si>
-    <t>Database references</t>
+    <t>Identifiers</t>
   </si>
   <si>
     <t>Comments</t>
@@ -749,9 +749,6 @@
     <t>Address</t>
   </si>
   <si>
-    <t>ORCID</t>
-  </si>
-  <si>
     <t>Target</t>
   </si>
   <si>
@@ -781,12 +778,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.000E+00"/>
-    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="177" formatCode="0.000E+00"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -835,17 +832,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -856,10 +852,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -878,9 +874,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -893,7 +897,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -917,7 +929,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -930,47 +965,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -997,61 +994,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1069,7 +1030,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1081,43 +1138,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1129,13 +1150,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1147,7 +1162,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1159,25 +1174,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1200,21 +1197,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1226,6 +1208,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1247,8 +1247,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1269,22 +1271,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1300,52 +1297,25 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1354,82 +1324,109 @@
     <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1488,8 +1485,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3218,12 +3215,12 @@
   <sheetPr/>
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1:V2"/>
+      <selection pane="bottomRight" activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
@@ -3635,14 +3632,14 @@
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -3650,7 +3647,7 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:13">
+    <row r="1" customHeight="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -3682,12 +3679,9 @@
         <v>226</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>227</v>
+        <v>40</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3726,25 +3720,25 @@
         <v>93</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>234</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>40</v>
@@ -3765,7 +3759,7 @@
         <v>23</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/tests/multialgorithm/fixtures/test_new_features_model.xlsx
+++ b/tests/multialgorithm/fixtures/test_new_features_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="20295" windowHeight="6945" tabRatio="993" firstSheet="13" activeTab="21"/>
+    <workbookView windowWidth="20295" windowHeight="6840" tabRatio="993" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Table of contents" sheetId="24" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="239">
   <si>
     <t>Table</t>
   </si>
@@ -227,15 +227,6 @@
     <t>degC</t>
   </si>
   <si>
-    <t>pH</t>
-  </si>
-  <si>
-    <t>pH units</t>
-  </si>
-  <si>
-    <t>dimensionless</t>
-  </si>
-  <si>
     <t>Framework</t>
   </si>
   <si>
@@ -260,6 +251,9 @@
     <t>Initial volume</t>
   </si>
   <si>
+    <t>pH</t>
+  </si>
+  <si>
     <t>Biological type</t>
   </si>
   <si>
@@ -275,19 +269,22 @@
     <t>Mass units</t>
   </si>
   <si>
-    <t>Distribution</t>
+    <t>Volume distribution</t>
   </si>
   <si>
-    <t>Mean</t>
+    <t>Volume mean</t>
   </si>
   <si>
-    <t>Standard deviation</t>
+    <t>Volume standard deviation</t>
   </si>
   <si>
-    <t>Units</t>
+    <t>Volume units</t>
   </si>
   <si>
     <t>Initial density</t>
+  </si>
+  <si>
+    <t>pH units</t>
   </si>
   <si>
     <t>c</t>
@@ -318,6 +315,9 @@
   </si>
   <si>
     <t>density_c</t>
+  </si>
+  <si>
+    <t>dimensionless</t>
   </si>
   <si>
     <t>Average volume of Mycoplasma pneumoniae is 66 aL [Ref-0001]. This equates to 45.8 aL at the beginning of the cell cycle (66 aL * ln(2)).</t>
@@ -413,6 +413,9 @@
     <t>Compartment</t>
   </si>
   <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>specie_1[e]</t>
   </si>
   <si>
@@ -438,6 +441,15 @@
   </si>
   <si>
     <t>specie_3[c]</t>
+  </si>
+  <si>
+    <t>Distribution</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Standard deviation</t>
   </si>
   <si>
     <t>dist-init-conc-specie_1[e]</t>
@@ -778,12 +790,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="0.000E+00"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="177" formatCode="0.000E+00"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -832,20 +844,47 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -866,8 +905,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -881,23 +933,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -912,22 +949,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -935,17 +956,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -958,16 +970,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -994,13 +1006,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1012,25 +1090,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1042,139 +1186,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1198,6 +1210,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1214,18 +1250,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1247,41 +1291,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1297,136 +1309,136 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2180,10 +2192,10 @@
         <v>27</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>40</v>
@@ -2240,10 +2252,10 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>40</v>
@@ -2263,24 +2275,24 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2329,7 +2341,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="19" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H1" s="19"/>
       <c r="I1" s="19"/>
@@ -2347,25 +2359,25 @@
         <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>40</v>
@@ -2388,22 +2400,22 @@
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="16" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E3" s="17">
         <v>0</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G3" s="17">
         <v>0</v>
@@ -2412,28 +2424,28 @@
         <v>1</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="J3" s="20"/>
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="16" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E4" s="17">
         <v>0</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G4" s="17">
         <v>1</v>
@@ -2442,50 +2454,50 @@
         <v>2</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="J4" s="20"/>
     </row>
     <row r="5" customHeight="1" spans="1:10">
       <c r="A5" s="16" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E5" s="17">
         <v>1</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
     </row>
     <row r="6" customHeight="1" spans="1:10">
       <c r="A6" s="16" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E6" s="17">
         <v>0</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
@@ -2535,19 +2547,19 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>93</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>40</v>
@@ -2567,19 +2579,19 @@
     </row>
     <row r="2" customHeight="1" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
@@ -2588,19 +2600,19 @@
     </row>
     <row r="3" customHeight="1" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
@@ -2609,19 +2621,19 @@
     </row>
     <row r="4" customHeight="1" spans="1:11">
       <c r="A4" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
@@ -2630,19 +2642,19 @@
     </row>
     <row r="5" customHeight="1" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
@@ -2652,19 +2664,19 @@
     </row>
     <row r="6" customHeight="1" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
@@ -2705,7 +2717,7 @@
   <sheetData>
     <row r="1" customHeight="1" spans="4:5">
       <c r="D1" s="13" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E1" s="13"/>
     </row>
@@ -2717,19 +2729,19 @@
         <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>40</v>
@@ -2749,19 +2761,19 @@
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>39</v>
@@ -2805,13 +2817,13 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>40</v>
@@ -2831,22 +2843,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="11" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -2891,16 +2903,16 @@
         <v>27</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>40</v>
@@ -2920,22 +2932,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:6">
       <c r="A2" s="11" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E2" s="12">
         <v>-1</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2984,13 +2996,13 @@
         <v>93</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>40</v>
@@ -3010,114 +3022,114 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D2" s="1">
         <v>0.3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D4" s="8">
         <v>2000</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D5" s="8">
         <v>0.0003</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="D6" s="8">
         <v>0.0003</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D7" s="8">
         <v>0.0003</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D8" s="8">
         <v>0.001</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D9" s="1">
         <v>1100</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
@@ -3128,18 +3140,18 @@
         <v>1000</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D11" s="8">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -3179,10 +3191,10 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>40</v>
@@ -3230,7 +3242,7 @@
   <sheetData>
     <row r="1" customHeight="1" spans="7:14">
       <c r="G1" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H1" s="7"/>
       <c r="I1" s="7" t="s">
@@ -3250,13 +3262,13 @@
         <v>27</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>93</v>
@@ -3265,7 +3277,7 @@
         <v>4</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>50</v>
@@ -3274,28 +3286,28 @@
         <v>51</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="S2" s="5" t="s">
         <v>40</v>
@@ -3466,19 +3478,19 @@
         <v>27</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>93</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>40</v>
@@ -3570,46 +3582,46 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>93</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>40</v>
@@ -3634,7 +3646,7 @@
   <sheetPr/>
   <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -3655,28 +3667,28 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>40</v>
@@ -3720,25 +3732,25 @@
         <v>93</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>40</v>
@@ -3759,7 +3771,7 @@
         <v>23</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -3837,15 +3849,15 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B5" sqref="B5"/>
+      <selection pane="topRight" activeCell="B5" sqref="$A5:$XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.375" style="1" customWidth="1"/>
@@ -3882,34 +3894,18 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:2">
+    <row r="5" customHeight="1" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="1">
-        <v>7.75</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:2">
+    <row r="6" customHeight="1" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:1">
-      <c r="A8" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:1">
-      <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3953,7 +3949,7 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>40</v>
@@ -3976,25 +3972,25 @@
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D2" s="23"/>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -4009,12 +4005,12 @@
   <sheetPr/>
   <dimension ref="A1:XFD4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="$A1:$XFD2"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="3"/>
@@ -4024,9 +4020,9 @@
     <col min="4" max="5" width="13.2833333333333" style="16"/>
     <col min="6" max="7" width="8.375" style="16" customWidth="1"/>
     <col min="8" max="8" width="10.8166666666667" style="16"/>
-    <col min="9" max="1029" width="8.78333333333333" style="16"/>
-    <col min="1030" max="1031" width="8.78333333333333" style="14"/>
-    <col min="1032" max="16384" width="9" style="14"/>
+    <col min="9" max="1031" width="8.78333333333333" style="16"/>
+    <col min="1032" max="1033" width="8.78333333333333" style="14"/>
+    <col min="1034" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:16384">
@@ -4038,14 +4034,16 @@
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
       <c r="H1" s="13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I1" s="13"/>
       <c r="J1" s="13"/>
       <c r="K1" s="13"/>
       <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
+      <c r="M1" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="N1" s="13"/>
       <c r="O1" s="15"/>
       <c r="P1" s="15"/>
       <c r="Q1" s="15"/>
@@ -5060,8 +5058,8 @@
       <c r="AML1" s="15"/>
       <c r="AMM1" s="15"/>
       <c r="AMN1" s="15"/>
-      <c r="AMO1"/>
-      <c r="AMP1"/>
+      <c r="AMO1" s="15"/>
+      <c r="AMP1" s="15"/>
       <c r="AMQ1"/>
       <c r="AMR1"/>
       <c r="AMS1"/>
@@ -20425,52 +20423,56 @@
         <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="M2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="M2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AMO2"/>
-      <c r="AMP2"/>
       <c r="AMQ2"/>
       <c r="AMR2"/>
       <c r="AMS2"/>
@@ -35826,30 +35828,30 @@
       <c r="XFC2"/>
       <c r="XFD2"/>
     </row>
-    <row r="3" customHeight="1" spans="1:16">
+    <row r="3" customHeight="1" spans="1:18">
       <c r="A3" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="C3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="I3" s="8">
         <v>4.58e-17</v>
@@ -35858,18 +35860,24 @@
         <v>4.58e-18</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1">
+        <v>7.75</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="P3" s="16" t="s">
+      <c r="R3" s="16" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:16">
+    <row r="4" customHeight="1" spans="1:18">
       <c r="A4" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>85</v>
@@ -35878,17 +35886,17 @@
         <v>86</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
@@ -35897,12 +35905,18 @@
         <v>0</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="P4" s="16" t="s">
+      <c r="M4" s="1">
+        <v>7.75</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R4" s="16" t="s">
         <v>88</v>
       </c>
     </row>
@@ -35910,8 +35924,9 @@
   <autoFilter ref="A2:G4">
     <extLst/>
   </autoFilter>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="H1:K1"/>
+    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -36167,7 +36182,7 @@
         <v>114</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>40</v>
@@ -36187,114 +36202,114 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>104</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>107</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>110</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>101</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -36348,16 +36363,16 @@
         <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>70</v>
+        <v>126</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>40</v>
@@ -36377,104 +36392,104 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E2" s="21">
         <v>0.000148</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E3" s="21">
         <v>0.0002</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E4" s="21">
         <v>0.0005</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E5" s="21">
         <v>0.0005</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E6" s="21">
         <v>0.001</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E7" s="21">
         <v>0.002</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/tests/multialgorithm/fixtures/test_new_features_model.xlsx
+++ b/tests/multialgorithm/fixtures/test_new_features_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="20295" windowHeight="6840" tabRatio="993" activeTab="5"/>
+    <workbookView windowWidth="28695" windowHeight="14070" tabRatio="993" firstSheet="9" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="Table of contents" sheetId="24" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="235">
   <si>
     <t>Table</t>
   </si>
@@ -269,22 +269,22 @@
     <t>Mass units</t>
   </si>
   <si>
-    <t>Volume distribution</t>
+    <t>Distribution</t>
   </si>
   <si>
-    <t>Volume mean</t>
+    <t>Mean</t>
   </si>
   <si>
-    <t>Volume standard deviation</t>
+    <t>Standard deviation</t>
   </si>
   <si>
-    <t>Volume units</t>
+    <t>Units</t>
   </si>
   <si>
     <t>Initial density</t>
   </si>
   <si>
-    <t>pH units</t>
+    <t>Value</t>
   </si>
   <si>
     <t>c</t>
@@ -413,9 +413,6 @@
     <t>Compartment</t>
   </si>
   <si>
-    <t>Units</t>
-  </si>
-  <si>
     <t>specie_1[e]</t>
   </si>
   <si>
@@ -441,15 +438,6 @@
   </si>
   <si>
     <t>specie_3[c]</t>
-  </si>
-  <si>
-    <t>Distribution</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>Standard deviation</t>
   </si>
   <si>
     <t>dist-init-conc-specie_1[e]</t>
@@ -593,9 +581,6 @@
     <t>k_cat_4_for * specie_2[c]</t>
   </si>
   <si>
-    <t>Value</t>
-  </si>
-  <si>
     <t>Reaction rate units</t>
   </si>
   <si>
@@ -677,7 +662,16 @@
     <t>Genotype</t>
   </si>
   <si>
+    <t>Measurement method</t>
+  </si>
+  <si>
+    <t>Analysis method</t>
+  </si>
+  <si>
     <t>Variant</t>
+  </si>
+  <si>
+    <t>pH units</t>
   </si>
   <si>
     <t>Growth media</t>
@@ -690,12 +684,6 @@
   </si>
   <si>
     <t>Experiment design</t>
-  </si>
-  <si>
-    <t>Measurement method</t>
-  </si>
-  <si>
-    <t>Analysis method</t>
   </si>
   <si>
     <t>Method</t>
@@ -791,10 +779,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="177" formatCode="0.000E+00"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="0.000E+00"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="26">
@@ -853,38 +841,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -895,6 +861,14 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -910,8 +884,15 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -919,14 +900,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -940,31 +936,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -979,7 +952,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1006,7 +994,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1018,169 +1168,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1209,16 +1197,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1228,6 +1225,32 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1250,199 +1273,164 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1461,6 +1449,9 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1918,216 +1909,216 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" zeroHeight="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="3" width="15.7083333333333" style="26" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="26" hidden="1" customWidth="1"/>
+    <col min="1" max="3" width="15.7083333333333" style="27" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="27" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28">
+      <c r="B4" s="29"/>
+      <c r="C4" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28">
+      <c r="B5" s="29"/>
+      <c r="C5" s="29">
         <v>4</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28">
+      <c r="B6" s="29"/>
+      <c r="C6" s="29">
         <v>2</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28">
+      <c r="B7" s="29"/>
+      <c r="C7" s="29">
         <v>143</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:3">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28">
+      <c r="B8" s="29"/>
+      <c r="C8" s="29">
         <v>175</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:3">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28">
+      <c r="B9" s="29"/>
+      <c r="C9" s="29">
         <v>125</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:3">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28">
+      <c r="B10" s="29"/>
+      <c r="C10" s="29">
         <v>4</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:3">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28">
+      <c r="B11" s="29"/>
+      <c r="C11" s="29">
         <v>5</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:3">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28">
+      <c r="B12" s="29"/>
+      <c r="C12" s="29">
         <v>175</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28">
+      <c r="B13" s="29"/>
+      <c r="C13" s="29">
         <v>167</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:3">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28">
+      <c r="B14" s="29"/>
+      <c r="C14" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28">
+      <c r="B15" s="29"/>
+      <c r="C15" s="29">
         <v>2</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:3">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28">
+      <c r="B16" s="29"/>
+      <c r="C16" s="29">
         <v>35</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:3">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28">
+      <c r="B17" s="29"/>
+      <c r="C17" s="29">
         <v>95</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:3">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28">
+      <c r="B18" s="29"/>
+      <c r="C18" s="29">
         <v>2</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:3">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28">
+      <c r="B19" s="29"/>
+      <c r="C19" s="29">
         <v>8</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:3">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28">
+      <c r="B20" s="29"/>
+      <c r="C20" s="29">
         <v>2</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:3">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28">
+      <c r="B21" s="29"/>
+      <c r="C21" s="29">
         <v>21</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:3">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28">
+      <c r="B22" s="29"/>
+      <c r="C22" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:3">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28">
+      <c r="B23" s="29"/>
+      <c r="C23" s="29">
         <v>0</v>
       </c>
     </row>
@@ -2192,10 +2183,10 @@
         <v>27</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>40</v>
@@ -2252,10 +2243,10 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>40</v>
@@ -2275,10 +2266,10 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>81</v>
@@ -2286,10 +2277,10 @@
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>81</v>
@@ -2320,38 +2311,38 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="17.8916666666667" style="16"/>
-    <col min="2" max="2" width="25.6" style="16"/>
-    <col min="3" max="3" width="14.8916666666667" style="16"/>
-    <col min="4" max="4" width="46.75" style="16" customWidth="1"/>
-    <col min="5" max="6" width="8.78333333333333" style="16"/>
-    <col min="7" max="8" width="8.78333333333333" style="17"/>
-    <col min="9" max="9" width="11.7833333333333" style="16"/>
-    <col min="10" max="10" width="11.0333333333333" style="16"/>
-    <col min="11" max="1023" width="8.78333333333333" style="16"/>
-    <col min="1024" max="1027" width="8.78333333333333" style="14"/>
-    <col min="1028" max="16384" width="9" style="14"/>
+    <col min="1" max="1" width="17.8916666666667" style="17"/>
+    <col min="2" max="2" width="25.6" style="17"/>
+    <col min="3" max="3" width="14.8916666666667" style="17"/>
+    <col min="4" max="4" width="46.75" style="17" customWidth="1"/>
+    <col min="5" max="6" width="8.78333333333333" style="17"/>
+    <col min="7" max="8" width="8.78333333333333" style="18"/>
+    <col min="9" max="9" width="11.7833333333333" style="17"/>
+    <col min="10" max="10" width="11.0333333333333" style="17"/>
+    <col min="11" max="1023" width="8.78333333333333" style="17"/>
+    <col min="1024" max="1027" width="8.78333333333333" style="15"/>
+    <col min="1028" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:14">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
+      <c r="A1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
     </row>
-    <row r="2" s="15" customFormat="1" customHeight="1" spans="1:1026">
+    <row r="2" s="16" customFormat="1" customHeight="1" spans="1:1026">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -2359,25 +2350,25 @@
         <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>40</v>
@@ -2394,113 +2385,113 @@
       <c r="N2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AMJ2" s="14"/>
-      <c r="AMK2" s="14"/>
-      <c r="AML2" s="14"/>
+      <c r="AMJ2" s="15"/>
+      <c r="AMK2" s="15"/>
+      <c r="AML2" s="15"/>
     </row>
     <row r="3" customHeight="1" spans="1:10">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E3" s="18">
+        <v>0</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="G3" s="18">
+        <v>0</v>
+      </c>
+      <c r="H3" s="18">
+        <v>1</v>
+      </c>
+      <c r="I3" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="E3" s="17">
-        <v>0</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="G3" s="17">
-        <v>0</v>
-      </c>
-      <c r="H3" s="17">
-        <v>1</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="J3" s="20"/>
+      <c r="J3" s="21"/>
     </row>
     <row r="4" customHeight="1" spans="1:10">
-      <c r="A4" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="C4" s="16" t="s">
+      <c r="A4" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="E4" s="17">
+      <c r="D4" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="E4" s="18">
         <v>0</v>
       </c>
-      <c r="F4" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="G4" s="17">
+      <c r="F4" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="G4" s="18">
         <v>1</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="18">
         <v>2</v>
       </c>
-      <c r="I4" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="J4" s="20"/>
+      <c r="I4" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J4" s="21"/>
     </row>
     <row r="5" customHeight="1" spans="1:10">
-      <c r="A5" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="16" t="s">
+      <c r="A5" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="E5" s="17">
+      <c r="D5" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5" s="18">
         <v>1</v>
       </c>
-      <c r="F5" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
+      <c r="F5" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
     </row>
     <row r="6" customHeight="1" spans="1:10">
-      <c r="A6" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="C6" s="16" t="s">
+      <c r="A6" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="E6" s="17">
+      <c r="D6" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="E6" s="18">
         <v>0</v>
       </c>
-      <c r="F6" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
+      <c r="F6" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:D6">
@@ -2547,19 +2538,19 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>93</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>40</v>
@@ -2579,116 +2570,116 @@
     </row>
     <row r="2" customHeight="1" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
+        <v>146</v>
+      </c>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
     </row>
     <row r="3" customHeight="1" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
+        <v>146</v>
+      </c>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
     </row>
     <row r="4" customHeight="1" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
+        <v>146</v>
+      </c>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
     </row>
     <row r="5" customHeight="1" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="M5" s="8"/>
+        <v>146</v>
+      </c>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="M5" s="9"/>
     </row>
     <row r="6" customHeight="1" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="M6" s="8"/>
+        <v>146</v>
+      </c>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="M6" s="9"/>
     </row>
     <row r="7" customHeight="1" spans="8:11">
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2716,10 +2707,10 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="4:5">
-      <c r="D1" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="E1" s="13"/>
+      <c r="D1" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" customHeight="1" spans="1:12">
       <c r="A2" s="2" t="s">
@@ -2729,19 +2720,19 @@
         <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>175</v>
+        <v>72</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>40</v>
@@ -2761,19 +2752,19 @@
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>179</v>
+      <c r="D3" s="12" t="s">
+        <v>174</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>39</v>
@@ -2817,13 +2808,13 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>40</v>
@@ -2842,23 +2833,23 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:9">
-      <c r="A2" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>181</v>
+      <c r="A2" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>176</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E2" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="I2" s="11" t="s">
-        <v>182</v>
+      <c r="I2" s="12" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -2892,29 +2883,29 @@
     <col min="4" max="4" width="10" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.875" style="1"/>
     <col min="6" max="1026" width="9.10833333333333" style="1"/>
-    <col min="1027" max="16384" width="9" style="9"/>
+    <col min="1027" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:11">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="D1" s="10" t="s">
+      <c r="C1" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="G1" s="10" t="s">
+      <c r="E1" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>40</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -2923,31 +2914,31 @@
       <c r="I1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:6">
-      <c r="A2" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>179</v>
       </c>
+      <c r="B2" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>174</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E2" s="12">
+        <v>118</v>
+      </c>
+      <c r="E2" s="13">
         <v>-1</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>151</v>
+      <c r="F2" s="12" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -2996,13 +2987,13 @@
         <v>93</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>175</v>
+        <v>72</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>40</v>
@@ -3022,10 +3013,10 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D2" s="1">
         <v>0.3</v>
@@ -3034,91 +3025,91 @@
         <v>83</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D4" s="8">
+        <v>186</v>
+      </c>
+      <c r="D4" s="9">
         <v>2000</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D5" s="8">
+        <v>186</v>
+      </c>
+      <c r="D5" s="9">
         <v>0.0003</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D6" s="8">
+        <v>186</v>
+      </c>
+      <c r="D6" s="9">
         <v>0.0003</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D7" s="8">
+        <v>186</v>
+      </c>
+      <c r="D7" s="9">
         <v>0.0003</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D8" s="8">
+        <v>193</v>
+      </c>
+      <c r="D8" s="9">
         <v>0.001</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
@@ -3129,7 +3120,7 @@
         <v>1100</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
@@ -3140,18 +3131,18 @@
         <v>1000</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D11" s="8">
+        <v>195</v>
+      </c>
+      <c r="D11" s="9">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -3191,10 +3182,10 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>40</v>
@@ -3225,14 +3216,14 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P16" sqref="P16"/>
+      <selection pane="bottomRight" activeCell="Q1" sqref="Q1:T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
@@ -3240,21 +3231,29 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="7:14">
-      <c r="G1" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7" t="s">
+    <row r="1" customHeight="1" spans="7:20">
+      <c r="G1" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="Q1" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="T1" s="7"/>
     </row>
-    <row r="2" customHeight="1" spans="1:22">
+    <row r="2" customHeight="1" spans="1:24">
       <c r="A2" s="5" t="s">
         <v>25</v>
       </c>
@@ -3262,13 +3261,13 @@
         <v>27</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>175</v>
+        <v>72</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>93</v>
@@ -3277,7 +3276,7 @@
         <v>4</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>50</v>
@@ -3289,43 +3288,51 @@
         <v>61</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>72</v>
+        <v>201</v>
       </c>
       <c r="M2" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="O2" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="O2" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>207</v>
-      </c>
       <c r="Q2" s="5" t="s">
-        <v>208</v>
+        <v>27</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>209</v>
+        <v>29</v>
       </c>
       <c r="S2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="U2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="V2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="W2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="X2" s="5" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:N1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3411,7 +3418,7 @@
       <c r="A8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="26" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3419,25 +3426,25 @@
       <c r="A9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="25"/>
+      <c r="B9" s="26"/>
     </row>
     <row r="10" customHeight="1" spans="1:2">
       <c r="A10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="25"/>
+      <c r="B10" s="26"/>
     </row>
     <row r="11" customHeight="1" spans="1:2">
       <c r="A11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="25"/>
+      <c r="B11" s="26"/>
     </row>
     <row r="12" customHeight="1" spans="1:2">
       <c r="A12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="25"/>
+      <c r="B12" s="26"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3452,65 +3459,70 @@
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L1" sqref="L1"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.75" style="1" customWidth="1"/>
-    <col min="3" max="1022" width="9.10833333333333" style="1"/>
-    <col min="1023" max="1023" width="9.10833333333333"/>
+    <col min="3" max="1023" width="9.10833333333333" style="1"/>
+    <col min="1024" max="1024" width="9.10833333333333"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:12">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="7:8">
+      <c r="G1" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" ht="15.1" customHeight="1" spans="1:13">
+      <c r="A2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="C2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="G2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" ht="15.1" customHeight="1" spans="3:4">
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="3:4">
       <c r="C3" s="6"/>
@@ -3540,7 +3552,14 @@
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
     </row>
+    <row r="10" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
@@ -3582,46 +3601,46 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>93</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>223</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>40</v>
@@ -3667,28 +3686,28 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>230</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>40</v>
@@ -3732,25 +3751,25 @@
         <v>93</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>237</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>40</v>
@@ -3771,7 +3790,7 @@
         <v>23</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -3862,7 +3881,7 @@
     <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.375" style="1" customWidth="1"/>
     <col min="3" max="1015" width="8.78333333333333" style="1"/>
-    <col min="1016" max="16384" width="9" style="24"/>
+    <col min="1016" max="16384" width="9" style="25"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
@@ -3980,7 +3999,7 @@
       <c r="C2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="23"/>
+      <c r="D2" s="24"/>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:3">
       <c r="A3" s="1" t="s">
@@ -4005,1061 +4024,1061 @@
   <sheetPr/>
   <dimension ref="A1:XFD4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="$A2:$XFD2"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="$A1:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="5.14166666666667" style="16"/>
-    <col min="2" max="3" width="17.5666666666667" style="16"/>
-    <col min="4" max="5" width="13.2833333333333" style="16"/>
-    <col min="6" max="7" width="8.375" style="16" customWidth="1"/>
-    <col min="8" max="8" width="10.8166666666667" style="16"/>
-    <col min="9" max="1031" width="8.78333333333333" style="16"/>
-    <col min="1032" max="1033" width="8.78333333333333" style="14"/>
-    <col min="1034" max="16384" width="9" style="14"/>
+    <col min="1" max="1" width="5.14166666666667" style="17"/>
+    <col min="2" max="3" width="17.5666666666667" style="17"/>
+    <col min="4" max="5" width="13.2833333333333" style="17"/>
+    <col min="6" max="7" width="8.375" style="17" customWidth="1"/>
+    <col min="8" max="8" width="10.8166666666667" style="17"/>
+    <col min="9" max="1031" width="8.78333333333333" style="17"/>
+    <col min="1032" max="1033" width="8.78333333333333" style="15"/>
+    <col min="1034" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:16384">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="13" t="s">
+      <c r="A1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="13" t="s">
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="N1" s="13"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="15"/>
-      <c r="AD1" s="15"/>
-      <c r="AE1" s="15"/>
-      <c r="AF1" s="15"/>
-      <c r="AG1" s="15"/>
-      <c r="AH1" s="15"/>
-      <c r="AI1" s="15"/>
-      <c r="AJ1" s="15"/>
-      <c r="AK1" s="15"/>
-      <c r="AL1" s="15"/>
-      <c r="AM1" s="15"/>
-      <c r="AN1" s="15"/>
-      <c r="AO1" s="15"/>
-      <c r="AP1" s="15"/>
-      <c r="AQ1" s="15"/>
-      <c r="AR1" s="15"/>
-      <c r="AS1" s="15"/>
-      <c r="AT1" s="15"/>
-      <c r="AU1" s="15"/>
-      <c r="AV1" s="15"/>
-      <c r="AW1" s="15"/>
-      <c r="AX1" s="15"/>
-      <c r="AY1" s="15"/>
-      <c r="AZ1" s="15"/>
-      <c r="BA1" s="15"/>
-      <c r="BB1" s="15"/>
-      <c r="BC1" s="15"/>
-      <c r="BD1" s="15"/>
-      <c r="BE1" s="15"/>
-      <c r="BF1" s="15"/>
-      <c r="BG1" s="15"/>
-      <c r="BH1" s="15"/>
-      <c r="BI1" s="15"/>
-      <c r="BJ1" s="15"/>
-      <c r="BK1" s="15"/>
-      <c r="BL1" s="15"/>
-      <c r="BM1" s="15"/>
-      <c r="BN1" s="15"/>
-      <c r="BO1" s="15"/>
-      <c r="BP1" s="15"/>
-      <c r="BQ1" s="15"/>
-      <c r="BR1" s="15"/>
-      <c r="BS1" s="15"/>
-      <c r="BT1" s="15"/>
-      <c r="BU1" s="15"/>
-      <c r="BV1" s="15"/>
-      <c r="BW1" s="15"/>
-      <c r="BX1" s="15"/>
-      <c r="BY1" s="15"/>
-      <c r="BZ1" s="15"/>
-      <c r="CA1" s="15"/>
-      <c r="CB1" s="15"/>
-      <c r="CC1" s="15"/>
-      <c r="CD1" s="15"/>
-      <c r="CE1" s="15"/>
-      <c r="CF1" s="15"/>
-      <c r="CG1" s="15"/>
-      <c r="CH1" s="15"/>
-      <c r="CI1" s="15"/>
-      <c r="CJ1" s="15"/>
-      <c r="CK1" s="15"/>
-      <c r="CL1" s="15"/>
-      <c r="CM1" s="15"/>
-      <c r="CN1" s="15"/>
-      <c r="CO1" s="15"/>
-      <c r="CP1" s="15"/>
-      <c r="CQ1" s="15"/>
-      <c r="CR1" s="15"/>
-      <c r="CS1" s="15"/>
-      <c r="CT1" s="15"/>
-      <c r="CU1" s="15"/>
-      <c r="CV1" s="15"/>
-      <c r="CW1" s="15"/>
-      <c r="CX1" s="15"/>
-      <c r="CY1" s="15"/>
-      <c r="CZ1" s="15"/>
-      <c r="DA1" s="15"/>
-      <c r="DB1" s="15"/>
-      <c r="DC1" s="15"/>
-      <c r="DD1" s="15"/>
-      <c r="DE1" s="15"/>
-      <c r="DF1" s="15"/>
-      <c r="DG1" s="15"/>
-      <c r="DH1" s="15"/>
-      <c r="DI1" s="15"/>
-      <c r="DJ1" s="15"/>
-      <c r="DK1" s="15"/>
-      <c r="DL1" s="15"/>
-      <c r="DM1" s="15"/>
-      <c r="DN1" s="15"/>
-      <c r="DO1" s="15"/>
-      <c r="DP1" s="15"/>
-      <c r="DQ1" s="15"/>
-      <c r="DR1" s="15"/>
-      <c r="DS1" s="15"/>
-      <c r="DT1" s="15"/>
-      <c r="DU1" s="15"/>
-      <c r="DV1" s="15"/>
-      <c r="DW1" s="15"/>
-      <c r="DX1" s="15"/>
-      <c r="DY1" s="15"/>
-      <c r="DZ1" s="15"/>
-      <c r="EA1" s="15"/>
-      <c r="EB1" s="15"/>
-      <c r="EC1" s="15"/>
-      <c r="ED1" s="15"/>
-      <c r="EE1" s="15"/>
-      <c r="EF1" s="15"/>
-      <c r="EG1" s="15"/>
-      <c r="EH1" s="15"/>
-      <c r="EI1" s="15"/>
-      <c r="EJ1" s="15"/>
-      <c r="EK1" s="15"/>
-      <c r="EL1" s="15"/>
-      <c r="EM1" s="15"/>
-      <c r="EN1" s="15"/>
-      <c r="EO1" s="15"/>
-      <c r="EP1" s="15"/>
-      <c r="EQ1" s="15"/>
-      <c r="ER1" s="15"/>
-      <c r="ES1" s="15"/>
-      <c r="ET1" s="15"/>
-      <c r="EU1" s="15"/>
-      <c r="EV1" s="15"/>
-      <c r="EW1" s="15"/>
-      <c r="EX1" s="15"/>
-      <c r="EY1" s="15"/>
-      <c r="EZ1" s="15"/>
-      <c r="FA1" s="15"/>
-      <c r="FB1" s="15"/>
-      <c r="FC1" s="15"/>
-      <c r="FD1" s="15"/>
-      <c r="FE1" s="15"/>
-      <c r="FF1" s="15"/>
-      <c r="FG1" s="15"/>
-      <c r="FH1" s="15"/>
-      <c r="FI1" s="15"/>
-      <c r="FJ1" s="15"/>
-      <c r="FK1" s="15"/>
-      <c r="FL1" s="15"/>
-      <c r="FM1" s="15"/>
-      <c r="FN1" s="15"/>
-      <c r="FO1" s="15"/>
-      <c r="FP1" s="15"/>
-      <c r="FQ1" s="15"/>
-      <c r="FR1" s="15"/>
-      <c r="FS1" s="15"/>
-      <c r="FT1" s="15"/>
-      <c r="FU1" s="15"/>
-      <c r="FV1" s="15"/>
-      <c r="FW1" s="15"/>
-      <c r="FX1" s="15"/>
-      <c r="FY1" s="15"/>
-      <c r="FZ1" s="15"/>
-      <c r="GA1" s="15"/>
-      <c r="GB1" s="15"/>
-      <c r="GC1" s="15"/>
-      <c r="GD1" s="15"/>
-      <c r="GE1" s="15"/>
-      <c r="GF1" s="15"/>
-      <c r="GG1" s="15"/>
-      <c r="GH1" s="15"/>
-      <c r="GI1" s="15"/>
-      <c r="GJ1" s="15"/>
-      <c r="GK1" s="15"/>
-      <c r="GL1" s="15"/>
-      <c r="GM1" s="15"/>
-      <c r="GN1" s="15"/>
-      <c r="GO1" s="15"/>
-      <c r="GP1" s="15"/>
-      <c r="GQ1" s="15"/>
-      <c r="GR1" s="15"/>
-      <c r="GS1" s="15"/>
-      <c r="GT1" s="15"/>
-      <c r="GU1" s="15"/>
-      <c r="GV1" s="15"/>
-      <c r="GW1" s="15"/>
-      <c r="GX1" s="15"/>
-      <c r="GY1" s="15"/>
-      <c r="GZ1" s="15"/>
-      <c r="HA1" s="15"/>
-      <c r="HB1" s="15"/>
-      <c r="HC1" s="15"/>
-      <c r="HD1" s="15"/>
-      <c r="HE1" s="15"/>
-      <c r="HF1" s="15"/>
-      <c r="HG1" s="15"/>
-      <c r="HH1" s="15"/>
-      <c r="HI1" s="15"/>
-      <c r="HJ1" s="15"/>
-      <c r="HK1" s="15"/>
-      <c r="HL1" s="15"/>
-      <c r="HM1" s="15"/>
-      <c r="HN1" s="15"/>
-      <c r="HO1" s="15"/>
-      <c r="HP1" s="15"/>
-      <c r="HQ1" s="15"/>
-      <c r="HR1" s="15"/>
-      <c r="HS1" s="15"/>
-      <c r="HT1" s="15"/>
-      <c r="HU1" s="15"/>
-      <c r="HV1" s="15"/>
-      <c r="HW1" s="15"/>
-      <c r="HX1" s="15"/>
-      <c r="HY1" s="15"/>
-      <c r="HZ1" s="15"/>
-      <c r="IA1" s="15"/>
-      <c r="IB1" s="15"/>
-      <c r="IC1" s="15"/>
-      <c r="ID1" s="15"/>
-      <c r="IE1" s="15"/>
-      <c r="IF1" s="15"/>
-      <c r="IG1" s="15"/>
-      <c r="IH1" s="15"/>
-      <c r="II1" s="15"/>
-      <c r="IJ1" s="15"/>
-      <c r="IK1" s="15"/>
-      <c r="IL1" s="15"/>
-      <c r="IM1" s="15"/>
-      <c r="IN1" s="15"/>
-      <c r="IO1" s="15"/>
-      <c r="IP1" s="15"/>
-      <c r="IQ1" s="15"/>
-      <c r="IR1" s="15"/>
-      <c r="IS1" s="15"/>
-      <c r="IT1" s="15"/>
-      <c r="IU1" s="15"/>
-      <c r="IV1" s="15"/>
-      <c r="IW1" s="15"/>
-      <c r="IX1" s="15"/>
-      <c r="IY1" s="15"/>
-      <c r="IZ1" s="15"/>
-      <c r="JA1" s="15"/>
-      <c r="JB1" s="15"/>
-      <c r="JC1" s="15"/>
-      <c r="JD1" s="15"/>
-      <c r="JE1" s="15"/>
-      <c r="JF1" s="15"/>
-      <c r="JG1" s="15"/>
-      <c r="JH1" s="15"/>
-      <c r="JI1" s="15"/>
-      <c r="JJ1" s="15"/>
-      <c r="JK1" s="15"/>
-      <c r="JL1" s="15"/>
-      <c r="JM1" s="15"/>
-      <c r="JN1" s="15"/>
-      <c r="JO1" s="15"/>
-      <c r="JP1" s="15"/>
-      <c r="JQ1" s="15"/>
-      <c r="JR1" s="15"/>
-      <c r="JS1" s="15"/>
-      <c r="JT1" s="15"/>
-      <c r="JU1" s="15"/>
-      <c r="JV1" s="15"/>
-      <c r="JW1" s="15"/>
-      <c r="JX1" s="15"/>
-      <c r="JY1" s="15"/>
-      <c r="JZ1" s="15"/>
-      <c r="KA1" s="15"/>
-      <c r="KB1" s="15"/>
-      <c r="KC1" s="15"/>
-      <c r="KD1" s="15"/>
-      <c r="KE1" s="15"/>
-      <c r="KF1" s="15"/>
-      <c r="KG1" s="15"/>
-      <c r="KH1" s="15"/>
-      <c r="KI1" s="15"/>
-      <c r="KJ1" s="15"/>
-      <c r="KK1" s="15"/>
-      <c r="KL1" s="15"/>
-      <c r="KM1" s="15"/>
-      <c r="KN1" s="15"/>
-      <c r="KO1" s="15"/>
-      <c r="KP1" s="15"/>
-      <c r="KQ1" s="15"/>
-      <c r="KR1" s="15"/>
-      <c r="KS1" s="15"/>
-      <c r="KT1" s="15"/>
-      <c r="KU1" s="15"/>
-      <c r="KV1" s="15"/>
-      <c r="KW1" s="15"/>
-      <c r="KX1" s="15"/>
-      <c r="KY1" s="15"/>
-      <c r="KZ1" s="15"/>
-      <c r="LA1" s="15"/>
-      <c r="LB1" s="15"/>
-      <c r="LC1" s="15"/>
-      <c r="LD1" s="15"/>
-      <c r="LE1" s="15"/>
-      <c r="LF1" s="15"/>
-      <c r="LG1" s="15"/>
-      <c r="LH1" s="15"/>
-      <c r="LI1" s="15"/>
-      <c r="LJ1" s="15"/>
-      <c r="LK1" s="15"/>
-      <c r="LL1" s="15"/>
-      <c r="LM1" s="15"/>
-      <c r="LN1" s="15"/>
-      <c r="LO1" s="15"/>
-      <c r="LP1" s="15"/>
-      <c r="LQ1" s="15"/>
-      <c r="LR1" s="15"/>
-      <c r="LS1" s="15"/>
-      <c r="LT1" s="15"/>
-      <c r="LU1" s="15"/>
-      <c r="LV1" s="15"/>
-      <c r="LW1" s="15"/>
-      <c r="LX1" s="15"/>
-      <c r="LY1" s="15"/>
-      <c r="LZ1" s="15"/>
-      <c r="MA1" s="15"/>
-      <c r="MB1" s="15"/>
-      <c r="MC1" s="15"/>
-      <c r="MD1" s="15"/>
-      <c r="ME1" s="15"/>
-      <c r="MF1" s="15"/>
-      <c r="MG1" s="15"/>
-      <c r="MH1" s="15"/>
-      <c r="MI1" s="15"/>
-      <c r="MJ1" s="15"/>
-      <c r="MK1" s="15"/>
-      <c r="ML1" s="15"/>
-      <c r="MM1" s="15"/>
-      <c r="MN1" s="15"/>
-      <c r="MO1" s="15"/>
-      <c r="MP1" s="15"/>
-      <c r="MQ1" s="15"/>
-      <c r="MR1" s="15"/>
-      <c r="MS1" s="15"/>
-      <c r="MT1" s="15"/>
-      <c r="MU1" s="15"/>
-      <c r="MV1" s="15"/>
-      <c r="MW1" s="15"/>
-      <c r="MX1" s="15"/>
-      <c r="MY1" s="15"/>
-      <c r="MZ1" s="15"/>
-      <c r="NA1" s="15"/>
-      <c r="NB1" s="15"/>
-      <c r="NC1" s="15"/>
-      <c r="ND1" s="15"/>
-      <c r="NE1" s="15"/>
-      <c r="NF1" s="15"/>
-      <c r="NG1" s="15"/>
-      <c r="NH1" s="15"/>
-      <c r="NI1" s="15"/>
-      <c r="NJ1" s="15"/>
-      <c r="NK1" s="15"/>
-      <c r="NL1" s="15"/>
-      <c r="NM1" s="15"/>
-      <c r="NN1" s="15"/>
-      <c r="NO1" s="15"/>
-      <c r="NP1" s="15"/>
-      <c r="NQ1" s="15"/>
-      <c r="NR1" s="15"/>
-      <c r="NS1" s="15"/>
-      <c r="NT1" s="15"/>
-      <c r="NU1" s="15"/>
-      <c r="NV1" s="15"/>
-      <c r="NW1" s="15"/>
-      <c r="NX1" s="15"/>
-      <c r="NY1" s="15"/>
-      <c r="NZ1" s="15"/>
-      <c r="OA1" s="15"/>
-      <c r="OB1" s="15"/>
-      <c r="OC1" s="15"/>
-      <c r="OD1" s="15"/>
-      <c r="OE1" s="15"/>
-      <c r="OF1" s="15"/>
-      <c r="OG1" s="15"/>
-      <c r="OH1" s="15"/>
-      <c r="OI1" s="15"/>
-      <c r="OJ1" s="15"/>
-      <c r="OK1" s="15"/>
-      <c r="OL1" s="15"/>
-      <c r="OM1" s="15"/>
-      <c r="ON1" s="15"/>
-      <c r="OO1" s="15"/>
-      <c r="OP1" s="15"/>
-      <c r="OQ1" s="15"/>
-      <c r="OR1" s="15"/>
-      <c r="OS1" s="15"/>
-      <c r="OT1" s="15"/>
-      <c r="OU1" s="15"/>
-      <c r="OV1" s="15"/>
-      <c r="OW1" s="15"/>
-      <c r="OX1" s="15"/>
-      <c r="OY1" s="15"/>
-      <c r="OZ1" s="15"/>
-      <c r="PA1" s="15"/>
-      <c r="PB1" s="15"/>
-      <c r="PC1" s="15"/>
-      <c r="PD1" s="15"/>
-      <c r="PE1" s="15"/>
-      <c r="PF1" s="15"/>
-      <c r="PG1" s="15"/>
-      <c r="PH1" s="15"/>
-      <c r="PI1" s="15"/>
-      <c r="PJ1" s="15"/>
-      <c r="PK1" s="15"/>
-      <c r="PL1" s="15"/>
-      <c r="PM1" s="15"/>
-      <c r="PN1" s="15"/>
-      <c r="PO1" s="15"/>
-      <c r="PP1" s="15"/>
-      <c r="PQ1" s="15"/>
-      <c r="PR1" s="15"/>
-      <c r="PS1" s="15"/>
-      <c r="PT1" s="15"/>
-      <c r="PU1" s="15"/>
-      <c r="PV1" s="15"/>
-      <c r="PW1" s="15"/>
-      <c r="PX1" s="15"/>
-      <c r="PY1" s="15"/>
-      <c r="PZ1" s="15"/>
-      <c r="QA1" s="15"/>
-      <c r="QB1" s="15"/>
-      <c r="QC1" s="15"/>
-      <c r="QD1" s="15"/>
-      <c r="QE1" s="15"/>
-      <c r="QF1" s="15"/>
-      <c r="QG1" s="15"/>
-      <c r="QH1" s="15"/>
-      <c r="QI1" s="15"/>
-      <c r="QJ1" s="15"/>
-      <c r="QK1" s="15"/>
-      <c r="QL1" s="15"/>
-      <c r="QM1" s="15"/>
-      <c r="QN1" s="15"/>
-      <c r="QO1" s="15"/>
-      <c r="QP1" s="15"/>
-      <c r="QQ1" s="15"/>
-      <c r="QR1" s="15"/>
-      <c r="QS1" s="15"/>
-      <c r="QT1" s="15"/>
-      <c r="QU1" s="15"/>
-      <c r="QV1" s="15"/>
-      <c r="QW1" s="15"/>
-      <c r="QX1" s="15"/>
-      <c r="QY1" s="15"/>
-      <c r="QZ1" s="15"/>
-      <c r="RA1" s="15"/>
-      <c r="RB1" s="15"/>
-      <c r="RC1" s="15"/>
-      <c r="RD1" s="15"/>
-      <c r="RE1" s="15"/>
-      <c r="RF1" s="15"/>
-      <c r="RG1" s="15"/>
-      <c r="RH1" s="15"/>
-      <c r="RI1" s="15"/>
-      <c r="RJ1" s="15"/>
-      <c r="RK1" s="15"/>
-      <c r="RL1" s="15"/>
-      <c r="RM1" s="15"/>
-      <c r="RN1" s="15"/>
-      <c r="RO1" s="15"/>
-      <c r="RP1" s="15"/>
-      <c r="RQ1" s="15"/>
-      <c r="RR1" s="15"/>
-      <c r="RS1" s="15"/>
-      <c r="RT1" s="15"/>
-      <c r="RU1" s="15"/>
-      <c r="RV1" s="15"/>
-      <c r="RW1" s="15"/>
-      <c r="RX1" s="15"/>
-      <c r="RY1" s="15"/>
-      <c r="RZ1" s="15"/>
-      <c r="SA1" s="15"/>
-      <c r="SB1" s="15"/>
-      <c r="SC1" s="15"/>
-      <c r="SD1" s="15"/>
-      <c r="SE1" s="15"/>
-      <c r="SF1" s="15"/>
-      <c r="SG1" s="15"/>
-      <c r="SH1" s="15"/>
-      <c r="SI1" s="15"/>
-      <c r="SJ1" s="15"/>
-      <c r="SK1" s="15"/>
-      <c r="SL1" s="15"/>
-      <c r="SM1" s="15"/>
-      <c r="SN1" s="15"/>
-      <c r="SO1" s="15"/>
-      <c r="SP1" s="15"/>
-      <c r="SQ1" s="15"/>
-      <c r="SR1" s="15"/>
-      <c r="SS1" s="15"/>
-      <c r="ST1" s="15"/>
-      <c r="SU1" s="15"/>
-      <c r="SV1" s="15"/>
-      <c r="SW1" s="15"/>
-      <c r="SX1" s="15"/>
-      <c r="SY1" s="15"/>
-      <c r="SZ1" s="15"/>
-      <c r="TA1" s="15"/>
-      <c r="TB1" s="15"/>
-      <c r="TC1" s="15"/>
-      <c r="TD1" s="15"/>
-      <c r="TE1" s="15"/>
-      <c r="TF1" s="15"/>
-      <c r="TG1" s="15"/>
-      <c r="TH1" s="15"/>
-      <c r="TI1" s="15"/>
-      <c r="TJ1" s="15"/>
-      <c r="TK1" s="15"/>
-      <c r="TL1" s="15"/>
-      <c r="TM1" s="15"/>
-      <c r="TN1" s="15"/>
-      <c r="TO1" s="15"/>
-      <c r="TP1" s="15"/>
-      <c r="TQ1" s="15"/>
-      <c r="TR1" s="15"/>
-      <c r="TS1" s="15"/>
-      <c r="TT1" s="15"/>
-      <c r="TU1" s="15"/>
-      <c r="TV1" s="15"/>
-      <c r="TW1" s="15"/>
-      <c r="TX1" s="15"/>
-      <c r="TY1" s="15"/>
-      <c r="TZ1" s="15"/>
-      <c r="UA1" s="15"/>
-      <c r="UB1" s="15"/>
-      <c r="UC1" s="15"/>
-      <c r="UD1" s="15"/>
-      <c r="UE1" s="15"/>
-      <c r="UF1" s="15"/>
-      <c r="UG1" s="15"/>
-      <c r="UH1" s="15"/>
-      <c r="UI1" s="15"/>
-      <c r="UJ1" s="15"/>
-      <c r="UK1" s="15"/>
-      <c r="UL1" s="15"/>
-      <c r="UM1" s="15"/>
-      <c r="UN1" s="15"/>
-      <c r="UO1" s="15"/>
-      <c r="UP1" s="15"/>
-      <c r="UQ1" s="15"/>
-      <c r="UR1" s="15"/>
-      <c r="US1" s="15"/>
-      <c r="UT1" s="15"/>
-      <c r="UU1" s="15"/>
-      <c r="UV1" s="15"/>
-      <c r="UW1" s="15"/>
-      <c r="UX1" s="15"/>
-      <c r="UY1" s="15"/>
-      <c r="UZ1" s="15"/>
-      <c r="VA1" s="15"/>
-      <c r="VB1" s="15"/>
-      <c r="VC1" s="15"/>
-      <c r="VD1" s="15"/>
-      <c r="VE1" s="15"/>
-      <c r="VF1" s="15"/>
-      <c r="VG1" s="15"/>
-      <c r="VH1" s="15"/>
-      <c r="VI1" s="15"/>
-      <c r="VJ1" s="15"/>
-      <c r="VK1" s="15"/>
-      <c r="VL1" s="15"/>
-      <c r="VM1" s="15"/>
-      <c r="VN1" s="15"/>
-      <c r="VO1" s="15"/>
-      <c r="VP1" s="15"/>
-      <c r="VQ1" s="15"/>
-      <c r="VR1" s="15"/>
-      <c r="VS1" s="15"/>
-      <c r="VT1" s="15"/>
-      <c r="VU1" s="15"/>
-      <c r="VV1" s="15"/>
-      <c r="VW1" s="15"/>
-      <c r="VX1" s="15"/>
-      <c r="VY1" s="15"/>
-      <c r="VZ1" s="15"/>
-      <c r="WA1" s="15"/>
-      <c r="WB1" s="15"/>
-      <c r="WC1" s="15"/>
-      <c r="WD1" s="15"/>
-      <c r="WE1" s="15"/>
-      <c r="WF1" s="15"/>
-      <c r="WG1" s="15"/>
-      <c r="WH1" s="15"/>
-      <c r="WI1" s="15"/>
-      <c r="WJ1" s="15"/>
-      <c r="WK1" s="15"/>
-      <c r="WL1" s="15"/>
-      <c r="WM1" s="15"/>
-      <c r="WN1" s="15"/>
-      <c r="WO1" s="15"/>
-      <c r="WP1" s="15"/>
-      <c r="WQ1" s="15"/>
-      <c r="WR1" s="15"/>
-      <c r="WS1" s="15"/>
-      <c r="WT1" s="15"/>
-      <c r="WU1" s="15"/>
-      <c r="WV1" s="15"/>
-      <c r="WW1" s="15"/>
-      <c r="WX1" s="15"/>
-      <c r="WY1" s="15"/>
-      <c r="WZ1" s="15"/>
-      <c r="XA1" s="15"/>
-      <c r="XB1" s="15"/>
-      <c r="XC1" s="15"/>
-      <c r="XD1" s="15"/>
-      <c r="XE1" s="15"/>
-      <c r="XF1" s="15"/>
-      <c r="XG1" s="15"/>
-      <c r="XH1" s="15"/>
-      <c r="XI1" s="15"/>
-      <c r="XJ1" s="15"/>
-      <c r="XK1" s="15"/>
-      <c r="XL1" s="15"/>
-      <c r="XM1" s="15"/>
-      <c r="XN1" s="15"/>
-      <c r="XO1" s="15"/>
-      <c r="XP1" s="15"/>
-      <c r="XQ1" s="15"/>
-      <c r="XR1" s="15"/>
-      <c r="XS1" s="15"/>
-      <c r="XT1" s="15"/>
-      <c r="XU1" s="15"/>
-      <c r="XV1" s="15"/>
-      <c r="XW1" s="15"/>
-      <c r="XX1" s="15"/>
-      <c r="XY1" s="15"/>
-      <c r="XZ1" s="15"/>
-      <c r="YA1" s="15"/>
-      <c r="YB1" s="15"/>
-      <c r="YC1" s="15"/>
-      <c r="YD1" s="15"/>
-      <c r="YE1" s="15"/>
-      <c r="YF1" s="15"/>
-      <c r="YG1" s="15"/>
-      <c r="YH1" s="15"/>
-      <c r="YI1" s="15"/>
-      <c r="YJ1" s="15"/>
-      <c r="YK1" s="15"/>
-      <c r="YL1" s="15"/>
-      <c r="YM1" s="15"/>
-      <c r="YN1" s="15"/>
-      <c r="YO1" s="15"/>
-      <c r="YP1" s="15"/>
-      <c r="YQ1" s="15"/>
-      <c r="YR1" s="15"/>
-      <c r="YS1" s="15"/>
-      <c r="YT1" s="15"/>
-      <c r="YU1" s="15"/>
-      <c r="YV1" s="15"/>
-      <c r="YW1" s="15"/>
-      <c r="YX1" s="15"/>
-      <c r="YY1" s="15"/>
-      <c r="YZ1" s="15"/>
-      <c r="ZA1" s="15"/>
-      <c r="ZB1" s="15"/>
-      <c r="ZC1" s="15"/>
-      <c r="ZD1" s="15"/>
-      <c r="ZE1" s="15"/>
-      <c r="ZF1" s="15"/>
-      <c r="ZG1" s="15"/>
-      <c r="ZH1" s="15"/>
-      <c r="ZI1" s="15"/>
-      <c r="ZJ1" s="15"/>
-      <c r="ZK1" s="15"/>
-      <c r="ZL1" s="15"/>
-      <c r="ZM1" s="15"/>
-      <c r="ZN1" s="15"/>
-      <c r="ZO1" s="15"/>
-      <c r="ZP1" s="15"/>
-      <c r="ZQ1" s="15"/>
-      <c r="ZR1" s="15"/>
-      <c r="ZS1" s="15"/>
-      <c r="ZT1" s="15"/>
-      <c r="ZU1" s="15"/>
-      <c r="ZV1" s="15"/>
-      <c r="ZW1" s="15"/>
-      <c r="ZX1" s="15"/>
-      <c r="ZY1" s="15"/>
-      <c r="ZZ1" s="15"/>
-      <c r="AAA1" s="15"/>
-      <c r="AAB1" s="15"/>
-      <c r="AAC1" s="15"/>
-      <c r="AAD1" s="15"/>
-      <c r="AAE1" s="15"/>
-      <c r="AAF1" s="15"/>
-      <c r="AAG1" s="15"/>
-      <c r="AAH1" s="15"/>
-      <c r="AAI1" s="15"/>
-      <c r="AAJ1" s="15"/>
-      <c r="AAK1" s="15"/>
-      <c r="AAL1" s="15"/>
-      <c r="AAM1" s="15"/>
-      <c r="AAN1" s="15"/>
-      <c r="AAO1" s="15"/>
-      <c r="AAP1" s="15"/>
-      <c r="AAQ1" s="15"/>
-      <c r="AAR1" s="15"/>
-      <c r="AAS1" s="15"/>
-      <c r="AAT1" s="15"/>
-      <c r="AAU1" s="15"/>
-      <c r="AAV1" s="15"/>
-      <c r="AAW1" s="15"/>
-      <c r="AAX1" s="15"/>
-      <c r="AAY1" s="15"/>
-      <c r="AAZ1" s="15"/>
-      <c r="ABA1" s="15"/>
-      <c r="ABB1" s="15"/>
-      <c r="ABC1" s="15"/>
-      <c r="ABD1" s="15"/>
-      <c r="ABE1" s="15"/>
-      <c r="ABF1" s="15"/>
-      <c r="ABG1" s="15"/>
-      <c r="ABH1" s="15"/>
-      <c r="ABI1" s="15"/>
-      <c r="ABJ1" s="15"/>
-      <c r="ABK1" s="15"/>
-      <c r="ABL1" s="15"/>
-      <c r="ABM1" s="15"/>
-      <c r="ABN1" s="15"/>
-      <c r="ABO1" s="15"/>
-      <c r="ABP1" s="15"/>
-      <c r="ABQ1" s="15"/>
-      <c r="ABR1" s="15"/>
-      <c r="ABS1" s="15"/>
-      <c r="ABT1" s="15"/>
-      <c r="ABU1" s="15"/>
-      <c r="ABV1" s="15"/>
-      <c r="ABW1" s="15"/>
-      <c r="ABX1" s="15"/>
-      <c r="ABY1" s="15"/>
-      <c r="ABZ1" s="15"/>
-      <c r="ACA1" s="15"/>
-      <c r="ACB1" s="15"/>
-      <c r="ACC1" s="15"/>
-      <c r="ACD1" s="15"/>
-      <c r="ACE1" s="15"/>
-      <c r="ACF1" s="15"/>
-      <c r="ACG1" s="15"/>
-      <c r="ACH1" s="15"/>
-      <c r="ACI1" s="15"/>
-      <c r="ACJ1" s="15"/>
-      <c r="ACK1" s="15"/>
-      <c r="ACL1" s="15"/>
-      <c r="ACM1" s="15"/>
-      <c r="ACN1" s="15"/>
-      <c r="ACO1" s="15"/>
-      <c r="ACP1" s="15"/>
-      <c r="ACQ1" s="15"/>
-      <c r="ACR1" s="15"/>
-      <c r="ACS1" s="15"/>
-      <c r="ACT1" s="15"/>
-      <c r="ACU1" s="15"/>
-      <c r="ACV1" s="15"/>
-      <c r="ACW1" s="15"/>
-      <c r="ACX1" s="15"/>
-      <c r="ACY1" s="15"/>
-      <c r="ACZ1" s="15"/>
-      <c r="ADA1" s="15"/>
-      <c r="ADB1" s="15"/>
-      <c r="ADC1" s="15"/>
-      <c r="ADD1" s="15"/>
-      <c r="ADE1" s="15"/>
-      <c r="ADF1" s="15"/>
-      <c r="ADG1" s="15"/>
-      <c r="ADH1" s="15"/>
-      <c r="ADI1" s="15"/>
-      <c r="ADJ1" s="15"/>
-      <c r="ADK1" s="15"/>
-      <c r="ADL1" s="15"/>
-      <c r="ADM1" s="15"/>
-      <c r="ADN1" s="15"/>
-      <c r="ADO1" s="15"/>
-      <c r="ADP1" s="15"/>
-      <c r="ADQ1" s="15"/>
-      <c r="ADR1" s="15"/>
-      <c r="ADS1" s="15"/>
-      <c r="ADT1" s="15"/>
-      <c r="ADU1" s="15"/>
-      <c r="ADV1" s="15"/>
-      <c r="ADW1" s="15"/>
-      <c r="ADX1" s="15"/>
-      <c r="ADY1" s="15"/>
-      <c r="ADZ1" s="15"/>
-      <c r="AEA1" s="15"/>
-      <c r="AEB1" s="15"/>
-      <c r="AEC1" s="15"/>
-      <c r="AED1" s="15"/>
-      <c r="AEE1" s="15"/>
-      <c r="AEF1" s="15"/>
-      <c r="AEG1" s="15"/>
-      <c r="AEH1" s="15"/>
-      <c r="AEI1" s="15"/>
-      <c r="AEJ1" s="15"/>
-      <c r="AEK1" s="15"/>
-      <c r="AEL1" s="15"/>
-      <c r="AEM1" s="15"/>
-      <c r="AEN1" s="15"/>
-      <c r="AEO1" s="15"/>
-      <c r="AEP1" s="15"/>
-      <c r="AEQ1" s="15"/>
-      <c r="AER1" s="15"/>
-      <c r="AES1" s="15"/>
-      <c r="AET1" s="15"/>
-      <c r="AEU1" s="15"/>
-      <c r="AEV1" s="15"/>
-      <c r="AEW1" s="15"/>
-      <c r="AEX1" s="15"/>
-      <c r="AEY1" s="15"/>
-      <c r="AEZ1" s="15"/>
-      <c r="AFA1" s="15"/>
-      <c r="AFB1" s="15"/>
-      <c r="AFC1" s="15"/>
-      <c r="AFD1" s="15"/>
-      <c r="AFE1" s="15"/>
-      <c r="AFF1" s="15"/>
-      <c r="AFG1" s="15"/>
-      <c r="AFH1" s="15"/>
-      <c r="AFI1" s="15"/>
-      <c r="AFJ1" s="15"/>
-      <c r="AFK1" s="15"/>
-      <c r="AFL1" s="15"/>
-      <c r="AFM1" s="15"/>
-      <c r="AFN1" s="15"/>
-      <c r="AFO1" s="15"/>
-      <c r="AFP1" s="15"/>
-      <c r="AFQ1" s="15"/>
-      <c r="AFR1" s="15"/>
-      <c r="AFS1" s="15"/>
-      <c r="AFT1" s="15"/>
-      <c r="AFU1" s="15"/>
-      <c r="AFV1" s="15"/>
-      <c r="AFW1" s="15"/>
-      <c r="AFX1" s="15"/>
-      <c r="AFY1" s="15"/>
-      <c r="AFZ1" s="15"/>
-      <c r="AGA1" s="15"/>
-      <c r="AGB1" s="15"/>
-      <c r="AGC1" s="15"/>
-      <c r="AGD1" s="15"/>
-      <c r="AGE1" s="15"/>
-      <c r="AGF1" s="15"/>
-      <c r="AGG1" s="15"/>
-      <c r="AGH1" s="15"/>
-      <c r="AGI1" s="15"/>
-      <c r="AGJ1" s="15"/>
-      <c r="AGK1" s="15"/>
-      <c r="AGL1" s="15"/>
-      <c r="AGM1" s="15"/>
-      <c r="AGN1" s="15"/>
-      <c r="AGO1" s="15"/>
-      <c r="AGP1" s="15"/>
-      <c r="AGQ1" s="15"/>
-      <c r="AGR1" s="15"/>
-      <c r="AGS1" s="15"/>
-      <c r="AGT1" s="15"/>
-      <c r="AGU1" s="15"/>
-      <c r="AGV1" s="15"/>
-      <c r="AGW1" s="15"/>
-      <c r="AGX1" s="15"/>
-      <c r="AGY1" s="15"/>
-      <c r="AGZ1" s="15"/>
-      <c r="AHA1" s="15"/>
-      <c r="AHB1" s="15"/>
-      <c r="AHC1" s="15"/>
-      <c r="AHD1" s="15"/>
-      <c r="AHE1" s="15"/>
-      <c r="AHF1" s="15"/>
-      <c r="AHG1" s="15"/>
-      <c r="AHH1" s="15"/>
-      <c r="AHI1" s="15"/>
-      <c r="AHJ1" s="15"/>
-      <c r="AHK1" s="15"/>
-      <c r="AHL1" s="15"/>
-      <c r="AHM1" s="15"/>
-      <c r="AHN1" s="15"/>
-      <c r="AHO1" s="15"/>
-      <c r="AHP1" s="15"/>
-      <c r="AHQ1" s="15"/>
-      <c r="AHR1" s="15"/>
-      <c r="AHS1" s="15"/>
-      <c r="AHT1" s="15"/>
-      <c r="AHU1" s="15"/>
-      <c r="AHV1" s="15"/>
-      <c r="AHW1" s="15"/>
-      <c r="AHX1" s="15"/>
-      <c r="AHY1" s="15"/>
-      <c r="AHZ1" s="15"/>
-      <c r="AIA1" s="15"/>
-      <c r="AIB1" s="15"/>
-      <c r="AIC1" s="15"/>
-      <c r="AID1" s="15"/>
-      <c r="AIE1" s="15"/>
-      <c r="AIF1" s="15"/>
-      <c r="AIG1" s="15"/>
-      <c r="AIH1" s="15"/>
-      <c r="AII1" s="15"/>
-      <c r="AIJ1" s="15"/>
-      <c r="AIK1" s="15"/>
-      <c r="AIL1" s="15"/>
-      <c r="AIM1" s="15"/>
-      <c r="AIN1" s="15"/>
-      <c r="AIO1" s="15"/>
-      <c r="AIP1" s="15"/>
-      <c r="AIQ1" s="15"/>
-      <c r="AIR1" s="15"/>
-      <c r="AIS1" s="15"/>
-      <c r="AIT1" s="15"/>
-      <c r="AIU1" s="15"/>
-      <c r="AIV1" s="15"/>
-      <c r="AIW1" s="15"/>
-      <c r="AIX1" s="15"/>
-      <c r="AIY1" s="15"/>
-      <c r="AIZ1" s="15"/>
-      <c r="AJA1" s="15"/>
-      <c r="AJB1" s="15"/>
-      <c r="AJC1" s="15"/>
-      <c r="AJD1" s="15"/>
-      <c r="AJE1" s="15"/>
-      <c r="AJF1" s="15"/>
-      <c r="AJG1" s="15"/>
-      <c r="AJH1" s="15"/>
-      <c r="AJI1" s="15"/>
-      <c r="AJJ1" s="15"/>
-      <c r="AJK1" s="15"/>
-      <c r="AJL1" s="15"/>
-      <c r="AJM1" s="15"/>
-      <c r="AJN1" s="15"/>
-      <c r="AJO1" s="15"/>
-      <c r="AJP1" s="15"/>
-      <c r="AJQ1" s="15"/>
-      <c r="AJR1" s="15"/>
-      <c r="AJS1" s="15"/>
-      <c r="AJT1" s="15"/>
-      <c r="AJU1" s="15"/>
-      <c r="AJV1" s="15"/>
-      <c r="AJW1" s="15"/>
-      <c r="AJX1" s="15"/>
-      <c r="AJY1" s="15"/>
-      <c r="AJZ1" s="15"/>
-      <c r="AKA1" s="15"/>
-      <c r="AKB1" s="15"/>
-      <c r="AKC1" s="15"/>
-      <c r="AKD1" s="15"/>
-      <c r="AKE1" s="15"/>
-      <c r="AKF1" s="15"/>
-      <c r="AKG1" s="15"/>
-      <c r="AKH1" s="15"/>
-      <c r="AKI1" s="15"/>
-      <c r="AKJ1" s="15"/>
-      <c r="AKK1" s="15"/>
-      <c r="AKL1" s="15"/>
-      <c r="AKM1" s="15"/>
-      <c r="AKN1" s="15"/>
-      <c r="AKO1" s="15"/>
-      <c r="AKP1" s="15"/>
-      <c r="AKQ1" s="15"/>
-      <c r="AKR1" s="15"/>
-      <c r="AKS1" s="15"/>
-      <c r="AKT1" s="15"/>
-      <c r="AKU1" s="15"/>
-      <c r="AKV1" s="15"/>
-      <c r="AKW1" s="15"/>
-      <c r="AKX1" s="15"/>
-      <c r="AKY1" s="15"/>
-      <c r="AKZ1" s="15"/>
-      <c r="ALA1" s="15"/>
-      <c r="ALB1" s="15"/>
-      <c r="ALC1" s="15"/>
-      <c r="ALD1" s="15"/>
-      <c r="ALE1" s="15"/>
-      <c r="ALF1" s="15"/>
-      <c r="ALG1" s="15"/>
-      <c r="ALH1" s="15"/>
-      <c r="ALI1" s="15"/>
-      <c r="ALJ1" s="15"/>
-      <c r="ALK1" s="15"/>
-      <c r="ALL1" s="15"/>
-      <c r="ALM1" s="15"/>
-      <c r="ALN1" s="15"/>
-      <c r="ALO1" s="15"/>
-      <c r="ALP1" s="15"/>
-      <c r="ALQ1" s="15"/>
-      <c r="ALR1" s="15"/>
-      <c r="ALS1" s="15"/>
-      <c r="ALT1" s="15"/>
-      <c r="ALU1" s="15"/>
-      <c r="ALV1" s="15"/>
-      <c r="ALW1" s="15"/>
-      <c r="ALX1" s="15"/>
-      <c r="ALY1" s="15"/>
-      <c r="ALZ1" s="15"/>
-      <c r="AMA1" s="15"/>
-      <c r="AMB1" s="15"/>
-      <c r="AMC1" s="15"/>
-      <c r="AMD1" s="15"/>
-      <c r="AME1" s="15"/>
-      <c r="AMF1" s="15"/>
-      <c r="AMG1" s="15"/>
-      <c r="AMH1" s="15"/>
-      <c r="AMI1" s="15"/>
-      <c r="AMJ1" s="15"/>
-      <c r="AMK1" s="15"/>
-      <c r="AML1" s="15"/>
-      <c r="AMM1" s="15"/>
-      <c r="AMN1" s="15"/>
-      <c r="AMO1" s="15"/>
-      <c r="AMP1" s="15"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="16"/>
+      <c r="AG1" s="16"/>
+      <c r="AH1" s="16"/>
+      <c r="AI1" s="16"/>
+      <c r="AJ1" s="16"/>
+      <c r="AK1" s="16"/>
+      <c r="AL1" s="16"/>
+      <c r="AM1" s="16"/>
+      <c r="AN1" s="16"/>
+      <c r="AO1" s="16"/>
+      <c r="AP1" s="16"/>
+      <c r="AQ1" s="16"/>
+      <c r="AR1" s="16"/>
+      <c r="AS1" s="16"/>
+      <c r="AT1" s="16"/>
+      <c r="AU1" s="16"/>
+      <c r="AV1" s="16"/>
+      <c r="AW1" s="16"/>
+      <c r="AX1" s="16"/>
+      <c r="AY1" s="16"/>
+      <c r="AZ1" s="16"/>
+      <c r="BA1" s="16"/>
+      <c r="BB1" s="16"/>
+      <c r="BC1" s="16"/>
+      <c r="BD1" s="16"/>
+      <c r="BE1" s="16"/>
+      <c r="BF1" s="16"/>
+      <c r="BG1" s="16"/>
+      <c r="BH1" s="16"/>
+      <c r="BI1" s="16"/>
+      <c r="BJ1" s="16"/>
+      <c r="BK1" s="16"/>
+      <c r="BL1" s="16"/>
+      <c r="BM1" s="16"/>
+      <c r="BN1" s="16"/>
+      <c r="BO1" s="16"/>
+      <c r="BP1" s="16"/>
+      <c r="BQ1" s="16"/>
+      <c r="BR1" s="16"/>
+      <c r="BS1" s="16"/>
+      <c r="BT1" s="16"/>
+      <c r="BU1" s="16"/>
+      <c r="BV1" s="16"/>
+      <c r="BW1" s="16"/>
+      <c r="BX1" s="16"/>
+      <c r="BY1" s="16"/>
+      <c r="BZ1" s="16"/>
+      <c r="CA1" s="16"/>
+      <c r="CB1" s="16"/>
+      <c r="CC1" s="16"/>
+      <c r="CD1" s="16"/>
+      <c r="CE1" s="16"/>
+      <c r="CF1" s="16"/>
+      <c r="CG1" s="16"/>
+      <c r="CH1" s="16"/>
+      <c r="CI1" s="16"/>
+      <c r="CJ1" s="16"/>
+      <c r="CK1" s="16"/>
+      <c r="CL1" s="16"/>
+      <c r="CM1" s="16"/>
+      <c r="CN1" s="16"/>
+      <c r="CO1" s="16"/>
+      <c r="CP1" s="16"/>
+      <c r="CQ1" s="16"/>
+      <c r="CR1" s="16"/>
+      <c r="CS1" s="16"/>
+      <c r="CT1" s="16"/>
+      <c r="CU1" s="16"/>
+      <c r="CV1" s="16"/>
+      <c r="CW1" s="16"/>
+      <c r="CX1" s="16"/>
+      <c r="CY1" s="16"/>
+      <c r="CZ1" s="16"/>
+      <c r="DA1" s="16"/>
+      <c r="DB1" s="16"/>
+      <c r="DC1" s="16"/>
+      <c r="DD1" s="16"/>
+      <c r="DE1" s="16"/>
+      <c r="DF1" s="16"/>
+      <c r="DG1" s="16"/>
+      <c r="DH1" s="16"/>
+      <c r="DI1" s="16"/>
+      <c r="DJ1" s="16"/>
+      <c r="DK1" s="16"/>
+      <c r="DL1" s="16"/>
+      <c r="DM1" s="16"/>
+      <c r="DN1" s="16"/>
+      <c r="DO1" s="16"/>
+      <c r="DP1" s="16"/>
+      <c r="DQ1" s="16"/>
+      <c r="DR1" s="16"/>
+      <c r="DS1" s="16"/>
+      <c r="DT1" s="16"/>
+      <c r="DU1" s="16"/>
+      <c r="DV1" s="16"/>
+      <c r="DW1" s="16"/>
+      <c r="DX1" s="16"/>
+      <c r="DY1" s="16"/>
+      <c r="DZ1" s="16"/>
+      <c r="EA1" s="16"/>
+      <c r="EB1" s="16"/>
+      <c r="EC1" s="16"/>
+      <c r="ED1" s="16"/>
+      <c r="EE1" s="16"/>
+      <c r="EF1" s="16"/>
+      <c r="EG1" s="16"/>
+      <c r="EH1" s="16"/>
+      <c r="EI1" s="16"/>
+      <c r="EJ1" s="16"/>
+      <c r="EK1" s="16"/>
+      <c r="EL1" s="16"/>
+      <c r="EM1" s="16"/>
+      <c r="EN1" s="16"/>
+      <c r="EO1" s="16"/>
+      <c r="EP1" s="16"/>
+      <c r="EQ1" s="16"/>
+      <c r="ER1" s="16"/>
+      <c r="ES1" s="16"/>
+      <c r="ET1" s="16"/>
+      <c r="EU1" s="16"/>
+      <c r="EV1" s="16"/>
+      <c r="EW1" s="16"/>
+      <c r="EX1" s="16"/>
+      <c r="EY1" s="16"/>
+      <c r="EZ1" s="16"/>
+      <c r="FA1" s="16"/>
+      <c r="FB1" s="16"/>
+      <c r="FC1" s="16"/>
+      <c r="FD1" s="16"/>
+      <c r="FE1" s="16"/>
+      <c r="FF1" s="16"/>
+      <c r="FG1" s="16"/>
+      <c r="FH1" s="16"/>
+      <c r="FI1" s="16"/>
+      <c r="FJ1" s="16"/>
+      <c r="FK1" s="16"/>
+      <c r="FL1" s="16"/>
+      <c r="FM1" s="16"/>
+      <c r="FN1" s="16"/>
+      <c r="FO1" s="16"/>
+      <c r="FP1" s="16"/>
+      <c r="FQ1" s="16"/>
+      <c r="FR1" s="16"/>
+      <c r="FS1" s="16"/>
+      <c r="FT1" s="16"/>
+      <c r="FU1" s="16"/>
+      <c r="FV1" s="16"/>
+      <c r="FW1" s="16"/>
+      <c r="FX1" s="16"/>
+      <c r="FY1" s="16"/>
+      <c r="FZ1" s="16"/>
+      <c r="GA1" s="16"/>
+      <c r="GB1" s="16"/>
+      <c r="GC1" s="16"/>
+      <c r="GD1" s="16"/>
+      <c r="GE1" s="16"/>
+      <c r="GF1" s="16"/>
+      <c r="GG1" s="16"/>
+      <c r="GH1" s="16"/>
+      <c r="GI1" s="16"/>
+      <c r="GJ1" s="16"/>
+      <c r="GK1" s="16"/>
+      <c r="GL1" s="16"/>
+      <c r="GM1" s="16"/>
+      <c r="GN1" s="16"/>
+      <c r="GO1" s="16"/>
+      <c r="GP1" s="16"/>
+      <c r="GQ1" s="16"/>
+      <c r="GR1" s="16"/>
+      <c r="GS1" s="16"/>
+      <c r="GT1" s="16"/>
+      <c r="GU1" s="16"/>
+      <c r="GV1" s="16"/>
+      <c r="GW1" s="16"/>
+      <c r="GX1" s="16"/>
+      <c r="GY1" s="16"/>
+      <c r="GZ1" s="16"/>
+      <c r="HA1" s="16"/>
+      <c r="HB1" s="16"/>
+      <c r="HC1" s="16"/>
+      <c r="HD1" s="16"/>
+      <c r="HE1" s="16"/>
+      <c r="HF1" s="16"/>
+      <c r="HG1" s="16"/>
+      <c r="HH1" s="16"/>
+      <c r="HI1" s="16"/>
+      <c r="HJ1" s="16"/>
+      <c r="HK1" s="16"/>
+      <c r="HL1" s="16"/>
+      <c r="HM1" s="16"/>
+      <c r="HN1" s="16"/>
+      <c r="HO1" s="16"/>
+      <c r="HP1" s="16"/>
+      <c r="HQ1" s="16"/>
+      <c r="HR1" s="16"/>
+      <c r="HS1" s="16"/>
+      <c r="HT1" s="16"/>
+      <c r="HU1" s="16"/>
+      <c r="HV1" s="16"/>
+      <c r="HW1" s="16"/>
+      <c r="HX1" s="16"/>
+      <c r="HY1" s="16"/>
+      <c r="HZ1" s="16"/>
+      <c r="IA1" s="16"/>
+      <c r="IB1" s="16"/>
+      <c r="IC1" s="16"/>
+      <c r="ID1" s="16"/>
+      <c r="IE1" s="16"/>
+      <c r="IF1" s="16"/>
+      <c r="IG1" s="16"/>
+      <c r="IH1" s="16"/>
+      <c r="II1" s="16"/>
+      <c r="IJ1" s="16"/>
+      <c r="IK1" s="16"/>
+      <c r="IL1" s="16"/>
+      <c r="IM1" s="16"/>
+      <c r="IN1" s="16"/>
+      <c r="IO1" s="16"/>
+      <c r="IP1" s="16"/>
+      <c r="IQ1" s="16"/>
+      <c r="IR1" s="16"/>
+      <c r="IS1" s="16"/>
+      <c r="IT1" s="16"/>
+      <c r="IU1" s="16"/>
+      <c r="IV1" s="16"/>
+      <c r="IW1" s="16"/>
+      <c r="IX1" s="16"/>
+      <c r="IY1" s="16"/>
+      <c r="IZ1" s="16"/>
+      <c r="JA1" s="16"/>
+      <c r="JB1" s="16"/>
+      <c r="JC1" s="16"/>
+      <c r="JD1" s="16"/>
+      <c r="JE1" s="16"/>
+      <c r="JF1" s="16"/>
+      <c r="JG1" s="16"/>
+      <c r="JH1" s="16"/>
+      <c r="JI1" s="16"/>
+      <c r="JJ1" s="16"/>
+      <c r="JK1" s="16"/>
+      <c r="JL1" s="16"/>
+      <c r="JM1" s="16"/>
+      <c r="JN1" s="16"/>
+      <c r="JO1" s="16"/>
+      <c r="JP1" s="16"/>
+      <c r="JQ1" s="16"/>
+      <c r="JR1" s="16"/>
+      <c r="JS1" s="16"/>
+      <c r="JT1" s="16"/>
+      <c r="JU1" s="16"/>
+      <c r="JV1" s="16"/>
+      <c r="JW1" s="16"/>
+      <c r="JX1" s="16"/>
+      <c r="JY1" s="16"/>
+      <c r="JZ1" s="16"/>
+      <c r="KA1" s="16"/>
+      <c r="KB1" s="16"/>
+      <c r="KC1" s="16"/>
+      <c r="KD1" s="16"/>
+      <c r="KE1" s="16"/>
+      <c r="KF1" s="16"/>
+      <c r="KG1" s="16"/>
+      <c r="KH1" s="16"/>
+      <c r="KI1" s="16"/>
+      <c r="KJ1" s="16"/>
+      <c r="KK1" s="16"/>
+      <c r="KL1" s="16"/>
+      <c r="KM1" s="16"/>
+      <c r="KN1" s="16"/>
+      <c r="KO1" s="16"/>
+      <c r="KP1" s="16"/>
+      <c r="KQ1" s="16"/>
+      <c r="KR1" s="16"/>
+      <c r="KS1" s="16"/>
+      <c r="KT1" s="16"/>
+      <c r="KU1" s="16"/>
+      <c r="KV1" s="16"/>
+      <c r="KW1" s="16"/>
+      <c r="KX1" s="16"/>
+      <c r="KY1" s="16"/>
+      <c r="KZ1" s="16"/>
+      <c r="LA1" s="16"/>
+      <c r="LB1" s="16"/>
+      <c r="LC1" s="16"/>
+      <c r="LD1" s="16"/>
+      <c r="LE1" s="16"/>
+      <c r="LF1" s="16"/>
+      <c r="LG1" s="16"/>
+      <c r="LH1" s="16"/>
+      <c r="LI1" s="16"/>
+      <c r="LJ1" s="16"/>
+      <c r="LK1" s="16"/>
+      <c r="LL1" s="16"/>
+      <c r="LM1" s="16"/>
+      <c r="LN1" s="16"/>
+      <c r="LO1" s="16"/>
+      <c r="LP1" s="16"/>
+      <c r="LQ1" s="16"/>
+      <c r="LR1" s="16"/>
+      <c r="LS1" s="16"/>
+      <c r="LT1" s="16"/>
+      <c r="LU1" s="16"/>
+      <c r="LV1" s="16"/>
+      <c r="LW1" s="16"/>
+      <c r="LX1" s="16"/>
+      <c r="LY1" s="16"/>
+      <c r="LZ1" s="16"/>
+      <c r="MA1" s="16"/>
+      <c r="MB1" s="16"/>
+      <c r="MC1" s="16"/>
+      <c r="MD1" s="16"/>
+      <c r="ME1" s="16"/>
+      <c r="MF1" s="16"/>
+      <c r="MG1" s="16"/>
+      <c r="MH1" s="16"/>
+      <c r="MI1" s="16"/>
+      <c r="MJ1" s="16"/>
+      <c r="MK1" s="16"/>
+      <c r="ML1" s="16"/>
+      <c r="MM1" s="16"/>
+      <c r="MN1" s="16"/>
+      <c r="MO1" s="16"/>
+      <c r="MP1" s="16"/>
+      <c r="MQ1" s="16"/>
+      <c r="MR1" s="16"/>
+      <c r="MS1" s="16"/>
+      <c r="MT1" s="16"/>
+      <c r="MU1" s="16"/>
+      <c r="MV1" s="16"/>
+      <c r="MW1" s="16"/>
+      <c r="MX1" s="16"/>
+      <c r="MY1" s="16"/>
+      <c r="MZ1" s="16"/>
+      <c r="NA1" s="16"/>
+      <c r="NB1" s="16"/>
+      <c r="NC1" s="16"/>
+      <c r="ND1" s="16"/>
+      <c r="NE1" s="16"/>
+      <c r="NF1" s="16"/>
+      <c r="NG1" s="16"/>
+      <c r="NH1" s="16"/>
+      <c r="NI1" s="16"/>
+      <c r="NJ1" s="16"/>
+      <c r="NK1" s="16"/>
+      <c r="NL1" s="16"/>
+      <c r="NM1" s="16"/>
+      <c r="NN1" s="16"/>
+      <c r="NO1" s="16"/>
+      <c r="NP1" s="16"/>
+      <c r="NQ1" s="16"/>
+      <c r="NR1" s="16"/>
+      <c r="NS1" s="16"/>
+      <c r="NT1" s="16"/>
+      <c r="NU1" s="16"/>
+      <c r="NV1" s="16"/>
+      <c r="NW1" s="16"/>
+      <c r="NX1" s="16"/>
+      <c r="NY1" s="16"/>
+      <c r="NZ1" s="16"/>
+      <c r="OA1" s="16"/>
+      <c r="OB1" s="16"/>
+      <c r="OC1" s="16"/>
+      <c r="OD1" s="16"/>
+      <c r="OE1" s="16"/>
+      <c r="OF1" s="16"/>
+      <c r="OG1" s="16"/>
+      <c r="OH1" s="16"/>
+      <c r="OI1" s="16"/>
+      <c r="OJ1" s="16"/>
+      <c r="OK1" s="16"/>
+      <c r="OL1" s="16"/>
+      <c r="OM1" s="16"/>
+      <c r="ON1" s="16"/>
+      <c r="OO1" s="16"/>
+      <c r="OP1" s="16"/>
+      <c r="OQ1" s="16"/>
+      <c r="OR1" s="16"/>
+      <c r="OS1" s="16"/>
+      <c r="OT1" s="16"/>
+      <c r="OU1" s="16"/>
+      <c r="OV1" s="16"/>
+      <c r="OW1" s="16"/>
+      <c r="OX1" s="16"/>
+      <c r="OY1" s="16"/>
+      <c r="OZ1" s="16"/>
+      <c r="PA1" s="16"/>
+      <c r="PB1" s="16"/>
+      <c r="PC1" s="16"/>
+      <c r="PD1" s="16"/>
+      <c r="PE1" s="16"/>
+      <c r="PF1" s="16"/>
+      <c r="PG1" s="16"/>
+      <c r="PH1" s="16"/>
+      <c r="PI1" s="16"/>
+      <c r="PJ1" s="16"/>
+      <c r="PK1" s="16"/>
+      <c r="PL1" s="16"/>
+      <c r="PM1" s="16"/>
+      <c r="PN1" s="16"/>
+      <c r="PO1" s="16"/>
+      <c r="PP1" s="16"/>
+      <c r="PQ1" s="16"/>
+      <c r="PR1" s="16"/>
+      <c r="PS1" s="16"/>
+      <c r="PT1" s="16"/>
+      <c r="PU1" s="16"/>
+      <c r="PV1" s="16"/>
+      <c r="PW1" s="16"/>
+      <c r="PX1" s="16"/>
+      <c r="PY1" s="16"/>
+      <c r="PZ1" s="16"/>
+      <c r="QA1" s="16"/>
+      <c r="QB1" s="16"/>
+      <c r="QC1" s="16"/>
+      <c r="QD1" s="16"/>
+      <c r="QE1" s="16"/>
+      <c r="QF1" s="16"/>
+      <c r="QG1" s="16"/>
+      <c r="QH1" s="16"/>
+      <c r="QI1" s="16"/>
+      <c r="QJ1" s="16"/>
+      <c r="QK1" s="16"/>
+      <c r="QL1" s="16"/>
+      <c r="QM1" s="16"/>
+      <c r="QN1" s="16"/>
+      <c r="QO1" s="16"/>
+      <c r="QP1" s="16"/>
+      <c r="QQ1" s="16"/>
+      <c r="QR1" s="16"/>
+      <c r="QS1" s="16"/>
+      <c r="QT1" s="16"/>
+      <c r="QU1" s="16"/>
+      <c r="QV1" s="16"/>
+      <c r="QW1" s="16"/>
+      <c r="QX1" s="16"/>
+      <c r="QY1" s="16"/>
+      <c r="QZ1" s="16"/>
+      <c r="RA1" s="16"/>
+      <c r="RB1" s="16"/>
+      <c r="RC1" s="16"/>
+      <c r="RD1" s="16"/>
+      <c r="RE1" s="16"/>
+      <c r="RF1" s="16"/>
+      <c r="RG1" s="16"/>
+      <c r="RH1" s="16"/>
+      <c r="RI1" s="16"/>
+      <c r="RJ1" s="16"/>
+      <c r="RK1" s="16"/>
+      <c r="RL1" s="16"/>
+      <c r="RM1" s="16"/>
+      <c r="RN1" s="16"/>
+      <c r="RO1" s="16"/>
+      <c r="RP1" s="16"/>
+      <c r="RQ1" s="16"/>
+      <c r="RR1" s="16"/>
+      <c r="RS1" s="16"/>
+      <c r="RT1" s="16"/>
+      <c r="RU1" s="16"/>
+      <c r="RV1" s="16"/>
+      <c r="RW1" s="16"/>
+      <c r="RX1" s="16"/>
+      <c r="RY1" s="16"/>
+      <c r="RZ1" s="16"/>
+      <c r="SA1" s="16"/>
+      <c r="SB1" s="16"/>
+      <c r="SC1" s="16"/>
+      <c r="SD1" s="16"/>
+      <c r="SE1" s="16"/>
+      <c r="SF1" s="16"/>
+      <c r="SG1" s="16"/>
+      <c r="SH1" s="16"/>
+      <c r="SI1" s="16"/>
+      <c r="SJ1" s="16"/>
+      <c r="SK1" s="16"/>
+      <c r="SL1" s="16"/>
+      <c r="SM1" s="16"/>
+      <c r="SN1" s="16"/>
+      <c r="SO1" s="16"/>
+      <c r="SP1" s="16"/>
+      <c r="SQ1" s="16"/>
+      <c r="SR1" s="16"/>
+      <c r="SS1" s="16"/>
+      <c r="ST1" s="16"/>
+      <c r="SU1" s="16"/>
+      <c r="SV1" s="16"/>
+      <c r="SW1" s="16"/>
+      <c r="SX1" s="16"/>
+      <c r="SY1" s="16"/>
+      <c r="SZ1" s="16"/>
+      <c r="TA1" s="16"/>
+      <c r="TB1" s="16"/>
+      <c r="TC1" s="16"/>
+      <c r="TD1" s="16"/>
+      <c r="TE1" s="16"/>
+      <c r="TF1" s="16"/>
+      <c r="TG1" s="16"/>
+      <c r="TH1" s="16"/>
+      <c r="TI1" s="16"/>
+      <c r="TJ1" s="16"/>
+      <c r="TK1" s="16"/>
+      <c r="TL1" s="16"/>
+      <c r="TM1" s="16"/>
+      <c r="TN1" s="16"/>
+      <c r="TO1" s="16"/>
+      <c r="TP1" s="16"/>
+      <c r="TQ1" s="16"/>
+      <c r="TR1" s="16"/>
+      <c r="TS1" s="16"/>
+      <c r="TT1" s="16"/>
+      <c r="TU1" s="16"/>
+      <c r="TV1" s="16"/>
+      <c r="TW1" s="16"/>
+      <c r="TX1" s="16"/>
+      <c r="TY1" s="16"/>
+      <c r="TZ1" s="16"/>
+      <c r="UA1" s="16"/>
+      <c r="UB1" s="16"/>
+      <c r="UC1" s="16"/>
+      <c r="UD1" s="16"/>
+      <c r="UE1" s="16"/>
+      <c r="UF1" s="16"/>
+      <c r="UG1" s="16"/>
+      <c r="UH1" s="16"/>
+      <c r="UI1" s="16"/>
+      <c r="UJ1" s="16"/>
+      <c r="UK1" s="16"/>
+      <c r="UL1" s="16"/>
+      <c r="UM1" s="16"/>
+      <c r="UN1" s="16"/>
+      <c r="UO1" s="16"/>
+      <c r="UP1" s="16"/>
+      <c r="UQ1" s="16"/>
+      <c r="UR1" s="16"/>
+      <c r="US1" s="16"/>
+      <c r="UT1" s="16"/>
+      <c r="UU1" s="16"/>
+      <c r="UV1" s="16"/>
+      <c r="UW1" s="16"/>
+      <c r="UX1" s="16"/>
+      <c r="UY1" s="16"/>
+      <c r="UZ1" s="16"/>
+      <c r="VA1" s="16"/>
+      <c r="VB1" s="16"/>
+      <c r="VC1" s="16"/>
+      <c r="VD1" s="16"/>
+      <c r="VE1" s="16"/>
+      <c r="VF1" s="16"/>
+      <c r="VG1" s="16"/>
+      <c r="VH1" s="16"/>
+      <c r="VI1" s="16"/>
+      <c r="VJ1" s="16"/>
+      <c r="VK1" s="16"/>
+      <c r="VL1" s="16"/>
+      <c r="VM1" s="16"/>
+      <c r="VN1" s="16"/>
+      <c r="VO1" s="16"/>
+      <c r="VP1" s="16"/>
+      <c r="VQ1" s="16"/>
+      <c r="VR1" s="16"/>
+      <c r="VS1" s="16"/>
+      <c r="VT1" s="16"/>
+      <c r="VU1" s="16"/>
+      <c r="VV1" s="16"/>
+      <c r="VW1" s="16"/>
+      <c r="VX1" s="16"/>
+      <c r="VY1" s="16"/>
+      <c r="VZ1" s="16"/>
+      <c r="WA1" s="16"/>
+      <c r="WB1" s="16"/>
+      <c r="WC1" s="16"/>
+      <c r="WD1" s="16"/>
+      <c r="WE1" s="16"/>
+      <c r="WF1" s="16"/>
+      <c r="WG1" s="16"/>
+      <c r="WH1" s="16"/>
+      <c r="WI1" s="16"/>
+      <c r="WJ1" s="16"/>
+      <c r="WK1" s="16"/>
+      <c r="WL1" s="16"/>
+      <c r="WM1" s="16"/>
+      <c r="WN1" s="16"/>
+      <c r="WO1" s="16"/>
+      <c r="WP1" s="16"/>
+      <c r="WQ1" s="16"/>
+      <c r="WR1" s="16"/>
+      <c r="WS1" s="16"/>
+      <c r="WT1" s="16"/>
+      <c r="WU1" s="16"/>
+      <c r="WV1" s="16"/>
+      <c r="WW1" s="16"/>
+      <c r="WX1" s="16"/>
+      <c r="WY1" s="16"/>
+      <c r="WZ1" s="16"/>
+      <c r="XA1" s="16"/>
+      <c r="XB1" s="16"/>
+      <c r="XC1" s="16"/>
+      <c r="XD1" s="16"/>
+      <c r="XE1" s="16"/>
+      <c r="XF1" s="16"/>
+      <c r="XG1" s="16"/>
+      <c r="XH1" s="16"/>
+      <c r="XI1" s="16"/>
+      <c r="XJ1" s="16"/>
+      <c r="XK1" s="16"/>
+      <c r="XL1" s="16"/>
+      <c r="XM1" s="16"/>
+      <c r="XN1" s="16"/>
+      <c r="XO1" s="16"/>
+      <c r="XP1" s="16"/>
+      <c r="XQ1" s="16"/>
+      <c r="XR1" s="16"/>
+      <c r="XS1" s="16"/>
+      <c r="XT1" s="16"/>
+      <c r="XU1" s="16"/>
+      <c r="XV1" s="16"/>
+      <c r="XW1" s="16"/>
+      <c r="XX1" s="16"/>
+      <c r="XY1" s="16"/>
+      <c r="XZ1" s="16"/>
+      <c r="YA1" s="16"/>
+      <c r="YB1" s="16"/>
+      <c r="YC1" s="16"/>
+      <c r="YD1" s="16"/>
+      <c r="YE1" s="16"/>
+      <c r="YF1" s="16"/>
+      <c r="YG1" s="16"/>
+      <c r="YH1" s="16"/>
+      <c r="YI1" s="16"/>
+      <c r="YJ1" s="16"/>
+      <c r="YK1" s="16"/>
+      <c r="YL1" s="16"/>
+      <c r="YM1" s="16"/>
+      <c r="YN1" s="16"/>
+      <c r="YO1" s="16"/>
+      <c r="YP1" s="16"/>
+      <c r="YQ1" s="16"/>
+      <c r="YR1" s="16"/>
+      <c r="YS1" s="16"/>
+      <c r="YT1" s="16"/>
+      <c r="YU1" s="16"/>
+      <c r="YV1" s="16"/>
+      <c r="YW1" s="16"/>
+      <c r="YX1" s="16"/>
+      <c r="YY1" s="16"/>
+      <c r="YZ1" s="16"/>
+      <c r="ZA1" s="16"/>
+      <c r="ZB1" s="16"/>
+      <c r="ZC1" s="16"/>
+      <c r="ZD1" s="16"/>
+      <c r="ZE1" s="16"/>
+      <c r="ZF1" s="16"/>
+      <c r="ZG1" s="16"/>
+      <c r="ZH1" s="16"/>
+      <c r="ZI1" s="16"/>
+      <c r="ZJ1" s="16"/>
+      <c r="ZK1" s="16"/>
+      <c r="ZL1" s="16"/>
+      <c r="ZM1" s="16"/>
+      <c r="ZN1" s="16"/>
+      <c r="ZO1" s="16"/>
+      <c r="ZP1" s="16"/>
+      <c r="ZQ1" s="16"/>
+      <c r="ZR1" s="16"/>
+      <c r="ZS1" s="16"/>
+      <c r="ZT1" s="16"/>
+      <c r="ZU1" s="16"/>
+      <c r="ZV1" s="16"/>
+      <c r="ZW1" s="16"/>
+      <c r="ZX1" s="16"/>
+      <c r="ZY1" s="16"/>
+      <c r="ZZ1" s="16"/>
+      <c r="AAA1" s="16"/>
+      <c r="AAB1" s="16"/>
+      <c r="AAC1" s="16"/>
+      <c r="AAD1" s="16"/>
+      <c r="AAE1" s="16"/>
+      <c r="AAF1" s="16"/>
+      <c r="AAG1" s="16"/>
+      <c r="AAH1" s="16"/>
+      <c r="AAI1" s="16"/>
+      <c r="AAJ1" s="16"/>
+      <c r="AAK1" s="16"/>
+      <c r="AAL1" s="16"/>
+      <c r="AAM1" s="16"/>
+      <c r="AAN1" s="16"/>
+      <c r="AAO1" s="16"/>
+      <c r="AAP1" s="16"/>
+      <c r="AAQ1" s="16"/>
+      <c r="AAR1" s="16"/>
+      <c r="AAS1" s="16"/>
+      <c r="AAT1" s="16"/>
+      <c r="AAU1" s="16"/>
+      <c r="AAV1" s="16"/>
+      <c r="AAW1" s="16"/>
+      <c r="AAX1" s="16"/>
+      <c r="AAY1" s="16"/>
+      <c r="AAZ1" s="16"/>
+      <c r="ABA1" s="16"/>
+      <c r="ABB1" s="16"/>
+      <c r="ABC1" s="16"/>
+      <c r="ABD1" s="16"/>
+      <c r="ABE1" s="16"/>
+      <c r="ABF1" s="16"/>
+      <c r="ABG1" s="16"/>
+      <c r="ABH1" s="16"/>
+      <c r="ABI1" s="16"/>
+      <c r="ABJ1" s="16"/>
+      <c r="ABK1" s="16"/>
+      <c r="ABL1" s="16"/>
+      <c r="ABM1" s="16"/>
+      <c r="ABN1" s="16"/>
+      <c r="ABO1" s="16"/>
+      <c r="ABP1" s="16"/>
+      <c r="ABQ1" s="16"/>
+      <c r="ABR1" s="16"/>
+      <c r="ABS1" s="16"/>
+      <c r="ABT1" s="16"/>
+      <c r="ABU1" s="16"/>
+      <c r="ABV1" s="16"/>
+      <c r="ABW1" s="16"/>
+      <c r="ABX1" s="16"/>
+      <c r="ABY1" s="16"/>
+      <c r="ABZ1" s="16"/>
+      <c r="ACA1" s="16"/>
+      <c r="ACB1" s="16"/>
+      <c r="ACC1" s="16"/>
+      <c r="ACD1" s="16"/>
+      <c r="ACE1" s="16"/>
+      <c r="ACF1" s="16"/>
+      <c r="ACG1" s="16"/>
+      <c r="ACH1" s="16"/>
+      <c r="ACI1" s="16"/>
+      <c r="ACJ1" s="16"/>
+      <c r="ACK1" s="16"/>
+      <c r="ACL1" s="16"/>
+      <c r="ACM1" s="16"/>
+      <c r="ACN1" s="16"/>
+      <c r="ACO1" s="16"/>
+      <c r="ACP1" s="16"/>
+      <c r="ACQ1" s="16"/>
+      <c r="ACR1" s="16"/>
+      <c r="ACS1" s="16"/>
+      <c r="ACT1" s="16"/>
+      <c r="ACU1" s="16"/>
+      <c r="ACV1" s="16"/>
+      <c r="ACW1" s="16"/>
+      <c r="ACX1" s="16"/>
+      <c r="ACY1" s="16"/>
+      <c r="ACZ1" s="16"/>
+      <c r="ADA1" s="16"/>
+      <c r="ADB1" s="16"/>
+      <c r="ADC1" s="16"/>
+      <c r="ADD1" s="16"/>
+      <c r="ADE1" s="16"/>
+      <c r="ADF1" s="16"/>
+      <c r="ADG1" s="16"/>
+      <c r="ADH1" s="16"/>
+      <c r="ADI1" s="16"/>
+      <c r="ADJ1" s="16"/>
+      <c r="ADK1" s="16"/>
+      <c r="ADL1" s="16"/>
+      <c r="ADM1" s="16"/>
+      <c r="ADN1" s="16"/>
+      <c r="ADO1" s="16"/>
+      <c r="ADP1" s="16"/>
+      <c r="ADQ1" s="16"/>
+      <c r="ADR1" s="16"/>
+      <c r="ADS1" s="16"/>
+      <c r="ADT1" s="16"/>
+      <c r="ADU1" s="16"/>
+      <c r="ADV1" s="16"/>
+      <c r="ADW1" s="16"/>
+      <c r="ADX1" s="16"/>
+      <c r="ADY1" s="16"/>
+      <c r="ADZ1" s="16"/>
+      <c r="AEA1" s="16"/>
+      <c r="AEB1" s="16"/>
+      <c r="AEC1" s="16"/>
+      <c r="AED1" s="16"/>
+      <c r="AEE1" s="16"/>
+      <c r="AEF1" s="16"/>
+      <c r="AEG1" s="16"/>
+      <c r="AEH1" s="16"/>
+      <c r="AEI1" s="16"/>
+      <c r="AEJ1" s="16"/>
+      <c r="AEK1" s="16"/>
+      <c r="AEL1" s="16"/>
+      <c r="AEM1" s="16"/>
+      <c r="AEN1" s="16"/>
+      <c r="AEO1" s="16"/>
+      <c r="AEP1" s="16"/>
+      <c r="AEQ1" s="16"/>
+      <c r="AER1" s="16"/>
+      <c r="AES1" s="16"/>
+      <c r="AET1" s="16"/>
+      <c r="AEU1" s="16"/>
+      <c r="AEV1" s="16"/>
+      <c r="AEW1" s="16"/>
+      <c r="AEX1" s="16"/>
+      <c r="AEY1" s="16"/>
+      <c r="AEZ1" s="16"/>
+      <c r="AFA1" s="16"/>
+      <c r="AFB1" s="16"/>
+      <c r="AFC1" s="16"/>
+      <c r="AFD1" s="16"/>
+      <c r="AFE1" s="16"/>
+      <c r="AFF1" s="16"/>
+      <c r="AFG1" s="16"/>
+      <c r="AFH1" s="16"/>
+      <c r="AFI1" s="16"/>
+      <c r="AFJ1" s="16"/>
+      <c r="AFK1" s="16"/>
+      <c r="AFL1" s="16"/>
+      <c r="AFM1" s="16"/>
+      <c r="AFN1" s="16"/>
+      <c r="AFO1" s="16"/>
+      <c r="AFP1" s="16"/>
+      <c r="AFQ1" s="16"/>
+      <c r="AFR1" s="16"/>
+      <c r="AFS1" s="16"/>
+      <c r="AFT1" s="16"/>
+      <c r="AFU1" s="16"/>
+      <c r="AFV1" s="16"/>
+      <c r="AFW1" s="16"/>
+      <c r="AFX1" s="16"/>
+      <c r="AFY1" s="16"/>
+      <c r="AFZ1" s="16"/>
+      <c r="AGA1" s="16"/>
+      <c r="AGB1" s="16"/>
+      <c r="AGC1" s="16"/>
+      <c r="AGD1" s="16"/>
+      <c r="AGE1" s="16"/>
+      <c r="AGF1" s="16"/>
+      <c r="AGG1" s="16"/>
+      <c r="AGH1" s="16"/>
+      <c r="AGI1" s="16"/>
+      <c r="AGJ1" s="16"/>
+      <c r="AGK1" s="16"/>
+      <c r="AGL1" s="16"/>
+      <c r="AGM1" s="16"/>
+      <c r="AGN1" s="16"/>
+      <c r="AGO1" s="16"/>
+      <c r="AGP1" s="16"/>
+      <c r="AGQ1" s="16"/>
+      <c r="AGR1" s="16"/>
+      <c r="AGS1" s="16"/>
+      <c r="AGT1" s="16"/>
+      <c r="AGU1" s="16"/>
+      <c r="AGV1" s="16"/>
+      <c r="AGW1" s="16"/>
+      <c r="AGX1" s="16"/>
+      <c r="AGY1" s="16"/>
+      <c r="AGZ1" s="16"/>
+      <c r="AHA1" s="16"/>
+      <c r="AHB1" s="16"/>
+      <c r="AHC1" s="16"/>
+      <c r="AHD1" s="16"/>
+      <c r="AHE1" s="16"/>
+      <c r="AHF1" s="16"/>
+      <c r="AHG1" s="16"/>
+      <c r="AHH1" s="16"/>
+      <c r="AHI1" s="16"/>
+      <c r="AHJ1" s="16"/>
+      <c r="AHK1" s="16"/>
+      <c r="AHL1" s="16"/>
+      <c r="AHM1" s="16"/>
+      <c r="AHN1" s="16"/>
+      <c r="AHO1" s="16"/>
+      <c r="AHP1" s="16"/>
+      <c r="AHQ1" s="16"/>
+      <c r="AHR1" s="16"/>
+      <c r="AHS1" s="16"/>
+      <c r="AHT1" s="16"/>
+      <c r="AHU1" s="16"/>
+      <c r="AHV1" s="16"/>
+      <c r="AHW1" s="16"/>
+      <c r="AHX1" s="16"/>
+      <c r="AHY1" s="16"/>
+      <c r="AHZ1" s="16"/>
+      <c r="AIA1" s="16"/>
+      <c r="AIB1" s="16"/>
+      <c r="AIC1" s="16"/>
+      <c r="AID1" s="16"/>
+      <c r="AIE1" s="16"/>
+      <c r="AIF1" s="16"/>
+      <c r="AIG1" s="16"/>
+      <c r="AIH1" s="16"/>
+      <c r="AII1" s="16"/>
+      <c r="AIJ1" s="16"/>
+      <c r="AIK1" s="16"/>
+      <c r="AIL1" s="16"/>
+      <c r="AIM1" s="16"/>
+      <c r="AIN1" s="16"/>
+      <c r="AIO1" s="16"/>
+      <c r="AIP1" s="16"/>
+      <c r="AIQ1" s="16"/>
+      <c r="AIR1" s="16"/>
+      <c r="AIS1" s="16"/>
+      <c r="AIT1" s="16"/>
+      <c r="AIU1" s="16"/>
+      <c r="AIV1" s="16"/>
+      <c r="AIW1" s="16"/>
+      <c r="AIX1" s="16"/>
+      <c r="AIY1" s="16"/>
+      <c r="AIZ1" s="16"/>
+      <c r="AJA1" s="16"/>
+      <c r="AJB1" s="16"/>
+      <c r="AJC1" s="16"/>
+      <c r="AJD1" s="16"/>
+      <c r="AJE1" s="16"/>
+      <c r="AJF1" s="16"/>
+      <c r="AJG1" s="16"/>
+      <c r="AJH1" s="16"/>
+      <c r="AJI1" s="16"/>
+      <c r="AJJ1" s="16"/>
+      <c r="AJK1" s="16"/>
+      <c r="AJL1" s="16"/>
+      <c r="AJM1" s="16"/>
+      <c r="AJN1" s="16"/>
+      <c r="AJO1" s="16"/>
+      <c r="AJP1" s="16"/>
+      <c r="AJQ1" s="16"/>
+      <c r="AJR1" s="16"/>
+      <c r="AJS1" s="16"/>
+      <c r="AJT1" s="16"/>
+      <c r="AJU1" s="16"/>
+      <c r="AJV1" s="16"/>
+      <c r="AJW1" s="16"/>
+      <c r="AJX1" s="16"/>
+      <c r="AJY1" s="16"/>
+      <c r="AJZ1" s="16"/>
+      <c r="AKA1" s="16"/>
+      <c r="AKB1" s="16"/>
+      <c r="AKC1" s="16"/>
+      <c r="AKD1" s="16"/>
+      <c r="AKE1" s="16"/>
+      <c r="AKF1" s="16"/>
+      <c r="AKG1" s="16"/>
+      <c r="AKH1" s="16"/>
+      <c r="AKI1" s="16"/>
+      <c r="AKJ1" s="16"/>
+      <c r="AKK1" s="16"/>
+      <c r="AKL1" s="16"/>
+      <c r="AKM1" s="16"/>
+      <c r="AKN1" s="16"/>
+      <c r="AKO1" s="16"/>
+      <c r="AKP1" s="16"/>
+      <c r="AKQ1" s="16"/>
+      <c r="AKR1" s="16"/>
+      <c r="AKS1" s="16"/>
+      <c r="AKT1" s="16"/>
+      <c r="AKU1" s="16"/>
+      <c r="AKV1" s="16"/>
+      <c r="AKW1" s="16"/>
+      <c r="AKX1" s="16"/>
+      <c r="AKY1" s="16"/>
+      <c r="AKZ1" s="16"/>
+      <c r="ALA1" s="16"/>
+      <c r="ALB1" s="16"/>
+      <c r="ALC1" s="16"/>
+      <c r="ALD1" s="16"/>
+      <c r="ALE1" s="16"/>
+      <c r="ALF1" s="16"/>
+      <c r="ALG1" s="16"/>
+      <c r="ALH1" s="16"/>
+      <c r="ALI1" s="16"/>
+      <c r="ALJ1" s="16"/>
+      <c r="ALK1" s="16"/>
+      <c r="ALL1" s="16"/>
+      <c r="ALM1" s="16"/>
+      <c r="ALN1" s="16"/>
+      <c r="ALO1" s="16"/>
+      <c r="ALP1" s="16"/>
+      <c r="ALQ1" s="16"/>
+      <c r="ALR1" s="16"/>
+      <c r="ALS1" s="16"/>
+      <c r="ALT1" s="16"/>
+      <c r="ALU1" s="16"/>
+      <c r="ALV1" s="16"/>
+      <c r="ALW1" s="16"/>
+      <c r="ALX1" s="16"/>
+      <c r="ALY1" s="16"/>
+      <c r="ALZ1" s="16"/>
+      <c r="AMA1" s="16"/>
+      <c r="AMB1" s="16"/>
+      <c r="AMC1" s="16"/>
+      <c r="AMD1" s="16"/>
+      <c r="AME1" s="16"/>
+      <c r="AMF1" s="16"/>
+      <c r="AMG1" s="16"/>
+      <c r="AMH1" s="16"/>
+      <c r="AMI1" s="16"/>
+      <c r="AMJ1" s="16"/>
+      <c r="AMK1" s="16"/>
+      <c r="AML1" s="16"/>
+      <c r="AMM1" s="16"/>
+      <c r="AMN1" s="16"/>
+      <c r="AMO1" s="16"/>
+      <c r="AMP1" s="16"/>
       <c r="AMQ1"/>
       <c r="AMR1"/>
       <c r="AMS1"/>
@@ -20415,8 +20434,8 @@
       <c r="XFC1"/>
       <c r="XFD1"/>
     </row>
-    <row r="2" s="15" customFormat="1" ht="15.1" customHeight="1" spans="1:16384">
-      <c r="A2" s="22" t="s">
+    <row r="2" s="16" customFormat="1" ht="15.1" customHeight="1" spans="1:16384">
+      <c r="A2" s="23" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -20453,10 +20472,10 @@
         <v>71</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>40</v>
@@ -35829,10 +35848,10 @@
       <c r="XFD2"/>
     </row>
     <row r="3" customHeight="1" spans="1:18">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="17" t="s">
         <v>74</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -35853,7 +35872,7 @@
       <c r="H3" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="9">
         <v>4.58e-17</v>
       </c>
       <c r="J3" s="1">
@@ -35871,15 +35890,15 @@
       <c r="N3" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="R3" s="16" t="s">
+      <c r="R3" s="17" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:18">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="17" t="s">
         <v>85</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -35916,7 +35935,7 @@
       <c r="N4" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="R4" s="16" t="s">
+      <c r="R4" s="17" t="s">
         <v>88</v>
       </c>
     </row>
@@ -36020,7 +36039,7 @@
       <c r="G2" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H2" s="21"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="1" t="s">
@@ -36041,7 +36060,7 @@
       <c r="G3" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H3" s="21"/>
+      <c r="H3" s="22"/>
     </row>
     <row r="4" customHeight="1" spans="1:8">
       <c r="A4" s="1" t="s">
@@ -36062,7 +36081,7 @@
       <c r="G4" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H4" s="21"/>
+      <c r="H4" s="22"/>
     </row>
     <row r="5" customHeight="1" spans="1:8">
       <c r="A5" s="1" t="s">
@@ -36083,7 +36102,7 @@
       <c r="G5" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H5" s="21"/>
+      <c r="H5" s="22"/>
     </row>
     <row r="6" customHeight="1" spans="1:8">
       <c r="A6" s="1" t="s">
@@ -36104,7 +36123,7 @@
       <c r="G6" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H6" s="21"/>
+      <c r="H6" s="22"/>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="1" t="s">
@@ -36127,16 +36146,16 @@
       </c>
     </row>
     <row r="8" customHeight="1" spans="8:8">
-      <c r="H8" s="16"/>
+      <c r="H8" s="17"/>
     </row>
     <row r="9" customHeight="1" spans="8:8">
-      <c r="H9" s="16"/>
+      <c r="H9" s="17"/>
     </row>
     <row r="10" customHeight="1" spans="8:8">
-      <c r="H10" s="16"/>
+      <c r="H10" s="17"/>
     </row>
     <row r="11" customHeight="1" spans="8:8">
-      <c r="H11" s="18"/>
+      <c r="H11" s="19"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I7">
@@ -36182,7 +36201,7 @@
         <v>114</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>40</v>
@@ -36202,7 +36221,7 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>94</v>
@@ -36211,12 +36230,12 @@
         <v>78</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>98</v>
@@ -36225,12 +36244,12 @@
         <v>78</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>98</v>
@@ -36239,12 +36258,12 @@
         <v>73</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>104</v>
@@ -36253,12 +36272,12 @@
         <v>73</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>107</v>
@@ -36267,12 +36286,12 @@
         <v>73</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>110</v>
@@ -36281,12 +36300,12 @@
         <v>73</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>94</v>
@@ -36295,12 +36314,12 @@
         <v>73</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>101</v>
@@ -36309,7 +36328,7 @@
         <v>73</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -36363,16 +36382,16 @@
         <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>125</v>
+        <v>67</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>127</v>
+        <v>69</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>40</v>
@@ -36392,104 +36411,104 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E2" s="22">
         <v>0.000148</v>
       </c>
-      <c r="G2" s="21" t="s">
-        <v>129</v>
+      <c r="G2" s="22" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="22">
         <v>0.0002</v>
       </c>
-      <c r="G3" s="21" t="s">
-        <v>129</v>
+      <c r="G3" s="22" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="22">
         <v>0.0005</v>
       </c>
-      <c r="G4" s="21" t="s">
-        <v>129</v>
+      <c r="G4" s="22" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="22">
         <v>0.0005</v>
       </c>
-      <c r="G5" s="21" t="s">
-        <v>129</v>
+      <c r="G5" s="22" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="22">
         <v>0.001</v>
       </c>
-      <c r="G6" s="21" t="s">
-        <v>129</v>
+      <c r="G6" s="22" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="22">
         <v>0.002</v>
       </c>
-      <c r="G7" s="21" t="s">
-        <v>129</v>
+      <c r="G7" s="22" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/tests/multialgorithm/fixtures/test_new_features_model.xlsx
+++ b/tests/multialgorithm/fixtures/test_new_features_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14070" tabRatio="993" firstSheet="9" activeTab="19"/>
+    <workbookView windowWidth="28695" windowHeight="14070" tabRatio="993" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Table of contents" sheetId="24" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="235">
   <si>
     <t>Table</t>
   </si>
@@ -284,9 +284,6 @@
     <t>Initial density</t>
   </si>
   <si>
-    <t>Value</t>
-  </si>
-  <si>
     <t>c</t>
   </si>
   <si>
@@ -476,7 +473,7 @@
     <t>e / density_c</t>
   </si>
   <si>
-    <t>Flux</t>
+    <t>Flux bounds</t>
   </si>
   <si>
     <t>Submodel</t>
@@ -603,6 +600,9 @@
   </si>
   <si>
     <t>dFBA objective reaction</t>
+  </si>
+  <si>
+    <t>Value</t>
   </si>
   <si>
     <t>dfba-net-species-Metabolism_biomass-specie_2[c]</t>
@@ -779,11 +779,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="0.000E+00"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -840,30 +840,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -892,6 +868,22 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -906,9 +898,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -921,23 +919,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -952,14 +944,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -968,6 +953,21 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -994,7 +994,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1006,31 +1054,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1042,43 +1114,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1090,7 +1132,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1102,79 +1168,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1231,32 +1231,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1271,11 +1245,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1294,138 +1274,158 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1471,9 +1471,6 @@
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1494,6 +1491,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="35" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2183,7 +2183,7 @@
         <v>27</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>70</v>
@@ -2243,7 +2243,7 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>70</v>
@@ -2266,24 +2266,24 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2306,43 +2306,43 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1:N2"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="17.8916666666667" style="17"/>
-    <col min="2" max="2" width="25.6" style="17"/>
-    <col min="3" max="3" width="14.8916666666667" style="17"/>
-    <col min="4" max="4" width="46.75" style="17" customWidth="1"/>
-    <col min="5" max="6" width="8.78333333333333" style="17"/>
-    <col min="7" max="8" width="8.78333333333333" style="18"/>
-    <col min="9" max="9" width="11.7833333333333" style="17"/>
-    <col min="10" max="10" width="11.0333333333333" style="17"/>
-    <col min="11" max="1023" width="8.78333333333333" style="17"/>
-    <col min="1024" max="1027" width="8.78333333333333" style="15"/>
-    <col min="1028" max="16384" width="9" style="15"/>
+    <col min="1" max="1" width="17.8916666666667" style="16"/>
+    <col min="2" max="2" width="25.6" style="16"/>
+    <col min="3" max="3" width="14.8916666666667" style="16"/>
+    <col min="4" max="4" width="46.75" style="16" customWidth="1"/>
+    <col min="5" max="6" width="8.78333333333333" style="16"/>
+    <col min="7" max="8" width="8.78333333333333" style="17"/>
+    <col min="9" max="9" width="11.7833333333333" style="16"/>
+    <col min="10" max="10" width="11.0333333333333" style="16"/>
+    <col min="11" max="1023" width="8.78333333333333" style="16"/>
+    <col min="1024" max="1027" width="8.78333333333333" style="14"/>
+    <col min="1028" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:14">
-      <c r="A1" s="16"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
+      <c r="A1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
     </row>
-    <row r="2" s="16" customFormat="1" customHeight="1" spans="1:1026">
+    <row r="2" s="15" customFormat="1" customHeight="1" spans="1:1026">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -2350,22 +2350,22 @@
         <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>70</v>
@@ -2385,113 +2385,113 @@
       <c r="N2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AMJ2" s="15"/>
-      <c r="AMK2" s="15"/>
-      <c r="AML2" s="15"/>
+      <c r="AMJ2" s="14"/>
+      <c r="AMK2" s="14"/>
+      <c r="AML2" s="14"/>
     </row>
     <row r="3" customHeight="1" spans="1:10">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="C3" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="17" t="s">
+      <c r="E3" s="17">
+        <v>0</v>
+      </c>
+      <c r="F3" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="E3" s="18">
+      <c r="G3" s="17">
         <v>0</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="H3" s="17">
+        <v>1</v>
+      </c>
+      <c r="I3" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="G3" s="18">
-        <v>0</v>
-      </c>
-      <c r="H3" s="18">
-        <v>1</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="J3" s="21"/>
+      <c r="J3" s="20"/>
     </row>
     <row r="4" customHeight="1" spans="1:10">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="C4" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="E4" s="18">
+      <c r="E4" s="17">
         <v>0</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" s="17">
+        <v>1</v>
+      </c>
+      <c r="H4" s="17">
+        <v>2</v>
+      </c>
+      <c r="I4" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="G4" s="18">
-        <v>1</v>
-      </c>
-      <c r="H4" s="18">
-        <v>2</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="J4" s="21"/>
+      <c r="J4" s="20"/>
     </row>
     <row r="5" customHeight="1" spans="1:10">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="C5" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="E5" s="18">
+      <c r="E5" s="17">
         <v>1</v>
       </c>
-      <c r="F5" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
+      <c r="F5" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
     </row>
     <row r="6" customHeight="1" spans="1:10">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="C6" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="E6" s="18">
+      <c r="E6" s="17">
         <v>0</v>
       </c>
-      <c r="F6" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
+      <c r="F6" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:D6">
@@ -2538,16 +2538,16 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>70</v>
@@ -2570,116 +2570,116 @@
     </row>
     <row r="2" customHeight="1" spans="1:11">
       <c r="A2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
+        <v>145</v>
+      </c>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
     </row>
     <row r="3" customHeight="1" spans="1:11">
       <c r="A3" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
+        <v>145</v>
+      </c>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
     </row>
     <row r="4" customHeight="1" spans="1:11">
       <c r="A4" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
+        <v>145</v>
+      </c>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
     </row>
     <row r="5" customHeight="1" spans="1:13">
       <c r="A5" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
+        <v>145</v>
+      </c>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
       <c r="M5" s="9"/>
     </row>
     <row r="6" customHeight="1" spans="1:13">
       <c r="A6" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
+        <v>145</v>
+      </c>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
       <c r="M6" s="9"/>
     </row>
     <row r="7" customHeight="1" spans="8:11">
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2691,89 +2691,80 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O6" sqref="O6"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="4:5">
-      <c r="D1" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="E1" s="14"/>
+    <row r="1" customHeight="1" spans="1:12">
+      <c r="A1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" customHeight="1" spans="1:12">
-      <c r="A2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="G2" s="2" t="s">
+    <row r="2" customHeight="1" spans="1:7">
+      <c r="A2" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:7">
-      <c r="A3" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D1:E1"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -2808,13 +2799,13 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>70</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>40</v>
@@ -2834,22 +2825,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -2894,13 +2885,13 @@
         <v>27</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>72</v>
+        <v>178</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>70</v>
@@ -2929,16 +2920,16 @@
         <v>180</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E2" s="13">
         <v>-1</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2984,10 +2975,10 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>72</v>
+        <v>178</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>181</v>
@@ -3022,7 +3013,7 @@
         <v>0.3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>184</v>
@@ -3067,7 +3058,7 @@
         <v>0.0003</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
@@ -3109,12 +3100,12 @@
         <v>0.001</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D9" s="1">
         <v>1100</v>
@@ -3125,7 +3116,7 @@
     </row>
     <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D10" s="1">
         <v>1000</v>
@@ -3182,7 +3173,7 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>70</v>
@@ -3261,7 +3252,7 @@
         <v>27</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>72</v>
+        <v>178</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>181</v>
@@ -3270,7 +3261,7 @@
         <v>70</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>4</v>
@@ -3461,7 +3452,7 @@
   <sheetPr/>
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -3491,7 +3482,7 @@
         <v>27</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>72</v>
+        <v>178</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>181</v>
@@ -3500,7 +3491,7 @@
         <v>70</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>27</v>
@@ -3613,7 +3604,7 @@
         <v>210</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>211</v>
@@ -3748,7 +3739,7 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>227</v>
@@ -4029,1058 +4020,1058 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="$A1:$XFD2"/>
+      <selection pane="bottomRight" activeCell="M1" sqref="M1:P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="5.14166666666667" style="17"/>
-    <col min="2" max="3" width="17.5666666666667" style="17"/>
-    <col min="4" max="5" width="13.2833333333333" style="17"/>
-    <col min="6" max="7" width="8.375" style="17" customWidth="1"/>
-    <col min="8" max="8" width="10.8166666666667" style="17"/>
-    <col min="9" max="1031" width="8.78333333333333" style="17"/>
-    <col min="1032" max="1033" width="8.78333333333333" style="15"/>
-    <col min="1034" max="16384" width="9" style="15"/>
+    <col min="1" max="1" width="5.14166666666667" style="16"/>
+    <col min="2" max="3" width="17.5666666666667" style="16"/>
+    <col min="4" max="5" width="13.2833333333333" style="16"/>
+    <col min="6" max="7" width="8.375" style="16" customWidth="1"/>
+    <col min="8" max="8" width="10.8166666666667" style="16"/>
+    <col min="9" max="1033" width="8.78333333333333" style="16"/>
+    <col min="1034" max="1035" width="8.78333333333333" style="14"/>
+    <col min="1036" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:16384">
-      <c r="A1" s="16"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="14" t="s">
+      <c r="A1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="14" t="s">
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="N1" s="14"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="16"/>
-      <c r="AE1" s="16"/>
-      <c r="AF1" s="16"/>
-      <c r="AG1" s="16"/>
-      <c r="AH1" s="16"/>
-      <c r="AI1" s="16"/>
-      <c r="AJ1" s="16"/>
-      <c r="AK1" s="16"/>
-      <c r="AL1" s="16"/>
-      <c r="AM1" s="16"/>
-      <c r="AN1" s="16"/>
-      <c r="AO1" s="16"/>
-      <c r="AP1" s="16"/>
-      <c r="AQ1" s="16"/>
-      <c r="AR1" s="16"/>
-      <c r="AS1" s="16"/>
-      <c r="AT1" s="16"/>
-      <c r="AU1" s="16"/>
-      <c r="AV1" s="16"/>
-      <c r="AW1" s="16"/>
-      <c r="AX1" s="16"/>
-      <c r="AY1" s="16"/>
-      <c r="AZ1" s="16"/>
-      <c r="BA1" s="16"/>
-      <c r="BB1" s="16"/>
-      <c r="BC1" s="16"/>
-      <c r="BD1" s="16"/>
-      <c r="BE1" s="16"/>
-      <c r="BF1" s="16"/>
-      <c r="BG1" s="16"/>
-      <c r="BH1" s="16"/>
-      <c r="BI1" s="16"/>
-      <c r="BJ1" s="16"/>
-      <c r="BK1" s="16"/>
-      <c r="BL1" s="16"/>
-      <c r="BM1" s="16"/>
-      <c r="BN1" s="16"/>
-      <c r="BO1" s="16"/>
-      <c r="BP1" s="16"/>
-      <c r="BQ1" s="16"/>
-      <c r="BR1" s="16"/>
-      <c r="BS1" s="16"/>
-      <c r="BT1" s="16"/>
-      <c r="BU1" s="16"/>
-      <c r="BV1" s="16"/>
-      <c r="BW1" s="16"/>
-      <c r="BX1" s="16"/>
-      <c r="BY1" s="16"/>
-      <c r="BZ1" s="16"/>
-      <c r="CA1" s="16"/>
-      <c r="CB1" s="16"/>
-      <c r="CC1" s="16"/>
-      <c r="CD1" s="16"/>
-      <c r="CE1" s="16"/>
-      <c r="CF1" s="16"/>
-      <c r="CG1" s="16"/>
-      <c r="CH1" s="16"/>
-      <c r="CI1" s="16"/>
-      <c r="CJ1" s="16"/>
-      <c r="CK1" s="16"/>
-      <c r="CL1" s="16"/>
-      <c r="CM1" s="16"/>
-      <c r="CN1" s="16"/>
-      <c r="CO1" s="16"/>
-      <c r="CP1" s="16"/>
-      <c r="CQ1" s="16"/>
-      <c r="CR1" s="16"/>
-      <c r="CS1" s="16"/>
-      <c r="CT1" s="16"/>
-      <c r="CU1" s="16"/>
-      <c r="CV1" s="16"/>
-      <c r="CW1" s="16"/>
-      <c r="CX1" s="16"/>
-      <c r="CY1" s="16"/>
-      <c r="CZ1" s="16"/>
-      <c r="DA1" s="16"/>
-      <c r="DB1" s="16"/>
-      <c r="DC1" s="16"/>
-      <c r="DD1" s="16"/>
-      <c r="DE1" s="16"/>
-      <c r="DF1" s="16"/>
-      <c r="DG1" s="16"/>
-      <c r="DH1" s="16"/>
-      <c r="DI1" s="16"/>
-      <c r="DJ1" s="16"/>
-      <c r="DK1" s="16"/>
-      <c r="DL1" s="16"/>
-      <c r="DM1" s="16"/>
-      <c r="DN1" s="16"/>
-      <c r="DO1" s="16"/>
-      <c r="DP1" s="16"/>
-      <c r="DQ1" s="16"/>
-      <c r="DR1" s="16"/>
-      <c r="DS1" s="16"/>
-      <c r="DT1" s="16"/>
-      <c r="DU1" s="16"/>
-      <c r="DV1" s="16"/>
-      <c r="DW1" s="16"/>
-      <c r="DX1" s="16"/>
-      <c r="DY1" s="16"/>
-      <c r="DZ1" s="16"/>
-      <c r="EA1" s="16"/>
-      <c r="EB1" s="16"/>
-      <c r="EC1" s="16"/>
-      <c r="ED1" s="16"/>
-      <c r="EE1" s="16"/>
-      <c r="EF1" s="16"/>
-      <c r="EG1" s="16"/>
-      <c r="EH1" s="16"/>
-      <c r="EI1" s="16"/>
-      <c r="EJ1" s="16"/>
-      <c r="EK1" s="16"/>
-      <c r="EL1" s="16"/>
-      <c r="EM1" s="16"/>
-      <c r="EN1" s="16"/>
-      <c r="EO1" s="16"/>
-      <c r="EP1" s="16"/>
-      <c r="EQ1" s="16"/>
-      <c r="ER1" s="16"/>
-      <c r="ES1" s="16"/>
-      <c r="ET1" s="16"/>
-      <c r="EU1" s="16"/>
-      <c r="EV1" s="16"/>
-      <c r="EW1" s="16"/>
-      <c r="EX1" s="16"/>
-      <c r="EY1" s="16"/>
-      <c r="EZ1" s="16"/>
-      <c r="FA1" s="16"/>
-      <c r="FB1" s="16"/>
-      <c r="FC1" s="16"/>
-      <c r="FD1" s="16"/>
-      <c r="FE1" s="16"/>
-      <c r="FF1" s="16"/>
-      <c r="FG1" s="16"/>
-      <c r="FH1" s="16"/>
-      <c r="FI1" s="16"/>
-      <c r="FJ1" s="16"/>
-      <c r="FK1" s="16"/>
-      <c r="FL1" s="16"/>
-      <c r="FM1" s="16"/>
-      <c r="FN1" s="16"/>
-      <c r="FO1" s="16"/>
-      <c r="FP1" s="16"/>
-      <c r="FQ1" s="16"/>
-      <c r="FR1" s="16"/>
-      <c r="FS1" s="16"/>
-      <c r="FT1" s="16"/>
-      <c r="FU1" s="16"/>
-      <c r="FV1" s="16"/>
-      <c r="FW1" s="16"/>
-      <c r="FX1" s="16"/>
-      <c r="FY1" s="16"/>
-      <c r="FZ1" s="16"/>
-      <c r="GA1" s="16"/>
-      <c r="GB1" s="16"/>
-      <c r="GC1" s="16"/>
-      <c r="GD1" s="16"/>
-      <c r="GE1" s="16"/>
-      <c r="GF1" s="16"/>
-      <c r="GG1" s="16"/>
-      <c r="GH1" s="16"/>
-      <c r="GI1" s="16"/>
-      <c r="GJ1" s="16"/>
-      <c r="GK1" s="16"/>
-      <c r="GL1" s="16"/>
-      <c r="GM1" s="16"/>
-      <c r="GN1" s="16"/>
-      <c r="GO1" s="16"/>
-      <c r="GP1" s="16"/>
-      <c r="GQ1" s="16"/>
-      <c r="GR1" s="16"/>
-      <c r="GS1" s="16"/>
-      <c r="GT1" s="16"/>
-      <c r="GU1" s="16"/>
-      <c r="GV1" s="16"/>
-      <c r="GW1" s="16"/>
-      <c r="GX1" s="16"/>
-      <c r="GY1" s="16"/>
-      <c r="GZ1" s="16"/>
-      <c r="HA1" s="16"/>
-      <c r="HB1" s="16"/>
-      <c r="HC1" s="16"/>
-      <c r="HD1" s="16"/>
-      <c r="HE1" s="16"/>
-      <c r="HF1" s="16"/>
-      <c r="HG1" s="16"/>
-      <c r="HH1" s="16"/>
-      <c r="HI1" s="16"/>
-      <c r="HJ1" s="16"/>
-      <c r="HK1" s="16"/>
-      <c r="HL1" s="16"/>
-      <c r="HM1" s="16"/>
-      <c r="HN1" s="16"/>
-      <c r="HO1" s="16"/>
-      <c r="HP1" s="16"/>
-      <c r="HQ1" s="16"/>
-      <c r="HR1" s="16"/>
-      <c r="HS1" s="16"/>
-      <c r="HT1" s="16"/>
-      <c r="HU1" s="16"/>
-      <c r="HV1" s="16"/>
-      <c r="HW1" s="16"/>
-      <c r="HX1" s="16"/>
-      <c r="HY1" s="16"/>
-      <c r="HZ1" s="16"/>
-      <c r="IA1" s="16"/>
-      <c r="IB1" s="16"/>
-      <c r="IC1" s="16"/>
-      <c r="ID1" s="16"/>
-      <c r="IE1" s="16"/>
-      <c r="IF1" s="16"/>
-      <c r="IG1" s="16"/>
-      <c r="IH1" s="16"/>
-      <c r="II1" s="16"/>
-      <c r="IJ1" s="16"/>
-      <c r="IK1" s="16"/>
-      <c r="IL1" s="16"/>
-      <c r="IM1" s="16"/>
-      <c r="IN1" s="16"/>
-      <c r="IO1" s="16"/>
-      <c r="IP1" s="16"/>
-      <c r="IQ1" s="16"/>
-      <c r="IR1" s="16"/>
-      <c r="IS1" s="16"/>
-      <c r="IT1" s="16"/>
-      <c r="IU1" s="16"/>
-      <c r="IV1" s="16"/>
-      <c r="IW1" s="16"/>
-      <c r="IX1" s="16"/>
-      <c r="IY1" s="16"/>
-      <c r="IZ1" s="16"/>
-      <c r="JA1" s="16"/>
-      <c r="JB1" s="16"/>
-      <c r="JC1" s="16"/>
-      <c r="JD1" s="16"/>
-      <c r="JE1" s="16"/>
-      <c r="JF1" s="16"/>
-      <c r="JG1" s="16"/>
-      <c r="JH1" s="16"/>
-      <c r="JI1" s="16"/>
-      <c r="JJ1" s="16"/>
-      <c r="JK1" s="16"/>
-      <c r="JL1" s="16"/>
-      <c r="JM1" s="16"/>
-      <c r="JN1" s="16"/>
-      <c r="JO1" s="16"/>
-      <c r="JP1" s="16"/>
-      <c r="JQ1" s="16"/>
-      <c r="JR1" s="16"/>
-      <c r="JS1" s="16"/>
-      <c r="JT1" s="16"/>
-      <c r="JU1" s="16"/>
-      <c r="JV1" s="16"/>
-      <c r="JW1" s="16"/>
-      <c r="JX1" s="16"/>
-      <c r="JY1" s="16"/>
-      <c r="JZ1" s="16"/>
-      <c r="KA1" s="16"/>
-      <c r="KB1" s="16"/>
-      <c r="KC1" s="16"/>
-      <c r="KD1" s="16"/>
-      <c r="KE1" s="16"/>
-      <c r="KF1" s="16"/>
-      <c r="KG1" s="16"/>
-      <c r="KH1" s="16"/>
-      <c r="KI1" s="16"/>
-      <c r="KJ1" s="16"/>
-      <c r="KK1" s="16"/>
-      <c r="KL1" s="16"/>
-      <c r="KM1" s="16"/>
-      <c r="KN1" s="16"/>
-      <c r="KO1" s="16"/>
-      <c r="KP1" s="16"/>
-      <c r="KQ1" s="16"/>
-      <c r="KR1" s="16"/>
-      <c r="KS1" s="16"/>
-      <c r="KT1" s="16"/>
-      <c r="KU1" s="16"/>
-      <c r="KV1" s="16"/>
-      <c r="KW1" s="16"/>
-      <c r="KX1" s="16"/>
-      <c r="KY1" s="16"/>
-      <c r="KZ1" s="16"/>
-      <c r="LA1" s="16"/>
-      <c r="LB1" s="16"/>
-      <c r="LC1" s="16"/>
-      <c r="LD1" s="16"/>
-      <c r="LE1" s="16"/>
-      <c r="LF1" s="16"/>
-      <c r="LG1" s="16"/>
-      <c r="LH1" s="16"/>
-      <c r="LI1" s="16"/>
-      <c r="LJ1" s="16"/>
-      <c r="LK1" s="16"/>
-      <c r="LL1" s="16"/>
-      <c r="LM1" s="16"/>
-      <c r="LN1" s="16"/>
-      <c r="LO1" s="16"/>
-      <c r="LP1" s="16"/>
-      <c r="LQ1" s="16"/>
-      <c r="LR1" s="16"/>
-      <c r="LS1" s="16"/>
-      <c r="LT1" s="16"/>
-      <c r="LU1" s="16"/>
-      <c r="LV1" s="16"/>
-      <c r="LW1" s="16"/>
-      <c r="LX1" s="16"/>
-      <c r="LY1" s="16"/>
-      <c r="LZ1" s="16"/>
-      <c r="MA1" s="16"/>
-      <c r="MB1" s="16"/>
-      <c r="MC1" s="16"/>
-      <c r="MD1" s="16"/>
-      <c r="ME1" s="16"/>
-      <c r="MF1" s="16"/>
-      <c r="MG1" s="16"/>
-      <c r="MH1" s="16"/>
-      <c r="MI1" s="16"/>
-      <c r="MJ1" s="16"/>
-      <c r="MK1" s="16"/>
-      <c r="ML1" s="16"/>
-      <c r="MM1" s="16"/>
-      <c r="MN1" s="16"/>
-      <c r="MO1" s="16"/>
-      <c r="MP1" s="16"/>
-      <c r="MQ1" s="16"/>
-      <c r="MR1" s="16"/>
-      <c r="MS1" s="16"/>
-      <c r="MT1" s="16"/>
-      <c r="MU1" s="16"/>
-      <c r="MV1" s="16"/>
-      <c r="MW1" s="16"/>
-      <c r="MX1" s="16"/>
-      <c r="MY1" s="16"/>
-      <c r="MZ1" s="16"/>
-      <c r="NA1" s="16"/>
-      <c r="NB1" s="16"/>
-      <c r="NC1" s="16"/>
-      <c r="ND1" s="16"/>
-      <c r="NE1" s="16"/>
-      <c r="NF1" s="16"/>
-      <c r="NG1" s="16"/>
-      <c r="NH1" s="16"/>
-      <c r="NI1" s="16"/>
-      <c r="NJ1" s="16"/>
-      <c r="NK1" s="16"/>
-      <c r="NL1" s="16"/>
-      <c r="NM1" s="16"/>
-      <c r="NN1" s="16"/>
-      <c r="NO1" s="16"/>
-      <c r="NP1" s="16"/>
-      <c r="NQ1" s="16"/>
-      <c r="NR1" s="16"/>
-      <c r="NS1" s="16"/>
-      <c r="NT1" s="16"/>
-      <c r="NU1" s="16"/>
-      <c r="NV1" s="16"/>
-      <c r="NW1" s="16"/>
-      <c r="NX1" s="16"/>
-      <c r="NY1" s="16"/>
-      <c r="NZ1" s="16"/>
-      <c r="OA1" s="16"/>
-      <c r="OB1" s="16"/>
-      <c r="OC1" s="16"/>
-      <c r="OD1" s="16"/>
-      <c r="OE1" s="16"/>
-      <c r="OF1" s="16"/>
-      <c r="OG1" s="16"/>
-      <c r="OH1" s="16"/>
-      <c r="OI1" s="16"/>
-      <c r="OJ1" s="16"/>
-      <c r="OK1" s="16"/>
-      <c r="OL1" s="16"/>
-      <c r="OM1" s="16"/>
-      <c r="ON1" s="16"/>
-      <c r="OO1" s="16"/>
-      <c r="OP1" s="16"/>
-      <c r="OQ1" s="16"/>
-      <c r="OR1" s="16"/>
-      <c r="OS1" s="16"/>
-      <c r="OT1" s="16"/>
-      <c r="OU1" s="16"/>
-      <c r="OV1" s="16"/>
-      <c r="OW1" s="16"/>
-      <c r="OX1" s="16"/>
-      <c r="OY1" s="16"/>
-      <c r="OZ1" s="16"/>
-      <c r="PA1" s="16"/>
-      <c r="PB1" s="16"/>
-      <c r="PC1" s="16"/>
-      <c r="PD1" s="16"/>
-      <c r="PE1" s="16"/>
-      <c r="PF1" s="16"/>
-      <c r="PG1" s="16"/>
-      <c r="PH1" s="16"/>
-      <c r="PI1" s="16"/>
-      <c r="PJ1" s="16"/>
-      <c r="PK1" s="16"/>
-      <c r="PL1" s="16"/>
-      <c r="PM1" s="16"/>
-      <c r="PN1" s="16"/>
-      <c r="PO1" s="16"/>
-      <c r="PP1" s="16"/>
-      <c r="PQ1" s="16"/>
-      <c r="PR1" s="16"/>
-      <c r="PS1" s="16"/>
-      <c r="PT1" s="16"/>
-      <c r="PU1" s="16"/>
-      <c r="PV1" s="16"/>
-      <c r="PW1" s="16"/>
-      <c r="PX1" s="16"/>
-      <c r="PY1" s="16"/>
-      <c r="PZ1" s="16"/>
-      <c r="QA1" s="16"/>
-      <c r="QB1" s="16"/>
-      <c r="QC1" s="16"/>
-      <c r="QD1" s="16"/>
-      <c r="QE1" s="16"/>
-      <c r="QF1" s="16"/>
-      <c r="QG1" s="16"/>
-      <c r="QH1" s="16"/>
-      <c r="QI1" s="16"/>
-      <c r="QJ1" s="16"/>
-      <c r="QK1" s="16"/>
-      <c r="QL1" s="16"/>
-      <c r="QM1" s="16"/>
-      <c r="QN1" s="16"/>
-      <c r="QO1" s="16"/>
-      <c r="QP1" s="16"/>
-      <c r="QQ1" s="16"/>
-      <c r="QR1" s="16"/>
-      <c r="QS1" s="16"/>
-      <c r="QT1" s="16"/>
-      <c r="QU1" s="16"/>
-      <c r="QV1" s="16"/>
-      <c r="QW1" s="16"/>
-      <c r="QX1" s="16"/>
-      <c r="QY1" s="16"/>
-      <c r="QZ1" s="16"/>
-      <c r="RA1" s="16"/>
-      <c r="RB1" s="16"/>
-      <c r="RC1" s="16"/>
-      <c r="RD1" s="16"/>
-      <c r="RE1" s="16"/>
-      <c r="RF1" s="16"/>
-      <c r="RG1" s="16"/>
-      <c r="RH1" s="16"/>
-      <c r="RI1" s="16"/>
-      <c r="RJ1" s="16"/>
-      <c r="RK1" s="16"/>
-      <c r="RL1" s="16"/>
-      <c r="RM1" s="16"/>
-      <c r="RN1" s="16"/>
-      <c r="RO1" s="16"/>
-      <c r="RP1" s="16"/>
-      <c r="RQ1" s="16"/>
-      <c r="RR1" s="16"/>
-      <c r="RS1" s="16"/>
-      <c r="RT1" s="16"/>
-      <c r="RU1" s="16"/>
-      <c r="RV1" s="16"/>
-      <c r="RW1" s="16"/>
-      <c r="RX1" s="16"/>
-      <c r="RY1" s="16"/>
-      <c r="RZ1" s="16"/>
-      <c r="SA1" s="16"/>
-      <c r="SB1" s="16"/>
-      <c r="SC1" s="16"/>
-      <c r="SD1" s="16"/>
-      <c r="SE1" s="16"/>
-      <c r="SF1" s="16"/>
-      <c r="SG1" s="16"/>
-      <c r="SH1" s="16"/>
-      <c r="SI1" s="16"/>
-      <c r="SJ1" s="16"/>
-      <c r="SK1" s="16"/>
-      <c r="SL1" s="16"/>
-      <c r="SM1" s="16"/>
-      <c r="SN1" s="16"/>
-      <c r="SO1" s="16"/>
-      <c r="SP1" s="16"/>
-      <c r="SQ1" s="16"/>
-      <c r="SR1" s="16"/>
-      <c r="SS1" s="16"/>
-      <c r="ST1" s="16"/>
-      <c r="SU1" s="16"/>
-      <c r="SV1" s="16"/>
-      <c r="SW1" s="16"/>
-      <c r="SX1" s="16"/>
-      <c r="SY1" s="16"/>
-      <c r="SZ1" s="16"/>
-      <c r="TA1" s="16"/>
-      <c r="TB1" s="16"/>
-      <c r="TC1" s="16"/>
-      <c r="TD1" s="16"/>
-      <c r="TE1" s="16"/>
-      <c r="TF1" s="16"/>
-      <c r="TG1" s="16"/>
-      <c r="TH1" s="16"/>
-      <c r="TI1" s="16"/>
-      <c r="TJ1" s="16"/>
-      <c r="TK1" s="16"/>
-      <c r="TL1" s="16"/>
-      <c r="TM1" s="16"/>
-      <c r="TN1" s="16"/>
-      <c r="TO1" s="16"/>
-      <c r="TP1" s="16"/>
-      <c r="TQ1" s="16"/>
-      <c r="TR1" s="16"/>
-      <c r="TS1" s="16"/>
-      <c r="TT1" s="16"/>
-      <c r="TU1" s="16"/>
-      <c r="TV1" s="16"/>
-      <c r="TW1" s="16"/>
-      <c r="TX1" s="16"/>
-      <c r="TY1" s="16"/>
-      <c r="TZ1" s="16"/>
-      <c r="UA1" s="16"/>
-      <c r="UB1" s="16"/>
-      <c r="UC1" s="16"/>
-      <c r="UD1" s="16"/>
-      <c r="UE1" s="16"/>
-      <c r="UF1" s="16"/>
-      <c r="UG1" s="16"/>
-      <c r="UH1" s="16"/>
-      <c r="UI1" s="16"/>
-      <c r="UJ1" s="16"/>
-      <c r="UK1" s="16"/>
-      <c r="UL1" s="16"/>
-      <c r="UM1" s="16"/>
-      <c r="UN1" s="16"/>
-      <c r="UO1" s="16"/>
-      <c r="UP1" s="16"/>
-      <c r="UQ1" s="16"/>
-      <c r="UR1" s="16"/>
-      <c r="US1" s="16"/>
-      <c r="UT1" s="16"/>
-      <c r="UU1" s="16"/>
-      <c r="UV1" s="16"/>
-      <c r="UW1" s="16"/>
-      <c r="UX1" s="16"/>
-      <c r="UY1" s="16"/>
-      <c r="UZ1" s="16"/>
-      <c r="VA1" s="16"/>
-      <c r="VB1" s="16"/>
-      <c r="VC1" s="16"/>
-      <c r="VD1" s="16"/>
-      <c r="VE1" s="16"/>
-      <c r="VF1" s="16"/>
-      <c r="VG1" s="16"/>
-      <c r="VH1" s="16"/>
-      <c r="VI1" s="16"/>
-      <c r="VJ1" s="16"/>
-      <c r="VK1" s="16"/>
-      <c r="VL1" s="16"/>
-      <c r="VM1" s="16"/>
-      <c r="VN1" s="16"/>
-      <c r="VO1" s="16"/>
-      <c r="VP1" s="16"/>
-      <c r="VQ1" s="16"/>
-      <c r="VR1" s="16"/>
-      <c r="VS1" s="16"/>
-      <c r="VT1" s="16"/>
-      <c r="VU1" s="16"/>
-      <c r="VV1" s="16"/>
-      <c r="VW1" s="16"/>
-      <c r="VX1" s="16"/>
-      <c r="VY1" s="16"/>
-      <c r="VZ1" s="16"/>
-      <c r="WA1" s="16"/>
-      <c r="WB1" s="16"/>
-      <c r="WC1" s="16"/>
-      <c r="WD1" s="16"/>
-      <c r="WE1" s="16"/>
-      <c r="WF1" s="16"/>
-      <c r="WG1" s="16"/>
-      <c r="WH1" s="16"/>
-      <c r="WI1" s="16"/>
-      <c r="WJ1" s="16"/>
-      <c r="WK1" s="16"/>
-      <c r="WL1" s="16"/>
-      <c r="WM1" s="16"/>
-      <c r="WN1" s="16"/>
-      <c r="WO1" s="16"/>
-      <c r="WP1" s="16"/>
-      <c r="WQ1" s="16"/>
-      <c r="WR1" s="16"/>
-      <c r="WS1" s="16"/>
-      <c r="WT1" s="16"/>
-      <c r="WU1" s="16"/>
-      <c r="WV1" s="16"/>
-      <c r="WW1" s="16"/>
-      <c r="WX1" s="16"/>
-      <c r="WY1" s="16"/>
-      <c r="WZ1" s="16"/>
-      <c r="XA1" s="16"/>
-      <c r="XB1" s="16"/>
-      <c r="XC1" s="16"/>
-      <c r="XD1" s="16"/>
-      <c r="XE1" s="16"/>
-      <c r="XF1" s="16"/>
-      <c r="XG1" s="16"/>
-      <c r="XH1" s="16"/>
-      <c r="XI1" s="16"/>
-      <c r="XJ1" s="16"/>
-      <c r="XK1" s="16"/>
-      <c r="XL1" s="16"/>
-      <c r="XM1" s="16"/>
-      <c r="XN1" s="16"/>
-      <c r="XO1" s="16"/>
-      <c r="XP1" s="16"/>
-      <c r="XQ1" s="16"/>
-      <c r="XR1" s="16"/>
-      <c r="XS1" s="16"/>
-      <c r="XT1" s="16"/>
-      <c r="XU1" s="16"/>
-      <c r="XV1" s="16"/>
-      <c r="XW1" s="16"/>
-      <c r="XX1" s="16"/>
-      <c r="XY1" s="16"/>
-      <c r="XZ1" s="16"/>
-      <c r="YA1" s="16"/>
-      <c r="YB1" s="16"/>
-      <c r="YC1" s="16"/>
-      <c r="YD1" s="16"/>
-      <c r="YE1" s="16"/>
-      <c r="YF1" s="16"/>
-      <c r="YG1" s="16"/>
-      <c r="YH1" s="16"/>
-      <c r="YI1" s="16"/>
-      <c r="YJ1" s="16"/>
-      <c r="YK1" s="16"/>
-      <c r="YL1" s="16"/>
-      <c r="YM1" s="16"/>
-      <c r="YN1" s="16"/>
-      <c r="YO1" s="16"/>
-      <c r="YP1" s="16"/>
-      <c r="YQ1" s="16"/>
-      <c r="YR1" s="16"/>
-      <c r="YS1" s="16"/>
-      <c r="YT1" s="16"/>
-      <c r="YU1" s="16"/>
-      <c r="YV1" s="16"/>
-      <c r="YW1" s="16"/>
-      <c r="YX1" s="16"/>
-      <c r="YY1" s="16"/>
-      <c r="YZ1" s="16"/>
-      <c r="ZA1" s="16"/>
-      <c r="ZB1" s="16"/>
-      <c r="ZC1" s="16"/>
-      <c r="ZD1" s="16"/>
-      <c r="ZE1" s="16"/>
-      <c r="ZF1" s="16"/>
-      <c r="ZG1" s="16"/>
-      <c r="ZH1" s="16"/>
-      <c r="ZI1" s="16"/>
-      <c r="ZJ1" s="16"/>
-      <c r="ZK1" s="16"/>
-      <c r="ZL1" s="16"/>
-      <c r="ZM1" s="16"/>
-      <c r="ZN1" s="16"/>
-      <c r="ZO1" s="16"/>
-      <c r="ZP1" s="16"/>
-      <c r="ZQ1" s="16"/>
-      <c r="ZR1" s="16"/>
-      <c r="ZS1" s="16"/>
-      <c r="ZT1" s="16"/>
-      <c r="ZU1" s="16"/>
-      <c r="ZV1" s="16"/>
-      <c r="ZW1" s="16"/>
-      <c r="ZX1" s="16"/>
-      <c r="ZY1" s="16"/>
-      <c r="ZZ1" s="16"/>
-      <c r="AAA1" s="16"/>
-      <c r="AAB1" s="16"/>
-      <c r="AAC1" s="16"/>
-      <c r="AAD1" s="16"/>
-      <c r="AAE1" s="16"/>
-      <c r="AAF1" s="16"/>
-      <c r="AAG1" s="16"/>
-      <c r="AAH1" s="16"/>
-      <c r="AAI1" s="16"/>
-      <c r="AAJ1" s="16"/>
-      <c r="AAK1" s="16"/>
-      <c r="AAL1" s="16"/>
-      <c r="AAM1" s="16"/>
-      <c r="AAN1" s="16"/>
-      <c r="AAO1" s="16"/>
-      <c r="AAP1" s="16"/>
-      <c r="AAQ1" s="16"/>
-      <c r="AAR1" s="16"/>
-      <c r="AAS1" s="16"/>
-      <c r="AAT1" s="16"/>
-      <c r="AAU1" s="16"/>
-      <c r="AAV1" s="16"/>
-      <c r="AAW1" s="16"/>
-      <c r="AAX1" s="16"/>
-      <c r="AAY1" s="16"/>
-      <c r="AAZ1" s="16"/>
-      <c r="ABA1" s="16"/>
-      <c r="ABB1" s="16"/>
-      <c r="ABC1" s="16"/>
-      <c r="ABD1" s="16"/>
-      <c r="ABE1" s="16"/>
-      <c r="ABF1" s="16"/>
-      <c r="ABG1" s="16"/>
-      <c r="ABH1" s="16"/>
-      <c r="ABI1" s="16"/>
-      <c r="ABJ1" s="16"/>
-      <c r="ABK1" s="16"/>
-      <c r="ABL1" s="16"/>
-      <c r="ABM1" s="16"/>
-      <c r="ABN1" s="16"/>
-      <c r="ABO1" s="16"/>
-      <c r="ABP1" s="16"/>
-      <c r="ABQ1" s="16"/>
-      <c r="ABR1" s="16"/>
-      <c r="ABS1" s="16"/>
-      <c r="ABT1" s="16"/>
-      <c r="ABU1" s="16"/>
-      <c r="ABV1" s="16"/>
-      <c r="ABW1" s="16"/>
-      <c r="ABX1" s="16"/>
-      <c r="ABY1" s="16"/>
-      <c r="ABZ1" s="16"/>
-      <c r="ACA1" s="16"/>
-      <c r="ACB1" s="16"/>
-      <c r="ACC1" s="16"/>
-      <c r="ACD1" s="16"/>
-      <c r="ACE1" s="16"/>
-      <c r="ACF1" s="16"/>
-      <c r="ACG1" s="16"/>
-      <c r="ACH1" s="16"/>
-      <c r="ACI1" s="16"/>
-      <c r="ACJ1" s="16"/>
-      <c r="ACK1" s="16"/>
-      <c r="ACL1" s="16"/>
-      <c r="ACM1" s="16"/>
-      <c r="ACN1" s="16"/>
-      <c r="ACO1" s="16"/>
-      <c r="ACP1" s="16"/>
-      <c r="ACQ1" s="16"/>
-      <c r="ACR1" s="16"/>
-      <c r="ACS1" s="16"/>
-      <c r="ACT1" s="16"/>
-      <c r="ACU1" s="16"/>
-      <c r="ACV1" s="16"/>
-      <c r="ACW1" s="16"/>
-      <c r="ACX1" s="16"/>
-      <c r="ACY1" s="16"/>
-      <c r="ACZ1" s="16"/>
-      <c r="ADA1" s="16"/>
-      <c r="ADB1" s="16"/>
-      <c r="ADC1" s="16"/>
-      <c r="ADD1" s="16"/>
-      <c r="ADE1" s="16"/>
-      <c r="ADF1" s="16"/>
-      <c r="ADG1" s="16"/>
-      <c r="ADH1" s="16"/>
-      <c r="ADI1" s="16"/>
-      <c r="ADJ1" s="16"/>
-      <c r="ADK1" s="16"/>
-      <c r="ADL1" s="16"/>
-      <c r="ADM1" s="16"/>
-      <c r="ADN1" s="16"/>
-      <c r="ADO1" s="16"/>
-      <c r="ADP1" s="16"/>
-      <c r="ADQ1" s="16"/>
-      <c r="ADR1" s="16"/>
-      <c r="ADS1" s="16"/>
-      <c r="ADT1" s="16"/>
-      <c r="ADU1" s="16"/>
-      <c r="ADV1" s="16"/>
-      <c r="ADW1" s="16"/>
-      <c r="ADX1" s="16"/>
-      <c r="ADY1" s="16"/>
-      <c r="ADZ1" s="16"/>
-      <c r="AEA1" s="16"/>
-      <c r="AEB1" s="16"/>
-      <c r="AEC1" s="16"/>
-      <c r="AED1" s="16"/>
-      <c r="AEE1" s="16"/>
-      <c r="AEF1" s="16"/>
-      <c r="AEG1" s="16"/>
-      <c r="AEH1" s="16"/>
-      <c r="AEI1" s="16"/>
-      <c r="AEJ1" s="16"/>
-      <c r="AEK1" s="16"/>
-      <c r="AEL1" s="16"/>
-      <c r="AEM1" s="16"/>
-      <c r="AEN1" s="16"/>
-      <c r="AEO1" s="16"/>
-      <c r="AEP1" s="16"/>
-      <c r="AEQ1" s="16"/>
-      <c r="AER1" s="16"/>
-      <c r="AES1" s="16"/>
-      <c r="AET1" s="16"/>
-      <c r="AEU1" s="16"/>
-      <c r="AEV1" s="16"/>
-      <c r="AEW1" s="16"/>
-      <c r="AEX1" s="16"/>
-      <c r="AEY1" s="16"/>
-      <c r="AEZ1" s="16"/>
-      <c r="AFA1" s="16"/>
-      <c r="AFB1" s="16"/>
-      <c r="AFC1" s="16"/>
-      <c r="AFD1" s="16"/>
-      <c r="AFE1" s="16"/>
-      <c r="AFF1" s="16"/>
-      <c r="AFG1" s="16"/>
-      <c r="AFH1" s="16"/>
-      <c r="AFI1" s="16"/>
-      <c r="AFJ1" s="16"/>
-      <c r="AFK1" s="16"/>
-      <c r="AFL1" s="16"/>
-      <c r="AFM1" s="16"/>
-      <c r="AFN1" s="16"/>
-      <c r="AFO1" s="16"/>
-      <c r="AFP1" s="16"/>
-      <c r="AFQ1" s="16"/>
-      <c r="AFR1" s="16"/>
-      <c r="AFS1" s="16"/>
-      <c r="AFT1" s="16"/>
-      <c r="AFU1" s="16"/>
-      <c r="AFV1" s="16"/>
-      <c r="AFW1" s="16"/>
-      <c r="AFX1" s="16"/>
-      <c r="AFY1" s="16"/>
-      <c r="AFZ1" s="16"/>
-      <c r="AGA1" s="16"/>
-      <c r="AGB1" s="16"/>
-      <c r="AGC1" s="16"/>
-      <c r="AGD1" s="16"/>
-      <c r="AGE1" s="16"/>
-      <c r="AGF1" s="16"/>
-      <c r="AGG1" s="16"/>
-      <c r="AGH1" s="16"/>
-      <c r="AGI1" s="16"/>
-      <c r="AGJ1" s="16"/>
-      <c r="AGK1" s="16"/>
-      <c r="AGL1" s="16"/>
-      <c r="AGM1" s="16"/>
-      <c r="AGN1" s="16"/>
-      <c r="AGO1" s="16"/>
-      <c r="AGP1" s="16"/>
-      <c r="AGQ1" s="16"/>
-      <c r="AGR1" s="16"/>
-      <c r="AGS1" s="16"/>
-      <c r="AGT1" s="16"/>
-      <c r="AGU1" s="16"/>
-      <c r="AGV1" s="16"/>
-      <c r="AGW1" s="16"/>
-      <c r="AGX1" s="16"/>
-      <c r="AGY1" s="16"/>
-      <c r="AGZ1" s="16"/>
-      <c r="AHA1" s="16"/>
-      <c r="AHB1" s="16"/>
-      <c r="AHC1" s="16"/>
-      <c r="AHD1" s="16"/>
-      <c r="AHE1" s="16"/>
-      <c r="AHF1" s="16"/>
-      <c r="AHG1" s="16"/>
-      <c r="AHH1" s="16"/>
-      <c r="AHI1" s="16"/>
-      <c r="AHJ1" s="16"/>
-      <c r="AHK1" s="16"/>
-      <c r="AHL1" s="16"/>
-      <c r="AHM1" s="16"/>
-      <c r="AHN1" s="16"/>
-      <c r="AHO1" s="16"/>
-      <c r="AHP1" s="16"/>
-      <c r="AHQ1" s="16"/>
-      <c r="AHR1" s="16"/>
-      <c r="AHS1" s="16"/>
-      <c r="AHT1" s="16"/>
-      <c r="AHU1" s="16"/>
-      <c r="AHV1" s="16"/>
-      <c r="AHW1" s="16"/>
-      <c r="AHX1" s="16"/>
-      <c r="AHY1" s="16"/>
-      <c r="AHZ1" s="16"/>
-      <c r="AIA1" s="16"/>
-      <c r="AIB1" s="16"/>
-      <c r="AIC1" s="16"/>
-      <c r="AID1" s="16"/>
-      <c r="AIE1" s="16"/>
-      <c r="AIF1" s="16"/>
-      <c r="AIG1" s="16"/>
-      <c r="AIH1" s="16"/>
-      <c r="AII1" s="16"/>
-      <c r="AIJ1" s="16"/>
-      <c r="AIK1" s="16"/>
-      <c r="AIL1" s="16"/>
-      <c r="AIM1" s="16"/>
-      <c r="AIN1" s="16"/>
-      <c r="AIO1" s="16"/>
-      <c r="AIP1" s="16"/>
-      <c r="AIQ1" s="16"/>
-      <c r="AIR1" s="16"/>
-      <c r="AIS1" s="16"/>
-      <c r="AIT1" s="16"/>
-      <c r="AIU1" s="16"/>
-      <c r="AIV1" s="16"/>
-      <c r="AIW1" s="16"/>
-      <c r="AIX1" s="16"/>
-      <c r="AIY1" s="16"/>
-      <c r="AIZ1" s="16"/>
-      <c r="AJA1" s="16"/>
-      <c r="AJB1" s="16"/>
-      <c r="AJC1" s="16"/>
-      <c r="AJD1" s="16"/>
-      <c r="AJE1" s="16"/>
-      <c r="AJF1" s="16"/>
-      <c r="AJG1" s="16"/>
-      <c r="AJH1" s="16"/>
-      <c r="AJI1" s="16"/>
-      <c r="AJJ1" s="16"/>
-      <c r="AJK1" s="16"/>
-      <c r="AJL1" s="16"/>
-      <c r="AJM1" s="16"/>
-      <c r="AJN1" s="16"/>
-      <c r="AJO1" s="16"/>
-      <c r="AJP1" s="16"/>
-      <c r="AJQ1" s="16"/>
-      <c r="AJR1" s="16"/>
-      <c r="AJS1" s="16"/>
-      <c r="AJT1" s="16"/>
-      <c r="AJU1" s="16"/>
-      <c r="AJV1" s="16"/>
-      <c r="AJW1" s="16"/>
-      <c r="AJX1" s="16"/>
-      <c r="AJY1" s="16"/>
-      <c r="AJZ1" s="16"/>
-      <c r="AKA1" s="16"/>
-      <c r="AKB1" s="16"/>
-      <c r="AKC1" s="16"/>
-      <c r="AKD1" s="16"/>
-      <c r="AKE1" s="16"/>
-      <c r="AKF1" s="16"/>
-      <c r="AKG1" s="16"/>
-      <c r="AKH1" s="16"/>
-      <c r="AKI1" s="16"/>
-      <c r="AKJ1" s="16"/>
-      <c r="AKK1" s="16"/>
-      <c r="AKL1" s="16"/>
-      <c r="AKM1" s="16"/>
-      <c r="AKN1" s="16"/>
-      <c r="AKO1" s="16"/>
-      <c r="AKP1" s="16"/>
-      <c r="AKQ1" s="16"/>
-      <c r="AKR1" s="16"/>
-      <c r="AKS1" s="16"/>
-      <c r="AKT1" s="16"/>
-      <c r="AKU1" s="16"/>
-      <c r="AKV1" s="16"/>
-      <c r="AKW1" s="16"/>
-      <c r="AKX1" s="16"/>
-      <c r="AKY1" s="16"/>
-      <c r="AKZ1" s="16"/>
-      <c r="ALA1" s="16"/>
-      <c r="ALB1" s="16"/>
-      <c r="ALC1" s="16"/>
-      <c r="ALD1" s="16"/>
-      <c r="ALE1" s="16"/>
-      <c r="ALF1" s="16"/>
-      <c r="ALG1" s="16"/>
-      <c r="ALH1" s="16"/>
-      <c r="ALI1" s="16"/>
-      <c r="ALJ1" s="16"/>
-      <c r="ALK1" s="16"/>
-      <c r="ALL1" s="16"/>
-      <c r="ALM1" s="16"/>
-      <c r="ALN1" s="16"/>
-      <c r="ALO1" s="16"/>
-      <c r="ALP1" s="16"/>
-      <c r="ALQ1" s="16"/>
-      <c r="ALR1" s="16"/>
-      <c r="ALS1" s="16"/>
-      <c r="ALT1" s="16"/>
-      <c r="ALU1" s="16"/>
-      <c r="ALV1" s="16"/>
-      <c r="ALW1" s="16"/>
-      <c r="ALX1" s="16"/>
-      <c r="ALY1" s="16"/>
-      <c r="ALZ1" s="16"/>
-      <c r="AMA1" s="16"/>
-      <c r="AMB1" s="16"/>
-      <c r="AMC1" s="16"/>
-      <c r="AMD1" s="16"/>
-      <c r="AME1" s="16"/>
-      <c r="AMF1" s="16"/>
-      <c r="AMG1" s="16"/>
-      <c r="AMH1" s="16"/>
-      <c r="AMI1" s="16"/>
-      <c r="AMJ1" s="16"/>
-      <c r="AMK1" s="16"/>
-      <c r="AML1" s="16"/>
-      <c r="AMM1" s="16"/>
-      <c r="AMN1" s="16"/>
-      <c r="AMO1" s="16"/>
-      <c r="AMP1" s="16"/>
-      <c r="AMQ1"/>
-      <c r="AMR1"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="15"/>
+      <c r="AI1" s="15"/>
+      <c r="AJ1" s="15"/>
+      <c r="AK1" s="15"/>
+      <c r="AL1" s="15"/>
+      <c r="AM1" s="15"/>
+      <c r="AN1" s="15"/>
+      <c r="AO1" s="15"/>
+      <c r="AP1" s="15"/>
+      <c r="AQ1" s="15"/>
+      <c r="AR1" s="15"/>
+      <c r="AS1" s="15"/>
+      <c r="AT1" s="15"/>
+      <c r="AU1" s="15"/>
+      <c r="AV1" s="15"/>
+      <c r="AW1" s="15"/>
+      <c r="AX1" s="15"/>
+      <c r="AY1" s="15"/>
+      <c r="AZ1" s="15"/>
+      <c r="BA1" s="15"/>
+      <c r="BB1" s="15"/>
+      <c r="BC1" s="15"/>
+      <c r="BD1" s="15"/>
+      <c r="BE1" s="15"/>
+      <c r="BF1" s="15"/>
+      <c r="BG1" s="15"/>
+      <c r="BH1" s="15"/>
+      <c r="BI1" s="15"/>
+      <c r="BJ1" s="15"/>
+      <c r="BK1" s="15"/>
+      <c r="BL1" s="15"/>
+      <c r="BM1" s="15"/>
+      <c r="BN1" s="15"/>
+      <c r="BO1" s="15"/>
+      <c r="BP1" s="15"/>
+      <c r="BQ1" s="15"/>
+      <c r="BR1" s="15"/>
+      <c r="BS1" s="15"/>
+      <c r="BT1" s="15"/>
+      <c r="BU1" s="15"/>
+      <c r="BV1" s="15"/>
+      <c r="BW1" s="15"/>
+      <c r="BX1" s="15"/>
+      <c r="BY1" s="15"/>
+      <c r="BZ1" s="15"/>
+      <c r="CA1" s="15"/>
+      <c r="CB1" s="15"/>
+      <c r="CC1" s="15"/>
+      <c r="CD1" s="15"/>
+      <c r="CE1" s="15"/>
+      <c r="CF1" s="15"/>
+      <c r="CG1" s="15"/>
+      <c r="CH1" s="15"/>
+      <c r="CI1" s="15"/>
+      <c r="CJ1" s="15"/>
+      <c r="CK1" s="15"/>
+      <c r="CL1" s="15"/>
+      <c r="CM1" s="15"/>
+      <c r="CN1" s="15"/>
+      <c r="CO1" s="15"/>
+      <c r="CP1" s="15"/>
+      <c r="CQ1" s="15"/>
+      <c r="CR1" s="15"/>
+      <c r="CS1" s="15"/>
+      <c r="CT1" s="15"/>
+      <c r="CU1" s="15"/>
+      <c r="CV1" s="15"/>
+      <c r="CW1" s="15"/>
+      <c r="CX1" s="15"/>
+      <c r="CY1" s="15"/>
+      <c r="CZ1" s="15"/>
+      <c r="DA1" s="15"/>
+      <c r="DB1" s="15"/>
+      <c r="DC1" s="15"/>
+      <c r="DD1" s="15"/>
+      <c r="DE1" s="15"/>
+      <c r="DF1" s="15"/>
+      <c r="DG1" s="15"/>
+      <c r="DH1" s="15"/>
+      <c r="DI1" s="15"/>
+      <c r="DJ1" s="15"/>
+      <c r="DK1" s="15"/>
+      <c r="DL1" s="15"/>
+      <c r="DM1" s="15"/>
+      <c r="DN1" s="15"/>
+      <c r="DO1" s="15"/>
+      <c r="DP1" s="15"/>
+      <c r="DQ1" s="15"/>
+      <c r="DR1" s="15"/>
+      <c r="DS1" s="15"/>
+      <c r="DT1" s="15"/>
+      <c r="DU1" s="15"/>
+      <c r="DV1" s="15"/>
+      <c r="DW1" s="15"/>
+      <c r="DX1" s="15"/>
+      <c r="DY1" s="15"/>
+      <c r="DZ1" s="15"/>
+      <c r="EA1" s="15"/>
+      <c r="EB1" s="15"/>
+      <c r="EC1" s="15"/>
+      <c r="ED1" s="15"/>
+      <c r="EE1" s="15"/>
+      <c r="EF1" s="15"/>
+      <c r="EG1" s="15"/>
+      <c r="EH1" s="15"/>
+      <c r="EI1" s="15"/>
+      <c r="EJ1" s="15"/>
+      <c r="EK1" s="15"/>
+      <c r="EL1" s="15"/>
+      <c r="EM1" s="15"/>
+      <c r="EN1" s="15"/>
+      <c r="EO1" s="15"/>
+      <c r="EP1" s="15"/>
+      <c r="EQ1" s="15"/>
+      <c r="ER1" s="15"/>
+      <c r="ES1" s="15"/>
+      <c r="ET1" s="15"/>
+      <c r="EU1" s="15"/>
+      <c r="EV1" s="15"/>
+      <c r="EW1" s="15"/>
+      <c r="EX1" s="15"/>
+      <c r="EY1" s="15"/>
+      <c r="EZ1" s="15"/>
+      <c r="FA1" s="15"/>
+      <c r="FB1" s="15"/>
+      <c r="FC1" s="15"/>
+      <c r="FD1" s="15"/>
+      <c r="FE1" s="15"/>
+      <c r="FF1" s="15"/>
+      <c r="FG1" s="15"/>
+      <c r="FH1" s="15"/>
+      <c r="FI1" s="15"/>
+      <c r="FJ1" s="15"/>
+      <c r="FK1" s="15"/>
+      <c r="FL1" s="15"/>
+      <c r="FM1" s="15"/>
+      <c r="FN1" s="15"/>
+      <c r="FO1" s="15"/>
+      <c r="FP1" s="15"/>
+      <c r="FQ1" s="15"/>
+      <c r="FR1" s="15"/>
+      <c r="FS1" s="15"/>
+      <c r="FT1" s="15"/>
+      <c r="FU1" s="15"/>
+      <c r="FV1" s="15"/>
+      <c r="FW1" s="15"/>
+      <c r="FX1" s="15"/>
+      <c r="FY1" s="15"/>
+      <c r="FZ1" s="15"/>
+      <c r="GA1" s="15"/>
+      <c r="GB1" s="15"/>
+      <c r="GC1" s="15"/>
+      <c r="GD1" s="15"/>
+      <c r="GE1" s="15"/>
+      <c r="GF1" s="15"/>
+      <c r="GG1" s="15"/>
+      <c r="GH1" s="15"/>
+      <c r="GI1" s="15"/>
+      <c r="GJ1" s="15"/>
+      <c r="GK1" s="15"/>
+      <c r="GL1" s="15"/>
+      <c r="GM1" s="15"/>
+      <c r="GN1" s="15"/>
+      <c r="GO1" s="15"/>
+      <c r="GP1" s="15"/>
+      <c r="GQ1" s="15"/>
+      <c r="GR1" s="15"/>
+      <c r="GS1" s="15"/>
+      <c r="GT1" s="15"/>
+      <c r="GU1" s="15"/>
+      <c r="GV1" s="15"/>
+      <c r="GW1" s="15"/>
+      <c r="GX1" s="15"/>
+      <c r="GY1" s="15"/>
+      <c r="GZ1" s="15"/>
+      <c r="HA1" s="15"/>
+      <c r="HB1" s="15"/>
+      <c r="HC1" s="15"/>
+      <c r="HD1" s="15"/>
+      <c r="HE1" s="15"/>
+      <c r="HF1" s="15"/>
+      <c r="HG1" s="15"/>
+      <c r="HH1" s="15"/>
+      <c r="HI1" s="15"/>
+      <c r="HJ1" s="15"/>
+      <c r="HK1" s="15"/>
+      <c r="HL1" s="15"/>
+      <c r="HM1" s="15"/>
+      <c r="HN1" s="15"/>
+      <c r="HO1" s="15"/>
+      <c r="HP1" s="15"/>
+      <c r="HQ1" s="15"/>
+      <c r="HR1" s="15"/>
+      <c r="HS1" s="15"/>
+      <c r="HT1" s="15"/>
+      <c r="HU1" s="15"/>
+      <c r="HV1" s="15"/>
+      <c r="HW1" s="15"/>
+      <c r="HX1" s="15"/>
+      <c r="HY1" s="15"/>
+      <c r="HZ1" s="15"/>
+      <c r="IA1" s="15"/>
+      <c r="IB1" s="15"/>
+      <c r="IC1" s="15"/>
+      <c r="ID1" s="15"/>
+      <c r="IE1" s="15"/>
+      <c r="IF1" s="15"/>
+      <c r="IG1" s="15"/>
+      <c r="IH1" s="15"/>
+      <c r="II1" s="15"/>
+      <c r="IJ1" s="15"/>
+      <c r="IK1" s="15"/>
+      <c r="IL1" s="15"/>
+      <c r="IM1" s="15"/>
+      <c r="IN1" s="15"/>
+      <c r="IO1" s="15"/>
+      <c r="IP1" s="15"/>
+      <c r="IQ1" s="15"/>
+      <c r="IR1" s="15"/>
+      <c r="IS1" s="15"/>
+      <c r="IT1" s="15"/>
+      <c r="IU1" s="15"/>
+      <c r="IV1" s="15"/>
+      <c r="IW1" s="15"/>
+      <c r="IX1" s="15"/>
+      <c r="IY1" s="15"/>
+      <c r="IZ1" s="15"/>
+      <c r="JA1" s="15"/>
+      <c r="JB1" s="15"/>
+      <c r="JC1" s="15"/>
+      <c r="JD1" s="15"/>
+      <c r="JE1" s="15"/>
+      <c r="JF1" s="15"/>
+      <c r="JG1" s="15"/>
+      <c r="JH1" s="15"/>
+      <c r="JI1" s="15"/>
+      <c r="JJ1" s="15"/>
+      <c r="JK1" s="15"/>
+      <c r="JL1" s="15"/>
+      <c r="JM1" s="15"/>
+      <c r="JN1" s="15"/>
+      <c r="JO1" s="15"/>
+      <c r="JP1" s="15"/>
+      <c r="JQ1" s="15"/>
+      <c r="JR1" s="15"/>
+      <c r="JS1" s="15"/>
+      <c r="JT1" s="15"/>
+      <c r="JU1" s="15"/>
+      <c r="JV1" s="15"/>
+      <c r="JW1" s="15"/>
+      <c r="JX1" s="15"/>
+      <c r="JY1" s="15"/>
+      <c r="JZ1" s="15"/>
+      <c r="KA1" s="15"/>
+      <c r="KB1" s="15"/>
+      <c r="KC1" s="15"/>
+      <c r="KD1" s="15"/>
+      <c r="KE1" s="15"/>
+      <c r="KF1" s="15"/>
+      <c r="KG1" s="15"/>
+      <c r="KH1" s="15"/>
+      <c r="KI1" s="15"/>
+      <c r="KJ1" s="15"/>
+      <c r="KK1" s="15"/>
+      <c r="KL1" s="15"/>
+      <c r="KM1" s="15"/>
+      <c r="KN1" s="15"/>
+      <c r="KO1" s="15"/>
+      <c r="KP1" s="15"/>
+      <c r="KQ1" s="15"/>
+      <c r="KR1" s="15"/>
+      <c r="KS1" s="15"/>
+      <c r="KT1" s="15"/>
+      <c r="KU1" s="15"/>
+      <c r="KV1" s="15"/>
+      <c r="KW1" s="15"/>
+      <c r="KX1" s="15"/>
+      <c r="KY1" s="15"/>
+      <c r="KZ1" s="15"/>
+      <c r="LA1" s="15"/>
+      <c r="LB1" s="15"/>
+      <c r="LC1" s="15"/>
+      <c r="LD1" s="15"/>
+      <c r="LE1" s="15"/>
+      <c r="LF1" s="15"/>
+      <c r="LG1" s="15"/>
+      <c r="LH1" s="15"/>
+      <c r="LI1" s="15"/>
+      <c r="LJ1" s="15"/>
+      <c r="LK1" s="15"/>
+      <c r="LL1" s="15"/>
+      <c r="LM1" s="15"/>
+      <c r="LN1" s="15"/>
+      <c r="LO1" s="15"/>
+      <c r="LP1" s="15"/>
+      <c r="LQ1" s="15"/>
+      <c r="LR1" s="15"/>
+      <c r="LS1" s="15"/>
+      <c r="LT1" s="15"/>
+      <c r="LU1" s="15"/>
+      <c r="LV1" s="15"/>
+      <c r="LW1" s="15"/>
+      <c r="LX1" s="15"/>
+      <c r="LY1" s="15"/>
+      <c r="LZ1" s="15"/>
+      <c r="MA1" s="15"/>
+      <c r="MB1" s="15"/>
+      <c r="MC1" s="15"/>
+      <c r="MD1" s="15"/>
+      <c r="ME1" s="15"/>
+      <c r="MF1" s="15"/>
+      <c r="MG1" s="15"/>
+      <c r="MH1" s="15"/>
+      <c r="MI1" s="15"/>
+      <c r="MJ1" s="15"/>
+      <c r="MK1" s="15"/>
+      <c r="ML1" s="15"/>
+      <c r="MM1" s="15"/>
+      <c r="MN1" s="15"/>
+      <c r="MO1" s="15"/>
+      <c r="MP1" s="15"/>
+      <c r="MQ1" s="15"/>
+      <c r="MR1" s="15"/>
+      <c r="MS1" s="15"/>
+      <c r="MT1" s="15"/>
+      <c r="MU1" s="15"/>
+      <c r="MV1" s="15"/>
+      <c r="MW1" s="15"/>
+      <c r="MX1" s="15"/>
+      <c r="MY1" s="15"/>
+      <c r="MZ1" s="15"/>
+      <c r="NA1" s="15"/>
+      <c r="NB1" s="15"/>
+      <c r="NC1" s="15"/>
+      <c r="ND1" s="15"/>
+      <c r="NE1" s="15"/>
+      <c r="NF1" s="15"/>
+      <c r="NG1" s="15"/>
+      <c r="NH1" s="15"/>
+      <c r="NI1" s="15"/>
+      <c r="NJ1" s="15"/>
+      <c r="NK1" s="15"/>
+      <c r="NL1" s="15"/>
+      <c r="NM1" s="15"/>
+      <c r="NN1" s="15"/>
+      <c r="NO1" s="15"/>
+      <c r="NP1" s="15"/>
+      <c r="NQ1" s="15"/>
+      <c r="NR1" s="15"/>
+      <c r="NS1" s="15"/>
+      <c r="NT1" s="15"/>
+      <c r="NU1" s="15"/>
+      <c r="NV1" s="15"/>
+      <c r="NW1" s="15"/>
+      <c r="NX1" s="15"/>
+      <c r="NY1" s="15"/>
+      <c r="NZ1" s="15"/>
+      <c r="OA1" s="15"/>
+      <c r="OB1" s="15"/>
+      <c r="OC1" s="15"/>
+      <c r="OD1" s="15"/>
+      <c r="OE1" s="15"/>
+      <c r="OF1" s="15"/>
+      <c r="OG1" s="15"/>
+      <c r="OH1" s="15"/>
+      <c r="OI1" s="15"/>
+      <c r="OJ1" s="15"/>
+      <c r="OK1" s="15"/>
+      <c r="OL1" s="15"/>
+      <c r="OM1" s="15"/>
+      <c r="ON1" s="15"/>
+      <c r="OO1" s="15"/>
+      <c r="OP1" s="15"/>
+      <c r="OQ1" s="15"/>
+      <c r="OR1" s="15"/>
+      <c r="OS1" s="15"/>
+      <c r="OT1" s="15"/>
+      <c r="OU1" s="15"/>
+      <c r="OV1" s="15"/>
+      <c r="OW1" s="15"/>
+      <c r="OX1" s="15"/>
+      <c r="OY1" s="15"/>
+      <c r="OZ1" s="15"/>
+      <c r="PA1" s="15"/>
+      <c r="PB1" s="15"/>
+      <c r="PC1" s="15"/>
+      <c r="PD1" s="15"/>
+      <c r="PE1" s="15"/>
+      <c r="PF1" s="15"/>
+      <c r="PG1" s="15"/>
+      <c r="PH1" s="15"/>
+      <c r="PI1" s="15"/>
+      <c r="PJ1" s="15"/>
+      <c r="PK1" s="15"/>
+      <c r="PL1" s="15"/>
+      <c r="PM1" s="15"/>
+      <c r="PN1" s="15"/>
+      <c r="PO1" s="15"/>
+      <c r="PP1" s="15"/>
+      <c r="PQ1" s="15"/>
+      <c r="PR1" s="15"/>
+      <c r="PS1" s="15"/>
+      <c r="PT1" s="15"/>
+      <c r="PU1" s="15"/>
+      <c r="PV1" s="15"/>
+      <c r="PW1" s="15"/>
+      <c r="PX1" s="15"/>
+      <c r="PY1" s="15"/>
+      <c r="PZ1" s="15"/>
+      <c r="QA1" s="15"/>
+      <c r="QB1" s="15"/>
+      <c r="QC1" s="15"/>
+      <c r="QD1" s="15"/>
+      <c r="QE1" s="15"/>
+      <c r="QF1" s="15"/>
+      <c r="QG1" s="15"/>
+      <c r="QH1" s="15"/>
+      <c r="QI1" s="15"/>
+      <c r="QJ1" s="15"/>
+      <c r="QK1" s="15"/>
+      <c r="QL1" s="15"/>
+      <c r="QM1" s="15"/>
+      <c r="QN1" s="15"/>
+      <c r="QO1" s="15"/>
+      <c r="QP1" s="15"/>
+      <c r="QQ1" s="15"/>
+      <c r="QR1" s="15"/>
+      <c r="QS1" s="15"/>
+      <c r="QT1" s="15"/>
+      <c r="QU1" s="15"/>
+      <c r="QV1" s="15"/>
+      <c r="QW1" s="15"/>
+      <c r="QX1" s="15"/>
+      <c r="QY1" s="15"/>
+      <c r="QZ1" s="15"/>
+      <c r="RA1" s="15"/>
+      <c r="RB1" s="15"/>
+      <c r="RC1" s="15"/>
+      <c r="RD1" s="15"/>
+      <c r="RE1" s="15"/>
+      <c r="RF1" s="15"/>
+      <c r="RG1" s="15"/>
+      <c r="RH1" s="15"/>
+      <c r="RI1" s="15"/>
+      <c r="RJ1" s="15"/>
+      <c r="RK1" s="15"/>
+      <c r="RL1" s="15"/>
+      <c r="RM1" s="15"/>
+      <c r="RN1" s="15"/>
+      <c r="RO1" s="15"/>
+      <c r="RP1" s="15"/>
+      <c r="RQ1" s="15"/>
+      <c r="RR1" s="15"/>
+      <c r="RS1" s="15"/>
+      <c r="RT1" s="15"/>
+      <c r="RU1" s="15"/>
+      <c r="RV1" s="15"/>
+      <c r="RW1" s="15"/>
+      <c r="RX1" s="15"/>
+      <c r="RY1" s="15"/>
+      <c r="RZ1" s="15"/>
+      <c r="SA1" s="15"/>
+      <c r="SB1" s="15"/>
+      <c r="SC1" s="15"/>
+      <c r="SD1" s="15"/>
+      <c r="SE1" s="15"/>
+      <c r="SF1" s="15"/>
+      <c r="SG1" s="15"/>
+      <c r="SH1" s="15"/>
+      <c r="SI1" s="15"/>
+      <c r="SJ1" s="15"/>
+      <c r="SK1" s="15"/>
+      <c r="SL1" s="15"/>
+      <c r="SM1" s="15"/>
+      <c r="SN1" s="15"/>
+      <c r="SO1" s="15"/>
+      <c r="SP1" s="15"/>
+      <c r="SQ1" s="15"/>
+      <c r="SR1" s="15"/>
+      <c r="SS1" s="15"/>
+      <c r="ST1" s="15"/>
+      <c r="SU1" s="15"/>
+      <c r="SV1" s="15"/>
+      <c r="SW1" s="15"/>
+      <c r="SX1" s="15"/>
+      <c r="SY1" s="15"/>
+      <c r="SZ1" s="15"/>
+      <c r="TA1" s="15"/>
+      <c r="TB1" s="15"/>
+      <c r="TC1" s="15"/>
+      <c r="TD1" s="15"/>
+      <c r="TE1" s="15"/>
+      <c r="TF1" s="15"/>
+      <c r="TG1" s="15"/>
+      <c r="TH1" s="15"/>
+      <c r="TI1" s="15"/>
+      <c r="TJ1" s="15"/>
+      <c r="TK1" s="15"/>
+      <c r="TL1" s="15"/>
+      <c r="TM1" s="15"/>
+      <c r="TN1" s="15"/>
+      <c r="TO1" s="15"/>
+      <c r="TP1" s="15"/>
+      <c r="TQ1" s="15"/>
+      <c r="TR1" s="15"/>
+      <c r="TS1" s="15"/>
+      <c r="TT1" s="15"/>
+      <c r="TU1" s="15"/>
+      <c r="TV1" s="15"/>
+      <c r="TW1" s="15"/>
+      <c r="TX1" s="15"/>
+      <c r="TY1" s="15"/>
+      <c r="TZ1" s="15"/>
+      <c r="UA1" s="15"/>
+      <c r="UB1" s="15"/>
+      <c r="UC1" s="15"/>
+      <c r="UD1" s="15"/>
+      <c r="UE1" s="15"/>
+      <c r="UF1" s="15"/>
+      <c r="UG1" s="15"/>
+      <c r="UH1" s="15"/>
+      <c r="UI1" s="15"/>
+      <c r="UJ1" s="15"/>
+      <c r="UK1" s="15"/>
+      <c r="UL1" s="15"/>
+      <c r="UM1" s="15"/>
+      <c r="UN1" s="15"/>
+      <c r="UO1" s="15"/>
+      <c r="UP1" s="15"/>
+      <c r="UQ1" s="15"/>
+      <c r="UR1" s="15"/>
+      <c r="US1" s="15"/>
+      <c r="UT1" s="15"/>
+      <c r="UU1" s="15"/>
+      <c r="UV1" s="15"/>
+      <c r="UW1" s="15"/>
+      <c r="UX1" s="15"/>
+      <c r="UY1" s="15"/>
+      <c r="UZ1" s="15"/>
+      <c r="VA1" s="15"/>
+      <c r="VB1" s="15"/>
+      <c r="VC1" s="15"/>
+      <c r="VD1" s="15"/>
+      <c r="VE1" s="15"/>
+      <c r="VF1" s="15"/>
+      <c r="VG1" s="15"/>
+      <c r="VH1" s="15"/>
+      <c r="VI1" s="15"/>
+      <c r="VJ1" s="15"/>
+      <c r="VK1" s="15"/>
+      <c r="VL1" s="15"/>
+      <c r="VM1" s="15"/>
+      <c r="VN1" s="15"/>
+      <c r="VO1" s="15"/>
+      <c r="VP1" s="15"/>
+      <c r="VQ1" s="15"/>
+      <c r="VR1" s="15"/>
+      <c r="VS1" s="15"/>
+      <c r="VT1" s="15"/>
+      <c r="VU1" s="15"/>
+      <c r="VV1" s="15"/>
+      <c r="VW1" s="15"/>
+      <c r="VX1" s="15"/>
+      <c r="VY1" s="15"/>
+      <c r="VZ1" s="15"/>
+      <c r="WA1" s="15"/>
+      <c r="WB1" s="15"/>
+      <c r="WC1" s="15"/>
+      <c r="WD1" s="15"/>
+      <c r="WE1" s="15"/>
+      <c r="WF1" s="15"/>
+      <c r="WG1" s="15"/>
+      <c r="WH1" s="15"/>
+      <c r="WI1" s="15"/>
+      <c r="WJ1" s="15"/>
+      <c r="WK1" s="15"/>
+      <c r="WL1" s="15"/>
+      <c r="WM1" s="15"/>
+      <c r="WN1" s="15"/>
+      <c r="WO1" s="15"/>
+      <c r="WP1" s="15"/>
+      <c r="WQ1" s="15"/>
+      <c r="WR1" s="15"/>
+      <c r="WS1" s="15"/>
+      <c r="WT1" s="15"/>
+      <c r="WU1" s="15"/>
+      <c r="WV1" s="15"/>
+      <c r="WW1" s="15"/>
+      <c r="WX1" s="15"/>
+      <c r="WY1" s="15"/>
+      <c r="WZ1" s="15"/>
+      <c r="XA1" s="15"/>
+      <c r="XB1" s="15"/>
+      <c r="XC1" s="15"/>
+      <c r="XD1" s="15"/>
+      <c r="XE1" s="15"/>
+      <c r="XF1" s="15"/>
+      <c r="XG1" s="15"/>
+      <c r="XH1" s="15"/>
+      <c r="XI1" s="15"/>
+      <c r="XJ1" s="15"/>
+      <c r="XK1" s="15"/>
+      <c r="XL1" s="15"/>
+      <c r="XM1" s="15"/>
+      <c r="XN1" s="15"/>
+      <c r="XO1" s="15"/>
+      <c r="XP1" s="15"/>
+      <c r="XQ1" s="15"/>
+      <c r="XR1" s="15"/>
+      <c r="XS1" s="15"/>
+      <c r="XT1" s="15"/>
+      <c r="XU1" s="15"/>
+      <c r="XV1" s="15"/>
+      <c r="XW1" s="15"/>
+      <c r="XX1" s="15"/>
+      <c r="XY1" s="15"/>
+      <c r="XZ1" s="15"/>
+      <c r="YA1" s="15"/>
+      <c r="YB1" s="15"/>
+      <c r="YC1" s="15"/>
+      <c r="YD1" s="15"/>
+      <c r="YE1" s="15"/>
+      <c r="YF1" s="15"/>
+      <c r="YG1" s="15"/>
+      <c r="YH1" s="15"/>
+      <c r="YI1" s="15"/>
+      <c r="YJ1" s="15"/>
+      <c r="YK1" s="15"/>
+      <c r="YL1" s="15"/>
+      <c r="YM1" s="15"/>
+      <c r="YN1" s="15"/>
+      <c r="YO1" s="15"/>
+      <c r="YP1" s="15"/>
+      <c r="YQ1" s="15"/>
+      <c r="YR1" s="15"/>
+      <c r="YS1" s="15"/>
+      <c r="YT1" s="15"/>
+      <c r="YU1" s="15"/>
+      <c r="YV1" s="15"/>
+      <c r="YW1" s="15"/>
+      <c r="YX1" s="15"/>
+      <c r="YY1" s="15"/>
+      <c r="YZ1" s="15"/>
+      <c r="ZA1" s="15"/>
+      <c r="ZB1" s="15"/>
+      <c r="ZC1" s="15"/>
+      <c r="ZD1" s="15"/>
+      <c r="ZE1" s="15"/>
+      <c r="ZF1" s="15"/>
+      <c r="ZG1" s="15"/>
+      <c r="ZH1" s="15"/>
+      <c r="ZI1" s="15"/>
+      <c r="ZJ1" s="15"/>
+      <c r="ZK1" s="15"/>
+      <c r="ZL1" s="15"/>
+      <c r="ZM1" s="15"/>
+      <c r="ZN1" s="15"/>
+      <c r="ZO1" s="15"/>
+      <c r="ZP1" s="15"/>
+      <c r="ZQ1" s="15"/>
+      <c r="ZR1" s="15"/>
+      <c r="ZS1" s="15"/>
+      <c r="ZT1" s="15"/>
+      <c r="ZU1" s="15"/>
+      <c r="ZV1" s="15"/>
+      <c r="ZW1" s="15"/>
+      <c r="ZX1" s="15"/>
+      <c r="ZY1" s="15"/>
+      <c r="ZZ1" s="15"/>
+      <c r="AAA1" s="15"/>
+      <c r="AAB1" s="15"/>
+      <c r="AAC1" s="15"/>
+      <c r="AAD1" s="15"/>
+      <c r="AAE1" s="15"/>
+      <c r="AAF1" s="15"/>
+      <c r="AAG1" s="15"/>
+      <c r="AAH1" s="15"/>
+      <c r="AAI1" s="15"/>
+      <c r="AAJ1" s="15"/>
+      <c r="AAK1" s="15"/>
+      <c r="AAL1" s="15"/>
+      <c r="AAM1" s="15"/>
+      <c r="AAN1" s="15"/>
+      <c r="AAO1" s="15"/>
+      <c r="AAP1" s="15"/>
+      <c r="AAQ1" s="15"/>
+      <c r="AAR1" s="15"/>
+      <c r="AAS1" s="15"/>
+      <c r="AAT1" s="15"/>
+      <c r="AAU1" s="15"/>
+      <c r="AAV1" s="15"/>
+      <c r="AAW1" s="15"/>
+      <c r="AAX1" s="15"/>
+      <c r="AAY1" s="15"/>
+      <c r="AAZ1" s="15"/>
+      <c r="ABA1" s="15"/>
+      <c r="ABB1" s="15"/>
+      <c r="ABC1" s="15"/>
+      <c r="ABD1" s="15"/>
+      <c r="ABE1" s="15"/>
+      <c r="ABF1" s="15"/>
+      <c r="ABG1" s="15"/>
+      <c r="ABH1" s="15"/>
+      <c r="ABI1" s="15"/>
+      <c r="ABJ1" s="15"/>
+      <c r="ABK1" s="15"/>
+      <c r="ABL1" s="15"/>
+      <c r="ABM1" s="15"/>
+      <c r="ABN1" s="15"/>
+      <c r="ABO1" s="15"/>
+      <c r="ABP1" s="15"/>
+      <c r="ABQ1" s="15"/>
+      <c r="ABR1" s="15"/>
+      <c r="ABS1" s="15"/>
+      <c r="ABT1" s="15"/>
+      <c r="ABU1" s="15"/>
+      <c r="ABV1" s="15"/>
+      <c r="ABW1" s="15"/>
+      <c r="ABX1" s="15"/>
+      <c r="ABY1" s="15"/>
+      <c r="ABZ1" s="15"/>
+      <c r="ACA1" s="15"/>
+      <c r="ACB1" s="15"/>
+      <c r="ACC1" s="15"/>
+      <c r="ACD1" s="15"/>
+      <c r="ACE1" s="15"/>
+      <c r="ACF1" s="15"/>
+      <c r="ACG1" s="15"/>
+      <c r="ACH1" s="15"/>
+      <c r="ACI1" s="15"/>
+      <c r="ACJ1" s="15"/>
+      <c r="ACK1" s="15"/>
+      <c r="ACL1" s="15"/>
+      <c r="ACM1" s="15"/>
+      <c r="ACN1" s="15"/>
+      <c r="ACO1" s="15"/>
+      <c r="ACP1" s="15"/>
+      <c r="ACQ1" s="15"/>
+      <c r="ACR1" s="15"/>
+      <c r="ACS1" s="15"/>
+      <c r="ACT1" s="15"/>
+      <c r="ACU1" s="15"/>
+      <c r="ACV1" s="15"/>
+      <c r="ACW1" s="15"/>
+      <c r="ACX1" s="15"/>
+      <c r="ACY1" s="15"/>
+      <c r="ACZ1" s="15"/>
+      <c r="ADA1" s="15"/>
+      <c r="ADB1" s="15"/>
+      <c r="ADC1" s="15"/>
+      <c r="ADD1" s="15"/>
+      <c r="ADE1" s="15"/>
+      <c r="ADF1" s="15"/>
+      <c r="ADG1" s="15"/>
+      <c r="ADH1" s="15"/>
+      <c r="ADI1" s="15"/>
+      <c r="ADJ1" s="15"/>
+      <c r="ADK1" s="15"/>
+      <c r="ADL1" s="15"/>
+      <c r="ADM1" s="15"/>
+      <c r="ADN1" s="15"/>
+      <c r="ADO1" s="15"/>
+      <c r="ADP1" s="15"/>
+      <c r="ADQ1" s="15"/>
+      <c r="ADR1" s="15"/>
+      <c r="ADS1" s="15"/>
+      <c r="ADT1" s="15"/>
+      <c r="ADU1" s="15"/>
+      <c r="ADV1" s="15"/>
+      <c r="ADW1" s="15"/>
+      <c r="ADX1" s="15"/>
+      <c r="ADY1" s="15"/>
+      <c r="ADZ1" s="15"/>
+      <c r="AEA1" s="15"/>
+      <c r="AEB1" s="15"/>
+      <c r="AEC1" s="15"/>
+      <c r="AED1" s="15"/>
+      <c r="AEE1" s="15"/>
+      <c r="AEF1" s="15"/>
+      <c r="AEG1" s="15"/>
+      <c r="AEH1" s="15"/>
+      <c r="AEI1" s="15"/>
+      <c r="AEJ1" s="15"/>
+      <c r="AEK1" s="15"/>
+      <c r="AEL1" s="15"/>
+      <c r="AEM1" s="15"/>
+      <c r="AEN1" s="15"/>
+      <c r="AEO1" s="15"/>
+      <c r="AEP1" s="15"/>
+      <c r="AEQ1" s="15"/>
+      <c r="AER1" s="15"/>
+      <c r="AES1" s="15"/>
+      <c r="AET1" s="15"/>
+      <c r="AEU1" s="15"/>
+      <c r="AEV1" s="15"/>
+      <c r="AEW1" s="15"/>
+      <c r="AEX1" s="15"/>
+      <c r="AEY1" s="15"/>
+      <c r="AEZ1" s="15"/>
+      <c r="AFA1" s="15"/>
+      <c r="AFB1" s="15"/>
+      <c r="AFC1" s="15"/>
+      <c r="AFD1" s="15"/>
+      <c r="AFE1" s="15"/>
+      <c r="AFF1" s="15"/>
+      <c r="AFG1" s="15"/>
+      <c r="AFH1" s="15"/>
+      <c r="AFI1" s="15"/>
+      <c r="AFJ1" s="15"/>
+      <c r="AFK1" s="15"/>
+      <c r="AFL1" s="15"/>
+      <c r="AFM1" s="15"/>
+      <c r="AFN1" s="15"/>
+      <c r="AFO1" s="15"/>
+      <c r="AFP1" s="15"/>
+      <c r="AFQ1" s="15"/>
+      <c r="AFR1" s="15"/>
+      <c r="AFS1" s="15"/>
+      <c r="AFT1" s="15"/>
+      <c r="AFU1" s="15"/>
+      <c r="AFV1" s="15"/>
+      <c r="AFW1" s="15"/>
+      <c r="AFX1" s="15"/>
+      <c r="AFY1" s="15"/>
+      <c r="AFZ1" s="15"/>
+      <c r="AGA1" s="15"/>
+      <c r="AGB1" s="15"/>
+      <c r="AGC1" s="15"/>
+      <c r="AGD1" s="15"/>
+      <c r="AGE1" s="15"/>
+      <c r="AGF1" s="15"/>
+      <c r="AGG1" s="15"/>
+      <c r="AGH1" s="15"/>
+      <c r="AGI1" s="15"/>
+      <c r="AGJ1" s="15"/>
+      <c r="AGK1" s="15"/>
+      <c r="AGL1" s="15"/>
+      <c r="AGM1" s="15"/>
+      <c r="AGN1" s="15"/>
+      <c r="AGO1" s="15"/>
+      <c r="AGP1" s="15"/>
+      <c r="AGQ1" s="15"/>
+      <c r="AGR1" s="15"/>
+      <c r="AGS1" s="15"/>
+      <c r="AGT1" s="15"/>
+      <c r="AGU1" s="15"/>
+      <c r="AGV1" s="15"/>
+      <c r="AGW1" s="15"/>
+      <c r="AGX1" s="15"/>
+      <c r="AGY1" s="15"/>
+      <c r="AGZ1" s="15"/>
+      <c r="AHA1" s="15"/>
+      <c r="AHB1" s="15"/>
+      <c r="AHC1" s="15"/>
+      <c r="AHD1" s="15"/>
+      <c r="AHE1" s="15"/>
+      <c r="AHF1" s="15"/>
+      <c r="AHG1" s="15"/>
+      <c r="AHH1" s="15"/>
+      <c r="AHI1" s="15"/>
+      <c r="AHJ1" s="15"/>
+      <c r="AHK1" s="15"/>
+      <c r="AHL1" s="15"/>
+      <c r="AHM1" s="15"/>
+      <c r="AHN1" s="15"/>
+      <c r="AHO1" s="15"/>
+      <c r="AHP1" s="15"/>
+      <c r="AHQ1" s="15"/>
+      <c r="AHR1" s="15"/>
+      <c r="AHS1" s="15"/>
+      <c r="AHT1" s="15"/>
+      <c r="AHU1" s="15"/>
+      <c r="AHV1" s="15"/>
+      <c r="AHW1" s="15"/>
+      <c r="AHX1" s="15"/>
+      <c r="AHY1" s="15"/>
+      <c r="AHZ1" s="15"/>
+      <c r="AIA1" s="15"/>
+      <c r="AIB1" s="15"/>
+      <c r="AIC1" s="15"/>
+      <c r="AID1" s="15"/>
+      <c r="AIE1" s="15"/>
+      <c r="AIF1" s="15"/>
+      <c r="AIG1" s="15"/>
+      <c r="AIH1" s="15"/>
+      <c r="AII1" s="15"/>
+      <c r="AIJ1" s="15"/>
+      <c r="AIK1" s="15"/>
+      <c r="AIL1" s="15"/>
+      <c r="AIM1" s="15"/>
+      <c r="AIN1" s="15"/>
+      <c r="AIO1" s="15"/>
+      <c r="AIP1" s="15"/>
+      <c r="AIQ1" s="15"/>
+      <c r="AIR1" s="15"/>
+      <c r="AIS1" s="15"/>
+      <c r="AIT1" s="15"/>
+      <c r="AIU1" s="15"/>
+      <c r="AIV1" s="15"/>
+      <c r="AIW1" s="15"/>
+      <c r="AIX1" s="15"/>
+      <c r="AIY1" s="15"/>
+      <c r="AIZ1" s="15"/>
+      <c r="AJA1" s="15"/>
+      <c r="AJB1" s="15"/>
+      <c r="AJC1" s="15"/>
+      <c r="AJD1" s="15"/>
+      <c r="AJE1" s="15"/>
+      <c r="AJF1" s="15"/>
+      <c r="AJG1" s="15"/>
+      <c r="AJH1" s="15"/>
+      <c r="AJI1" s="15"/>
+      <c r="AJJ1" s="15"/>
+      <c r="AJK1" s="15"/>
+      <c r="AJL1" s="15"/>
+      <c r="AJM1" s="15"/>
+      <c r="AJN1" s="15"/>
+      <c r="AJO1" s="15"/>
+      <c r="AJP1" s="15"/>
+      <c r="AJQ1" s="15"/>
+      <c r="AJR1" s="15"/>
+      <c r="AJS1" s="15"/>
+      <c r="AJT1" s="15"/>
+      <c r="AJU1" s="15"/>
+      <c r="AJV1" s="15"/>
+      <c r="AJW1" s="15"/>
+      <c r="AJX1" s="15"/>
+      <c r="AJY1" s="15"/>
+      <c r="AJZ1" s="15"/>
+      <c r="AKA1" s="15"/>
+      <c r="AKB1" s="15"/>
+      <c r="AKC1" s="15"/>
+      <c r="AKD1" s="15"/>
+      <c r="AKE1" s="15"/>
+      <c r="AKF1" s="15"/>
+      <c r="AKG1" s="15"/>
+      <c r="AKH1" s="15"/>
+      <c r="AKI1" s="15"/>
+      <c r="AKJ1" s="15"/>
+      <c r="AKK1" s="15"/>
+      <c r="AKL1" s="15"/>
+      <c r="AKM1" s="15"/>
+      <c r="AKN1" s="15"/>
+      <c r="AKO1" s="15"/>
+      <c r="AKP1" s="15"/>
+      <c r="AKQ1" s="15"/>
+      <c r="AKR1" s="15"/>
+      <c r="AKS1" s="15"/>
+      <c r="AKT1" s="15"/>
+      <c r="AKU1" s="15"/>
+      <c r="AKV1" s="15"/>
+      <c r="AKW1" s="15"/>
+      <c r="AKX1" s="15"/>
+      <c r="AKY1" s="15"/>
+      <c r="AKZ1" s="15"/>
+      <c r="ALA1" s="15"/>
+      <c r="ALB1" s="15"/>
+      <c r="ALC1" s="15"/>
+      <c r="ALD1" s="15"/>
+      <c r="ALE1" s="15"/>
+      <c r="ALF1" s="15"/>
+      <c r="ALG1" s="15"/>
+      <c r="ALH1" s="15"/>
+      <c r="ALI1" s="15"/>
+      <c r="ALJ1" s="15"/>
+      <c r="ALK1" s="15"/>
+      <c r="ALL1" s="15"/>
+      <c r="ALM1" s="15"/>
+      <c r="ALN1" s="15"/>
+      <c r="ALO1" s="15"/>
+      <c r="ALP1" s="15"/>
+      <c r="ALQ1" s="15"/>
+      <c r="ALR1" s="15"/>
+      <c r="ALS1" s="15"/>
+      <c r="ALT1" s="15"/>
+      <c r="ALU1" s="15"/>
+      <c r="ALV1" s="15"/>
+      <c r="ALW1" s="15"/>
+      <c r="ALX1" s="15"/>
+      <c r="ALY1" s="15"/>
+      <c r="ALZ1" s="15"/>
+      <c r="AMA1" s="15"/>
+      <c r="AMB1" s="15"/>
+      <c r="AMC1" s="15"/>
+      <c r="AMD1" s="15"/>
+      <c r="AME1" s="15"/>
+      <c r="AMF1" s="15"/>
+      <c r="AMG1" s="15"/>
+      <c r="AMH1" s="15"/>
+      <c r="AMI1" s="15"/>
+      <c r="AMJ1" s="15"/>
+      <c r="AMK1" s="15"/>
+      <c r="AML1" s="15"/>
+      <c r="AMM1" s="15"/>
+      <c r="AMN1" s="15"/>
+      <c r="AMO1" s="15"/>
+      <c r="AMP1" s="15"/>
+      <c r="AMQ1" s="15"/>
+      <c r="AMR1" s="15"/>
       <c r="AMS1"/>
       <c r="AMT1"/>
       <c r="AMU1"/>
@@ -20434,8 +20425,8 @@
       <c r="XFC1"/>
       <c r="XFD1"/>
     </row>
-    <row r="2" s="16" customFormat="1" ht="15.1" customHeight="1" spans="1:16384">
-      <c r="A2" s="23" t="s">
+    <row r="2" s="15" customFormat="1" ht="15.1" customHeight="1" spans="1:16384">
+      <c r="A2" s="22" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -20472,28 +20463,32 @@
         <v>71</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AMQ2"/>
-      <c r="AMR2"/>
       <c r="AMS2"/>
       <c r="AMT2"/>
       <c r="AMU2"/>
@@ -35847,30 +35842,30 @@
       <c r="XFC2"/>
       <c r="XFD2"/>
     </row>
-    <row r="3" customHeight="1" spans="1:18">
-      <c r="A3" s="17" t="s">
+    <row r="3" customHeight="1" spans="1:20">
+      <c r="A3" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="C3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="I3" s="9">
         <v>4.58e-17</v>
@@ -35879,43 +35874,49 @@
         <v>4.58e-18</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N3" s="1">
+        <v>7.75</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0.775</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="M3" s="1">
-        <v>7.75</v>
-      </c>
-      <c r="N3" s="1" t="s">
+      <c r="T3" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="R3" s="17" t="s">
+    </row>
+    <row r="4" customHeight="1" spans="1:20">
+      <c r="A4" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:18">
-      <c r="A4" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="17" t="s">
+      <c r="C4" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="D4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
@@ -35924,19 +35925,25 @@
         <v>0</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N4" s="1">
+        <v>7.75</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0.775</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="T4" s="16" t="s">
         <v>87</v>
-      </c>
-      <c r="M4" s="1">
-        <v>7.75</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="R4" s="17" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -35945,7 +35952,7 @@
   </autoFilter>
   <mergeCells count="2">
     <mergeCell ref="H1:K1"/>
-    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="M1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -35989,19 +35996,19 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>40</v>
@@ -36022,13 +36029,13 @@
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -36037,19 +36044,19 @@
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H2" s="22"/>
+        <v>96</v>
+      </c>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
@@ -36058,19 +36065,19 @@
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H3" s="22"/>
+        <v>96</v>
+      </c>
+      <c r="H3" s="21"/>
     </row>
     <row r="4" customHeight="1" spans="1:8">
       <c r="A4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="E4" s="1">
         <v>3</v>
@@ -36079,19 +36086,19 @@
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H4" s="22"/>
+        <v>96</v>
+      </c>
+      <c r="H4" s="21"/>
     </row>
     <row r="5" customHeight="1" spans="1:8">
       <c r="A5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="E5" s="1">
         <v>4</v>
@@ -36100,19 +36107,19 @@
         <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H5" s="22"/>
+        <v>96</v>
+      </c>
+      <c r="H5" s="21"/>
     </row>
     <row r="6" customHeight="1" spans="1:8">
       <c r="A6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="E6" s="1">
         <v>5</v>
@@ -36121,19 +36128,19 @@
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H6" s="22"/>
+        <v>96</v>
+      </c>
+      <c r="H6" s="21"/>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="E7" s="1">
         <v>6</v>
@@ -36142,20 +36149,20 @@
         <v>0</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="8:8">
-      <c r="H8" s="17"/>
+      <c r="H8" s="16"/>
     </row>
     <row r="9" customHeight="1" spans="8:8">
-      <c r="H9" s="17"/>
+      <c r="H9" s="16"/>
     </row>
     <row r="10" customHeight="1" spans="8:8">
-      <c r="H10" s="17"/>
+      <c r="H10" s="16"/>
     </row>
     <row r="11" customHeight="1" spans="8:8">
-      <c r="H11" s="19"/>
+      <c r="H11" s="18"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I7">
@@ -36195,10 +36202,10 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>70</v>
@@ -36221,114 +36228,114 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -36411,104 +36418,104 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="21">
+        <v>0.000148</v>
+      </c>
+      <c r="G2" s="21" t="s">
         <v>124</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" s="22">
-        <v>0.000148</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" s="22">
+        <v>79</v>
+      </c>
+      <c r="E3" s="21">
         <v>0.0002</v>
       </c>
-      <c r="G3" s="22" t="s">
-        <v>125</v>
+      <c r="G3" s="21" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" s="22">
+        <v>79</v>
+      </c>
+      <c r="E4" s="21">
         <v>0.0005</v>
       </c>
-      <c r="G4" s="22" t="s">
-        <v>125</v>
+      <c r="G4" s="21" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="22">
+        <v>79</v>
+      </c>
+      <c r="E5" s="21">
         <v>0.0005</v>
       </c>
-      <c r="G5" s="22" t="s">
-        <v>125</v>
+      <c r="G5" s="21" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" s="22">
+        <v>79</v>
+      </c>
+      <c r="E6" s="21">
         <v>0.001</v>
       </c>
-      <c r="G6" s="22" t="s">
-        <v>125</v>
+      <c r="G6" s="21" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" s="22">
+        <v>79</v>
+      </c>
+      <c r="E7" s="21">
         <v>0.002</v>
       </c>
-      <c r="G7" s="22" t="s">
-        <v>125</v>
+      <c r="G7" s="21" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/tests/multialgorithm/fixtures/test_new_features_model.xlsx
+++ b/tests/multialgorithm/fixtures/test_new_features_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14070" tabRatio="993" activeTab="13"/>
+    <workbookView windowWidth="20295" windowHeight="6945" tabRatio="993" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Table of contents" sheetId="24" r:id="rId1"/>
@@ -35,7 +35,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Table of contents'!$A$1:$C$23</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Compartments!$A$2:$G$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Species types'!$A$1:$I$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Species types'!$A$2:$K$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">Reactions!$A$2:$D$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">Parameters!$A$1:$F$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">References!$A$1:$D$1</definedName>
@@ -44,10 +44,10 @@
     <definedName name="_FilterDatabase_0_0" localSheetId="5">Compartments!$A$2:$G$4</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="5">Compartments!$A$2:$G$4</definedName>
     <definedName name="_FilterDatabase_0_0_0_0" localSheetId="5">Compartments!$A$2:$G$4</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="6">'Species types'!$A$1:$I$6</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="6">'Species types'!$A$1:$I$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="6">'Species types'!$A$1:$I$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="6">'Species types'!$A$1:$I$6</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="6">'Species types'!$A$2:$K$7</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="6">'Species types'!$A$2:$K$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="6">'Species types'!$A$2:$K$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="6">'Species types'!$A$2:$K$7</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="11">Reactions!$A$2:$D$6</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="11">Reactions!$A$2:$D$6</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="11">Reactions!$A$2:$D$6</definedName>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="231">
   <si>
     <t>Table</t>
   </si>
@@ -335,6 +335,15 @@
     <t>Structure</t>
   </si>
   <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>Alphabet</t>
+  </si>
+  <si>
     <t>Empirical formula</t>
   </si>
   <si>
@@ -353,9 +362,6 @@
     <t>specie_name_1</t>
   </si>
   <si>
-    <t>CO</t>
-  </si>
-  <si>
     <t>pseudo_species</t>
   </si>
   <si>
@@ -365,16 +371,10 @@
     <t>specie_name_2</t>
   </si>
   <si>
-    <t>NONa2</t>
-  </si>
-  <si>
     <t>specie_3</t>
   </si>
   <si>
     <t>specie_name_3</t>
-  </si>
-  <si>
-    <t>N2O2Na4</t>
   </si>
   <si>
     <t>specie_4</t>
@@ -383,25 +383,16 @@
     <t>specie_name_4</t>
   </si>
   <si>
-    <t>N5O5Na10</t>
-  </si>
-  <si>
     <t>specie_5</t>
   </si>
   <si>
     <t>specie_name_5</t>
   </si>
   <si>
-    <t>Na5</t>
-  </si>
-  <si>
     <t>specie_6</t>
   </si>
   <si>
     <t>specie_name_6</t>
-  </si>
-  <si>
-    <t>N5O5</t>
   </si>
   <si>
     <t>Species type</t>
@@ -602,9 +593,6 @@
     <t>dFBA objective reaction</t>
   </si>
   <si>
-    <t>Value</t>
-  </si>
-  <si>
     <t>dfba-net-species-Metabolism_biomass-specie_2[c]</t>
   </si>
   <si>
@@ -778,12 +766,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="176" formatCode="0.000E+00"/>
+    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="0.000E+00"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -832,9 +820,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -860,6 +847,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -877,7 +872,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -891,68 +886,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -967,7 +910,52 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -994,7 +982,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1006,43 +1018,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1060,7 +1060,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1072,7 +1096,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1084,19 +1132,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1108,73 +1162,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1199,9 +1187,53 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1221,26 +1253,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1259,153 +1282,118 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1415,18 +1403,18 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1485,15 +1473,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="35" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2183,7 +2171,7 @@
         <v>27</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>70</v>
@@ -2243,7 +2231,7 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>70</v>
@@ -2266,10 +2254,10 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>80</v>
@@ -2277,10 +2265,10 @@
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>80</v>
@@ -2332,7 +2320,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="19" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H1" s="19"/>
       <c r="I1" s="19"/>
@@ -2350,22 +2338,22 @@
         <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>70</v>
@@ -2391,22 +2379,22 @@
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="16" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>54</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E3" s="17">
         <v>0</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G3" s="17">
         <v>0</v>
@@ -2415,28 +2403,28 @@
         <v>1</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J3" s="20"/>
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>54</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E4" s="17">
         <v>0</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G4" s="17">
         <v>1</v>
@@ -2445,50 +2433,50 @@
         <v>2</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J4" s="20"/>
     </row>
     <row r="5" customHeight="1" spans="1:10">
       <c r="A5" s="16" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>57</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E5" s="17">
         <v>1</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
     </row>
     <row r="6" customHeight="1" spans="1:10">
       <c r="A6" s="16" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>57</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E6" s="17">
         <v>0</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
@@ -2538,16 +2526,16 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>70</v>
@@ -2570,19 +2558,19 @@
     </row>
     <row r="2" customHeight="1" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
@@ -2591,19 +2579,19 @@
     </row>
     <row r="3" customHeight="1" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
@@ -2612,19 +2600,19 @@
     </row>
     <row r="4" customHeight="1" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
@@ -2633,19 +2621,19 @@
     </row>
     <row r="5" customHeight="1" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
@@ -2655,19 +2643,19 @@
     </row>
     <row r="6" customHeight="1" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
@@ -2693,7 +2681,7 @@
   <sheetPr/>
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -2714,19 +2702,19 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>70</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>40</v>
@@ -2746,19 +2734,19 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>82</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>39</v>
@@ -2799,13 +2787,13 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>70</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>40</v>
@@ -2825,22 +2813,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="12" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>80</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -2885,13 +2873,13 @@
         <v>27</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>178</v>
+        <v>89</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>70</v>
@@ -2914,22 +2902,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:6">
       <c r="A2" s="12" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E2" s="13">
         <v>-1</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2975,13 +2963,13 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>178</v>
+        <v>89</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>70</v>
@@ -3004,10 +2992,10 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D2" s="1">
         <v>0.3</v>
@@ -3016,91 +3004,91 @@
         <v>82</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D4" s="9">
         <v>2000</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D5" s="9">
         <v>0.0003</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D6" s="9">
         <v>0.0003</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D7" s="9">
         <v>0.0003</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D8" s="9">
         <v>0.001</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
@@ -3111,7 +3099,7 @@
         <v>1100</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
@@ -3122,18 +3110,18 @@
         <v>1000</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D11" s="9">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -3173,7 +3161,7 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>70</v>
@@ -3224,7 +3212,7 @@
   <sheetData>
     <row r="1" customHeight="1" spans="7:20">
       <c r="G1" s="8" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H1" s="8"/>
       <c r="I1" s="8" t="s">
@@ -3236,11 +3224,11 @@
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
       <c r="Q1" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="R1" s="7"/>
       <c r="S1" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="T1" s="7"/>
     </row>
@@ -3252,22 +3240,22 @@
         <v>27</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>178</v>
+        <v>89</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>70</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>50</v>
@@ -3279,19 +3267,19 @@
         <v>61</v>
       </c>
       <c r="L2" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>201</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>205</v>
       </c>
       <c r="Q2" s="5" t="s">
         <v>27</v>
@@ -3470,7 +3458,7 @@
   <sheetData>
     <row r="1" spans="7:8">
       <c r="G1" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H1" s="7"/>
     </row>
@@ -3482,16 +3470,16 @@
         <v>27</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>178</v>
+        <v>89</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>70</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>27</v>
@@ -3592,46 +3580,46 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>219</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>40</v>
@@ -3677,28 +3665,28 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>226</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>40</v>
@@ -3739,28 +3727,28 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>233</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>40</v>
@@ -3781,7 +3769,7 @@
         <v>23</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -4043,19 +4031,19 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
       <c r="L1" s="15"/>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
       <c r="Q1" s="15"/>
       <c r="R1" s="15"/>
       <c r="S1" s="15"/>
@@ -20426,7 +20414,7 @@
       <c r="XFD1"/>
     </row>
     <row r="2" s="15" customFormat="1" ht="15.1" customHeight="1" spans="1:16384">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -35963,211 +35951,212 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AMK11"/>
+  <dimension ref="A1:AMM12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G2:G7"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8.78333333333333" style="1"/>
     <col min="2" max="2" width="15" style="1"/>
-    <col min="3" max="3" width="11.4583333333333" style="1"/>
-    <col min="4" max="4" width="10.5" style="1"/>
-    <col min="5" max="5" width="10.2833333333333" style="1"/>
-    <col min="6" max="6" width="9.425" style="1"/>
-    <col min="7" max="8" width="18.8583333333333" style="1"/>
-    <col min="9" max="10" width="10.5" style="1"/>
-    <col min="11" max="1024" width="8.78333333333333" style="1"/>
-    <col min="1025" max="1026" width="8.78333333333333" style="4"/>
-    <col min="1027" max="16384" width="9" style="4"/>
+    <col min="3" max="5" width="11.4583333333333" style="1"/>
+    <col min="6" max="6" width="10.5" style="1"/>
+    <col min="7" max="7" width="10.2833333333333" style="1"/>
+    <col min="8" max="8" width="9.425" style="1"/>
+    <col min="9" max="10" width="18.8583333333333" style="1"/>
+    <col min="11" max="12" width="10.5" style="1"/>
+    <col min="13" max="1026" width="8.78333333333333" style="1"/>
+    <col min="1027" max="1028" width="8.78333333333333" style="4"/>
+    <col min="1029" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" customHeight="1" spans="1:1025">
-      <c r="A1" s="2" t="s">
+    <row r="1" customHeight="1" spans="3:8">
+      <c r="C1" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+    </row>
+    <row r="2" s="3" customFormat="1" customHeight="1" spans="1:1027">
+      <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AMK1" s="4"/>
+      <c r="AMM2" s="4"/>
     </row>
-    <row r="2" customHeight="1" spans="1:8">
-      <c r="A2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E2" s="1">
+    <row r="3" customHeight="1" spans="1:10">
+      <c r="A3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G3" s="1">
         <v>1</v>
       </c>
-      <c r="F2" s="1">
+      <c r="H3" s="1">
         <v>0</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H2" s="21"/>
+      <c r="I3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J3" s="21"/>
     </row>
-    <row r="3" customHeight="1" spans="1:8">
-      <c r="A3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="4" customHeight="1" spans="1:10">
+      <c r="A4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="J4" s="21"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:10">
+      <c r="A5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1">
         <v>0</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H3" s="21"/>
+      <c r="I5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J5" s="21"/>
     </row>
-    <row r="4" customHeight="1" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E4" s="1">
-        <v>3</v>
-      </c>
-      <c r="F4" s="1">
+    <row r="6" customHeight="1" spans="1:10">
+      <c r="A6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4</v>
+      </c>
+      <c r="H6" s="1">
         <v>0</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H4" s="21"/>
+      <c r="I6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J6" s="21"/>
     </row>
-    <row r="5" customHeight="1" spans="1:8">
-      <c r="A5" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D5" s="1" t="s">
+    <row r="7" customHeight="1" spans="1:10">
+      <c r="A7" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E5" s="1">
-        <v>4</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="B7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="1">
+        <v>5</v>
+      </c>
+      <c r="H7" s="1">
         <v>0</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H5" s="21"/>
+      <c r="I7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J7" s="21"/>
     </row>
-    <row r="6" customHeight="1" spans="1:8">
-      <c r="A6" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    <row r="8" customHeight="1" spans="1:9">
+      <c r="A8" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E6" s="1">
-        <v>5</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="G8" s="1">
+        <v>6</v>
+      </c>
+      <c r="H8" s="1">
         <v>0</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H6" s="21"/>
+      <c r="I8" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="7" customHeight="1" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E7" s="1">
-        <v>6</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>96</v>
-      </c>
+    <row r="9" customHeight="1" spans="10:10">
+      <c r="J9" s="16"/>
     </row>
-    <row r="8" customHeight="1" spans="8:8">
-      <c r="H8" s="16"/>
+    <row r="10" customHeight="1" spans="10:10">
+      <c r="J10" s="16"/>
     </row>
-    <row r="9" customHeight="1" spans="8:8">
-      <c r="H9" s="16"/>
+    <row r="11" customHeight="1" spans="10:10">
+      <c r="J11" s="16"/>
     </row>
-    <row r="10" customHeight="1" spans="8:8">
-      <c r="H10" s="16"/>
-    </row>
-    <row r="11" customHeight="1" spans="8:8">
-      <c r="H11" s="18"/>
+    <row r="12" customHeight="1" spans="10:10">
+      <c r="J12" s="18"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I7">
+  <autoFilter ref="A2:K8">
     <extLst/>
   </autoFilter>
+  <mergeCells count="1">
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
@@ -36202,10 +36191,10 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>70</v>
@@ -36228,49 +36217,49 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>103</v>
@@ -36279,63 +36268,63 @@
         <v>72</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -36418,10 +36407,10 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>79</v>
@@ -36430,15 +36419,15 @@
         <v>0.000148</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>79</v>
@@ -36447,15 +36436,15 @@
         <v>0.0002</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>79</v>
@@ -36464,15 +36453,15 @@
         <v>0.0005</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>79</v>
@@ -36481,15 +36470,15 @@
         <v>0.0005</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>79</v>
@@ -36498,15 +36487,15 @@
         <v>0.001</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>79</v>
@@ -36515,7 +36504,7 @@
         <v>0.002</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/tests/multialgorithm/fixtures/test_new_features_model.xlsx
+++ b/tests/multialgorithm/fixtures/test_new_features_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="20295" windowHeight="6945" tabRatio="993" activeTab="6"/>
+    <workbookView windowWidth="28695" windowHeight="14070" tabRatio="993" firstSheet="9" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="Table of contents" sheetId="24" r:id="rId1"/>
@@ -26,19 +26,20 @@
     <sheet name="dFBA objective species" sheetId="13" r:id="rId16"/>
     <sheet name="Parameters" sheetId="14" r:id="rId17"/>
     <sheet name="Stop conditions" sheetId="15" r:id="rId18"/>
-    <sheet name="Evidence" sheetId="19" r:id="rId19"/>
-    <sheet name="Interpretations" sheetId="21" r:id="rId20"/>
-    <sheet name="References" sheetId="16" r:id="rId21"/>
-    <sheet name="Authors" sheetId="22" r:id="rId22"/>
-    <sheet name="Changes" sheetId="23" r:id="rId23"/>
+    <sheet name="Observations" sheetId="19" r:id="rId19"/>
+    <sheet name="Observation sets" sheetId="25" r:id="rId20"/>
+    <sheet name="Conclusions" sheetId="21" r:id="rId21"/>
+    <sheet name="References" sheetId="16" r:id="rId22"/>
+    <sheet name="Authors" sheetId="22" r:id="rId23"/>
+    <sheet name="Changes" sheetId="23" r:id="rId24"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Table of contents'!$A$1:$C$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Table of contents'!$A$1:$C$24</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Compartments!$A$2:$G$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Species types'!$A$2:$K$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">Reactions!$A$2:$D$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">Parameters!$A$1:$F$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">References!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">References!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4">Submodels!#REF!</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="5">Compartments!$A$2:$G$4</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="5">Compartments!$A$2:$G$4</definedName>
@@ -56,17 +57,17 @@
     <definedName name="_FilterDatabase_0_0" localSheetId="16">Parameters!$A$1:$F$1</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="16">Parameters!$A$1:$F$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0" localSheetId="16">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="20">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="20">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="20">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="20">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="21">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="21">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="21">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="21">References!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="233">
   <si>
     <t>Table</t>
   </si>
@@ -128,10 +129,13 @@
     <t>Stop conditions</t>
   </si>
   <si>
-    <t>Evidence</t>
+    <t>Observations</t>
   </si>
   <si>
-    <t>Interpretations</t>
+    <t>Observation sets</t>
+  </si>
+  <si>
+    <t>Conclusions</t>
   </si>
   <si>
     <t>References</t>
@@ -228,6 +232,9 @@
   </si>
   <si>
     <t>Framework</t>
+  </si>
+  <si>
+    <t>Evidence</t>
   </si>
   <si>
     <t>dfba_submodel</t>
@@ -650,10 +657,10 @@
     <t>Genotype</t>
   </si>
   <si>
-    <t>Measurement method</t>
+    <t>Data generation process</t>
   </si>
   <si>
-    <t>Analysis method</t>
+    <t>Data analysis process</t>
   </si>
   <si>
     <t>Variant</t>
@@ -674,7 +681,10 @@
     <t>Experiment design</t>
   </si>
   <si>
-    <t>Method</t>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
   <si>
     <t>Title</t>
@@ -757,9 +767,6 @@
   <si>
     <t>Intention type</t>
   </si>
-  <si>
-    <t>Date</t>
-  </si>
 </sst>
 </file>
 
@@ -767,11 +774,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.000E+00"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -820,6 +827,19 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -827,9 +847,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -842,11 +900,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -856,7 +909,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -872,14 +925,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -888,29 +933,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -923,21 +946,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -946,16 +954,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -982,7 +989,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -994,25 +1055,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1024,7 +1127,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1036,133 +1169,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1185,22 +1192,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1216,24 +1218,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1268,157 +1252,180 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1498,6 +1505,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1887,12 +1897,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A19:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" zeroHeight="1" outlineLevelCol="2"/>
@@ -2079,8 +2089,8 @@
         <v>21</v>
       </c>
       <c r="B20" s="29"/>
-      <c r="C20" s="29">
-        <v>2</v>
+      <c r="C20" s="30">
+        <v>0</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:3">
@@ -2089,7 +2099,7 @@
       </c>
       <c r="B21" s="29"/>
       <c r="C21" s="29">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:3">
@@ -2098,7 +2108,7 @@
       </c>
       <c r="B22" s="29"/>
       <c r="C22" s="29">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:3">
@@ -2110,9 +2120,18 @@
         <v>0</v>
       </c>
     </row>
+    <row r="24" customHeight="1" spans="1:3">
+      <c r="A24" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection sheet="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0" objects="1" scenarios="1"/>
-  <autoFilter ref="A1:C23">
+  <autoFilter ref="A1:C24">
     <extLst/>
   </autoFilter>
   <hyperlinks>
@@ -2133,11 +2152,11 @@
     <hyperlink ref="A16" location="'dFBA objective species'!A1" display="dFBA objective species" tooltip="Click to view dfba objective species"/>
     <hyperlink ref="A17" location="'Parameters'!A1" display="Parameters" tooltip="Click to view parameters"/>
     <hyperlink ref="A18" location="'Stop conditions'!A1" display="Stop conditions" tooltip="Click to view stop conditions"/>
-    <hyperlink ref="A19" location="'Evidence'!A1" display="Evidence" tooltip="Click to view evidence"/>
-    <hyperlink ref="A20" location="'Interpretations'!A1" display="Interpretations" tooltip="Click to view interpretations"/>
-    <hyperlink ref="A21" location="'References'!A1" display="References" tooltip="Click to view references"/>
-    <hyperlink ref="A22" location="'Authors'!A1" display="Authors" tooltip="Click to view authors"/>
-    <hyperlink ref="A23" location="'Changes'!A1" display="Changes" tooltip="Click to view changes"/>
+    <hyperlink ref="A22" location="'References'!A1" display="References" tooltip="Click to view references"/>
+    <hyperlink ref="A23" location="'Authors'!A1" display="Authors" tooltip="Click to view authors"/>
+    <hyperlink ref="A24" location="'Changes'!A1" display="Changes" tooltip="Click to view changes"/>
+    <hyperlink ref="A19" location="'Evidence'!A1" display="Observations" tooltip="Click to view evidence"/>
+    <hyperlink ref="A21" location="'Interpretations'!A1" display="Conclusions" tooltip="Click to view interpretations"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -2165,31 +2184,31 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2225,53 +2244,53 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2320,7 +2339,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="19" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H1" s="19"/>
       <c r="I1" s="19"/>
@@ -2332,46 +2351,46 @@
     </row>
     <row r="2" s="15" customFormat="1" customHeight="1" spans="1:1026">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AMJ2" s="14"/>
       <c r="AMK2" s="14"/>
@@ -2379,22 +2398,22 @@
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="16" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E3" s="17">
         <v>0</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G3" s="17">
         <v>0</v>
@@ -2403,28 +2422,28 @@
         <v>1</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="J3" s="20"/>
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="16" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E4" s="17">
         <v>0</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G4" s="17">
         <v>1</v>
@@ -2433,50 +2452,50 @@
         <v>2</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="J4" s="20"/>
     </row>
     <row r="5" customHeight="1" spans="1:10">
       <c r="A5" s="16" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E5" s="17">
         <v>1</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
     </row>
     <row r="6" customHeight="1" spans="1:10">
       <c r="A6" s="16" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E6" s="17">
         <v>0</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
@@ -2520,57 +2539,57 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
@@ -2579,19 +2598,19 @@
     </row>
     <row r="3" customHeight="1" spans="1:11">
       <c r="A3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
@@ -2600,19 +2619,19 @@
     </row>
     <row r="4" customHeight="1" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
@@ -2621,19 +2640,19 @@
     </row>
     <row r="5" customHeight="1" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
@@ -2643,19 +2662,19 @@
     </row>
     <row r="6" customHeight="1" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
@@ -2696,60 +2715,60 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2781,54 +2800,54 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:10">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="12" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -2867,57 +2886,57 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:11">
       <c r="A1" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:6">
       <c r="A2" s="12" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E2" s="13">
         <v>-1</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -2957,171 +2976,171 @@
   <sheetData>
     <row r="1" s="3" customFormat="1" customHeight="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D2" s="1">
         <v>0.3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>182</v>
       </c>
       <c r="D4" s="9">
         <v>2000</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D5" s="9">
         <v>0.0003</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D6" s="9">
         <v>0.0003</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D7" s="9">
         <v>0.0003</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D8" s="9">
         <v>0.001</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D9" s="1">
         <v>1100</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D10" s="1">
         <v>1000</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D11" s="9">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -3155,31 +3174,31 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -3195,14 +3214,14 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q1" sqref="Q1:T2"/>
+      <selection pane="bottomRight" activeCell="Q1" sqref="Q1:T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
@@ -3212,7 +3231,7 @@
   <sheetData>
     <row r="1" customHeight="1" spans="7:20">
       <c r="G1" s="8" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H1" s="8"/>
       <c r="I1" s="8" t="s">
@@ -3224,86 +3243,83 @@
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
       <c r="Q1" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="R1" s="7"/>
       <c r="S1" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="T1" s="7"/>
     </row>
-    <row r="2" customHeight="1" spans="1:24">
+    <row r="2" customHeight="1" spans="1:23">
       <c r="A2" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -3339,89 +3355,89 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" s="26"/>
     </row>
     <row r="10" customHeight="1" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" s="26"/>
     </row>
     <row r="11" customHeight="1" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" s="26"/>
     </row>
     <row r="12" customHeight="1" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" s="26"/>
     </row>
@@ -3438,14 +3454,72 @@
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="14" style="1" customWidth="1"/>
+    <col min="2" max="3" width="13.3916666666667" style="1"/>
+    <col min="4" max="1017" width="9.10833333333333" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.1" customHeight="1" spans="1:6">
+      <c r="A1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1"/>
+    <row r="3" ht="15.1" customHeight="1"/>
+    <row r="4" ht="15.1" customHeight="1"/>
+    <row r="5" ht="15.1" customHeight="1"/>
+    <row r="6" ht="15.1" customHeight="1"/>
+    <row r="7" ht="15.1" customHeight="1"/>
+    <row r="8" ht="15.1" customHeight="1"/>
+    <row r="9" ht="15.1" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G1" sqref="G1:H2"/>
+      <selection pane="bottomRight" activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3458,49 +3532,52 @@
   <sheetData>
     <row r="1" spans="7:8">
       <c r="G1" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H1" s="7"/>
     </row>
-    <row r="2" ht="15.1" customHeight="1" spans="1:13">
+    <row r="2" ht="15.1" customHeight="1" spans="1:14">
       <c r="A2" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="3:4">
@@ -3548,7 +3625,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AMJ1"/>
@@ -3574,58 +3651,58 @@
   <sheetData>
     <row r="1" s="3" customFormat="1" customHeight="1" spans="1:1024">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AMJ1" s="4"/>
     </row>
@@ -3639,7 +3716,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:L1"/>
@@ -3659,40 +3736,40 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -3701,7 +3778,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:Q1"/>
@@ -3721,55 +3798,55 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -3797,44 +3874,44 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -3865,20 +3942,20 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B3" s="1">
         <v>37</v>
@@ -3886,25 +3963,25 @@
     </row>
     <row r="4" customHeight="1" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -3941,28 +4018,28 @@
   <sheetData>
     <row r="1" s="3" customFormat="1" ht="15" customHeight="1" spans="1:1025">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AMI1" s="4"/>
       <c r="AMJ1" s="4"/>
@@ -3970,25 +4047,25 @@
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D2" s="24"/>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -4032,14 +4109,14 @@
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
       <c r="H1" s="22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I1" s="22"/>
       <c r="J1" s="22"/>
       <c r="K1" s="22"/>
       <c r="L1" s="15"/>
       <c r="M1" s="22" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="N1" s="22"/>
       <c r="O1" s="22"/>
@@ -20415,67 +20492,67 @@
     </row>
     <row r="2" s="15" customFormat="1" ht="15.1" customHeight="1" spans="1:16384">
       <c r="A2" s="23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="P2" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AMS2"/>
       <c r="AMT2"/>
@@ -35832,28 +35909,28 @@
     </row>
     <row r="3" customHeight="1" spans="1:20">
       <c r="A3" s="16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I3" s="9">
         <v>4.58e-17</v>
@@ -35862,13 +35939,13 @@
         <v>4.58e-18</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="N3" s="1">
         <v>7.75</v>
@@ -35877,34 +35954,34 @@
         <v>0.775</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="T3" s="16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:20">
       <c r="A4" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
@@ -35913,13 +35990,13 @@
         <v>0</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N4" s="1">
         <v>7.75</v>
@@ -35928,10 +36005,10 @@
         <v>0.775</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="T4" s="16" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -35953,7 +36030,7 @@
   <sheetPr/>
   <dimension ref="A1:AMM12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -35978,7 +36055,7 @@
   <sheetData>
     <row r="1" customHeight="1" spans="3:8">
       <c r="C1" s="22" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D1" s="22"/>
       <c r="E1" s="22"/>
@@ -35988,55 +36065,55 @@
     </row>
     <row r="2" s="3" customFormat="1" customHeight="1" spans="1:1027">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AMM2" s="4"/>
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
@@ -36045,16 +36122,16 @@
         <v>0</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J3" s="21"/>
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G4" s="1">
         <v>2</v>
@@ -36063,16 +36140,16 @@
         <v>0</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J4" s="21"/>
     </row>
     <row r="5" customHeight="1" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G5" s="1">
         <v>3</v>
@@ -36081,16 +36158,16 @@
         <v>0</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J5" s="21"/>
     </row>
     <row r="6" customHeight="1" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G6" s="1">
         <v>4</v>
@@ -36099,16 +36176,16 @@
         <v>0</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J6" s="21"/>
     </row>
     <row r="7" customHeight="1" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G7" s="1">
         <v>5</v>
@@ -36117,16 +36194,16 @@
         <v>0</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J7" s="21"/>
     </row>
     <row r="8" customHeight="1" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G8" s="1">
         <v>6</v>
@@ -36135,7 +36212,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="10:10">
@@ -36185,146 +36262,146 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:10">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -36369,142 +36446,142 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E2" s="21">
         <v>0.000148</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E3" s="21">
         <v>0.0002</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E4" s="21">
         <v>0.0005</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E5" s="21">
         <v>0.0005</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E6" s="21">
         <v>0.001</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E7" s="21">
         <v>0.002</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
